--- a/design/chitiet/Register.xlsx
+++ b/design/chitiet/Register.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="133">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -385,6 +385,9 @@
     <t xml:space="preserve">Email</t>
   </si>
   <si>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mật khẩu</t>
   </si>
   <si>
@@ -413,6 +416,12 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Vùng cố định]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiêu đề đăng ký cở chữ lớn </t>
   </si>
   <si>
     <t xml:space="preserve">9. Khái quát chức năng</t>
@@ -484,19 +493,25 @@
     <t xml:space="preserve">Nội dung check</t>
   </si>
   <si>
-    <t xml:space="preserve">Message</t>
+    <t xml:space="preserve">MessageCode</t>
   </si>
   <si>
     <t xml:space="preserve">Trường hợp chưa nhập, báo lỗi</t>
   </si>
   <si>
-    <t xml:space="preserve">"Vui lòng nhập thông tin này"</t>
+    <t xml:space="preserve">empty_name_err</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empty_email_err</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empty_password_err</t>
   </si>
   <si>
     <t xml:space="preserve">Trường hợp email sai định dạng (example@gmail.com)</t>
   </si>
   <si>
-    <t xml:space="preserve">"Email không hợp lệ"</t>
+    <t xml:space="preserve">invalid_email_err</t>
   </si>
   <si>
     <t xml:space="preserve">Email </t>
@@ -505,13 +520,7 @@
     <t xml:space="preserve">Trường hợp email đã tồn tại trong hệ thống</t>
   </si>
   <si>
-    <t xml:space="preserve">"Email đã tồn tại"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp không khớp với mật khẩu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Mật khẩu không khớp"</t>
+    <t xml:space="preserve">existing_email_err</t>
   </si>
   <si>
     <t xml:space="preserve">3. Xử lý đăng nhập</t>
@@ -1191,7 +1200,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="244">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1848,22 +1857,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="36" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="37" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="37" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="38" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -2018,38 +2011,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2302,9 +2263,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>37440</xdr:colOff>
+      <xdr:colOff>37080</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2317,8 +2278,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3476520" y="22755240"/>
-          <a:ext cx="682200" cy="970920"/>
+          <a:off x="3465360" y="22755240"/>
+          <a:ext cx="678960" cy="970560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2339,9 +2300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>144000</xdr:colOff>
+      <xdr:colOff>143640</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2350,8 +2311,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2559240" y="24246720"/>
-          <a:ext cx="956520" cy="646920"/>
+          <a:off x="2550960" y="24246720"/>
+          <a:ext cx="953280" cy="646560"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2403,13 +2364,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>42840</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>70200</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2418,8 +2379,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3040200" y="23726520"/>
-          <a:ext cx="776880" cy="519120"/>
+          <a:off x="3029760" y="23725800"/>
+          <a:ext cx="774360" cy="518760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2464,9 +2425,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>123120</xdr:colOff>
+      <xdr:colOff>122760</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2475,8 +2436,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381040" y="22507560"/>
-          <a:ext cx="2799720" cy="2609280"/>
+          <a:off x="2373480" y="22507560"/>
+          <a:ext cx="2790000" cy="2608920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2508,9 +2469,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2519,8 +2480,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3187080" y="22231440"/>
-          <a:ext cx="1197000" cy="428040"/>
+          <a:off x="3176280" y="22231440"/>
+          <a:ext cx="1192680" cy="427680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2578,9 +2539,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>65880</xdr:colOff>
+      <xdr:colOff>65520</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2589,8 +2550,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="374760" y="23184000"/>
-          <a:ext cx="1002240" cy="399240"/>
+          <a:off x="373320" y="23184000"/>
+          <a:ext cx="999000" cy="398880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2677,8 +2638,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1482480" y="23317200"/>
-          <a:ext cx="1898640" cy="0"/>
+          <a:off x="1478160" y="23317200"/>
+          <a:ext cx="1891800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2720,8 +2681,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4422600" y="23279040"/>
-          <a:ext cx="1911240" cy="0"/>
+          <a:off x="4407840" y="23279040"/>
+          <a:ext cx="1905120" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2752,9 +2713,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>180000</xdr:colOff>
+      <xdr:colOff>179640</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2763,8 +2724,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6378480" y="23621760"/>
-          <a:ext cx="919800" cy="399600"/>
+          <a:off x="6356880" y="23621760"/>
+          <a:ext cx="916920" cy="399240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2820,9 +2781,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>84960</xdr:colOff>
+      <xdr:colOff>84600</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2835,8 +2796,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6521400" y="22755240"/>
-          <a:ext cx="681840" cy="970920"/>
+          <a:off x="6499800" y="22755240"/>
+          <a:ext cx="678960" cy="970560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2851,15 +2812,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42120</xdr:colOff>
       <xdr:row>133</xdr:row>
       <xdr:rowOff>66600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2868,8 +2829,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3040200" y="23726880"/>
-          <a:ext cx="776880" cy="519120"/>
+          <a:off x="3029040" y="23726880"/>
+          <a:ext cx="774360" cy="518760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2914,9 +2875,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>126720</xdr:colOff>
+      <xdr:colOff>126360</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2925,8 +2886,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4040280" y="24279120"/>
-          <a:ext cx="956880" cy="646920"/>
+          <a:off x="4026960" y="24279120"/>
+          <a:ext cx="953280" cy="646560"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2982,9 +2943,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
+      <xdr:colOff>16920</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2993,8 +2954,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3817800" y="23726880"/>
-          <a:ext cx="695160" cy="513360"/>
+          <a:off x="3805200" y="23726880"/>
+          <a:ext cx="692280" cy="513000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3044,9 +3005,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>94680</xdr:colOff>
+      <xdr:colOff>94320</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3055,8 +3016,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1823760" y="1447920"/>
-          <a:ext cx="4850640" cy="418680"/>
+          <a:off x="1818720" y="1447920"/>
+          <a:ext cx="4833720" cy="418320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3085,20 +3046,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>16200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>54720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>7920</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>23400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 2" descr=""/>
+        <xdr:cNvPr id="14" name="Image 3" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3107,8 +3068,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="765360" y="1909440"/>
-          <a:ext cx="5822280" cy="3615480"/>
+          <a:off x="1385640" y="1668240"/>
+          <a:ext cx="5942880" cy="3211200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11025,13 +10986,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ1048576"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I168" activeCellId="0" sqref="I168"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AY123" activeCellId="0" sqref="AY123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="2.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="59" width="2.65"/>
@@ -12048,7 +12009,7 @@
       <c r="M47" s="122"/>
       <c r="N47" s="124"/>
       <c r="O47" s="122" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="P47" s="122"/>
       <c r="Q47" s="124"/>
@@ -12098,7 +12059,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="120" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E48" s="121"/>
       <c r="F48" s="121"/>
@@ -12113,7 +12074,7 @@
       <c r="M48" s="131"/>
       <c r="N48" s="130"/>
       <c r="O48" s="130" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P48" s="130"/>
       <c r="Q48" s="129"/>
@@ -12132,13 +12093,13 @@
       <c r="X48" s="135"/>
       <c r="Y48" s="132"/>
       <c r="Z48" s="136" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA48" s="135"/>
       <c r="AB48" s="135"/>
       <c r="AC48" s="135"/>
       <c r="AD48" s="134" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE48" s="135"/>
       <c r="AF48" s="135"/>
@@ -12168,7 +12129,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="120" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E49" s="121"/>
       <c r="F49" s="121"/>
@@ -12183,7 +12144,7 @@
       <c r="M49" s="131"/>
       <c r="N49" s="130"/>
       <c r="O49" s="130" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P49" s="130"/>
       <c r="Q49" s="129"/>
@@ -12202,13 +12163,13 @@
       <c r="X49" s="135"/>
       <c r="Y49" s="132"/>
       <c r="Z49" s="136" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA49" s="135"/>
       <c r="AB49" s="135"/>
       <c r="AC49" s="135"/>
       <c r="AD49" s="134" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE49" s="135"/>
       <c r="AF49" s="135"/>
@@ -12239,7 +12200,7 @@
       <c r="A51" s="17"/>
       <c r="B51" s="28"/>
       <c r="C51" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
@@ -12353,7 +12314,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="142" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E53" s="101"/>
       <c r="F53" s="101"/>
@@ -12365,7 +12326,7 @@
       <c r="L53" s="101"/>
       <c r="M53" s="143"/>
       <c r="N53" s="144" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O53" s="145"/>
       <c r="P53" s="145"/>
@@ -12410,7 +12371,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="148" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
@@ -12422,7 +12383,7 @@
       <c r="L54" s="19"/>
       <c r="M54" s="19"/>
       <c r="N54" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O54" s="19"/>
       <c r="P54" s="19"/>
@@ -12562,8 +12523,10 @@
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="17"/>
       <c r="B57" s="28"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="148"/>
+      <c r="C57" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
@@ -12582,17 +12545,17 @@
       <c r="T57" s="19"/>
       <c r="U57" s="19"/>
       <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
+      <c r="W57" s="138"/>
+      <c r="X57" s="138"/>
       <c r="Y57" s="138"/>
       <c r="Z57" s="138"/>
-      <c r="AA57" s="138"/>
+      <c r="AA57" s="19"/>
       <c r="AB57" s="19"/>
       <c r="AC57" s="19"/>
       <c r="AD57" s="19"/>
-      <c r="AE57" s="19"/>
+      <c r="AE57" s="138"/>
       <c r="AF57" s="138"/>
-      <c r="AG57" s="138"/>
+      <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
       <c r="AJ57" s="19"/>
@@ -12612,101 +12575,118 @@
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="17"/>
       <c r="B58" s="28"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="148"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="138"/>
-      <c r="Z58" s="138"/>
-      <c r="AA58" s="138"/>
-      <c r="AB58" s="19"/>
-      <c r="AC58" s="19"/>
-      <c r="AD58" s="19"/>
-      <c r="AE58" s="19"/>
-      <c r="AF58" s="138"/>
-      <c r="AG58" s="138"/>
-      <c r="AH58" s="19"/>
-      <c r="AI58" s="19"/>
-      <c r="AJ58" s="19"/>
-      <c r="AK58" s="19"/>
-      <c r="AL58" s="19"/>
-      <c r="AM58" s="19"/>
-      <c r="AN58" s="19"/>
-      <c r="AO58" s="19"/>
-      <c r="AP58" s="19"/>
-      <c r="AQ58" s="19"/>
-      <c r="AR58" s="19"/>
-      <c r="AS58" s="19"/>
-      <c r="AT58" s="19"/>
-      <c r="AU58" s="19"/>
+      <c r="C58" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="72"/>
+      <c r="L58" s="72"/>
+      <c r="M58" s="72"/>
+      <c r="N58" s="140" t="s">
+        <v>60</v>
+      </c>
+      <c r="O58" s="140"/>
+      <c r="P58" s="140"/>
+      <c r="Q58" s="140"/>
+      <c r="R58" s="140"/>
+      <c r="S58" s="140"/>
+      <c r="T58" s="140"/>
+      <c r="U58" s="140"/>
+      <c r="V58" s="140"/>
+      <c r="W58" s="140"/>
+      <c r="X58" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y58" s="75"/>
+      <c r="Z58" s="75"/>
+      <c r="AA58" s="75"/>
+      <c r="AB58" s="75"/>
+      <c r="AC58" s="75"/>
+      <c r="AD58" s="75"/>
+      <c r="AE58" s="75"/>
+      <c r="AF58" s="75"/>
+      <c r="AG58" s="75"/>
+      <c r="AH58" s="75"/>
+      <c r="AI58" s="75"/>
+      <c r="AJ58" s="75"/>
+      <c r="AK58" s="75"/>
+      <c r="AL58" s="75"/>
+      <c r="AM58" s="75"/>
+      <c r="AN58" s="75"/>
+      <c r="AO58" s="75"/>
+      <c r="AP58" s="75"/>
+      <c r="AQ58" s="75"/>
+      <c r="AR58" s="75"/>
+      <c r="AS58" s="75"/>
+      <c r="AT58" s="75"/>
+      <c r="AU58" s="75"/>
+      <c r="AV58" s="75"/>
       <c r="AW58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="17"/>
       <c r="B59" s="28"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="148"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19"/>
-      <c r="W59" s="19"/>
-      <c r="X59" s="19"/>
-      <c r="Y59" s="138"/>
-      <c r="Z59" s="138"/>
-      <c r="AA59" s="138"/>
-      <c r="AB59" s="19"/>
-      <c r="AC59" s="19"/>
-      <c r="AD59" s="19"/>
-      <c r="AE59" s="19"/>
-      <c r="AF59" s="138"/>
-      <c r="AG59" s="138"/>
-      <c r="AH59" s="19"/>
-      <c r="AI59" s="19"/>
-      <c r="AJ59" s="19"/>
-      <c r="AK59" s="19"/>
-      <c r="AL59" s="19"/>
-      <c r="AM59" s="19"/>
-      <c r="AN59" s="19"/>
-      <c r="AO59" s="19"/>
-      <c r="AP59" s="19"/>
-      <c r="AQ59" s="19"/>
-      <c r="AR59" s="19"/>
-      <c r="AS59" s="19"/>
-      <c r="AT59" s="19"/>
-      <c r="AU59" s="19"/>
+      <c r="C59" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="142" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="101"/>
+      <c r="J59" s="101"/>
+      <c r="K59" s="101"/>
+      <c r="L59" s="101"/>
+      <c r="M59" s="143"/>
+      <c r="N59" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="O59" s="145"/>
+      <c r="P59" s="145"/>
+      <c r="Q59" s="145"/>
+      <c r="R59" s="145"/>
+      <c r="S59" s="145"/>
+      <c r="T59" s="145"/>
+      <c r="U59" s="145"/>
+      <c r="V59" s="145"/>
+      <c r="W59" s="146"/>
+      <c r="X59" s="144" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y59" s="147"/>
+      <c r="Z59" s="147"/>
+      <c r="AA59" s="147"/>
+      <c r="AB59" s="145"/>
+      <c r="AC59" s="145"/>
+      <c r="AD59" s="145"/>
+      <c r="AE59" s="145"/>
+      <c r="AF59" s="147"/>
+      <c r="AG59" s="147"/>
+      <c r="AH59" s="145"/>
+      <c r="AI59" s="145"/>
+      <c r="AJ59" s="145"/>
+      <c r="AK59" s="145"/>
+      <c r="AL59" s="145"/>
+      <c r="AM59" s="145"/>
+      <c r="AN59" s="145"/>
+      <c r="AO59" s="145"/>
+      <c r="AP59" s="145"/>
+      <c r="AQ59" s="145"/>
+      <c r="AR59" s="145"/>
+      <c r="AS59" s="145"/>
+      <c r="AT59" s="145"/>
+      <c r="AU59" s="145"/>
       <c r="AW59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13409,60 +13389,77 @@
       <c r="AU73" s="19"/>
       <c r="AW73" s="20"/>
     </row>
-    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="17"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="138"/>
-      <c r="D74" s="148"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="19"/>
-      <c r="S74" s="19"/>
-      <c r="T74" s="19"/>
-      <c r="U74" s="19"/>
-      <c r="V74" s="19"/>
-      <c r="W74" s="19"/>
-      <c r="X74" s="19"/>
-      <c r="Y74" s="138"/>
-      <c r="Z74" s="138"/>
-      <c r="AA74" s="138"/>
-      <c r="AB74" s="19"/>
-      <c r="AC74" s="19"/>
-      <c r="AD74" s="19"/>
-      <c r="AE74" s="19"/>
-      <c r="AF74" s="138"/>
-      <c r="AG74" s="138"/>
-      <c r="AH74" s="19"/>
-      <c r="AI74" s="19"/>
-      <c r="AJ74" s="19"/>
-      <c r="AK74" s="19"/>
-      <c r="AL74" s="19"/>
-      <c r="AM74" s="19"/>
-      <c r="AN74" s="19"/>
-      <c r="AO74" s="19"/>
-      <c r="AP74" s="19"/>
-      <c r="AQ74" s="19"/>
-      <c r="AR74" s="19"/>
-      <c r="AS74" s="19"/>
-      <c r="AT74" s="19"/>
-      <c r="AU74" s="19"/>
-      <c r="AW74" s="20"/>
+    <row r="74" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5"/>
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5"/>
+      <c r="AK74" s="5"/>
+      <c r="AL74" s="5"/>
+      <c r="AM74" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN74" s="6"/>
+      <c r="AO74" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP74" s="7"/>
+      <c r="AQ74" s="7"/>
+      <c r="AR74" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS74" s="6"/>
+      <c r="AT74" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU74" s="8"/>
+      <c r="AV74" s="8"/>
+      <c r="AW74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -13471,32 +13468,24 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
-      <c r="J75" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
       <c r="U75" s="3"/>
-      <c r="V75" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="V75" s="4"/>
       <c r="W75" s="4"/>
       <c r="X75" s="4"/>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
-      <c r="AA75" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
@@ -13508,25 +13497,21 @@
       <c r="AJ75" s="5"/>
       <c r="AK75" s="5"/>
       <c r="AL75" s="5"/>
-      <c r="AM75" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN75" s="6"/>
-      <c r="AO75" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP75" s="7"/>
-      <c r="AQ75" s="7"/>
-      <c r="AR75" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS75" s="6"/>
-      <c r="AT75" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU75" s="8"/>
-      <c r="AV75" s="8"/>
-      <c r="AW75" s="8"/>
+      <c r="AM75" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN75" s="10"/>
+      <c r="AO75" s="11"/>
+      <c r="AP75" s="11"/>
+      <c r="AQ75" s="11"/>
+      <c r="AR75" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS75" s="10"/>
+      <c r="AT75" s="12"/>
+      <c r="AU75" s="12"/>
+      <c r="AV75" s="12"/>
+      <c r="AW75" s="12"/>
     </row>
     <row r="76" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
@@ -13550,100 +13535,78 @@
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4"/>
-      <c r="AA76" s="5"/>
-      <c r="AB76" s="5"/>
-      <c r="AC76" s="5"/>
-      <c r="AD76" s="5"/>
-      <c r="AE76" s="5"/>
-      <c r="AF76" s="5"/>
-      <c r="AG76" s="5"/>
-      <c r="AH76" s="5"/>
-      <c r="AI76" s="5"/>
-      <c r="AJ76" s="5"/>
-      <c r="AK76" s="5"/>
-      <c r="AL76" s="5"/>
-      <c r="AM76" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN76" s="10"/>
-      <c r="AO76" s="11"/>
-      <c r="AP76" s="11"/>
-      <c r="AQ76" s="11"/>
-      <c r="AR76" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS76" s="10"/>
-      <c r="AT76" s="12"/>
-      <c r="AU76" s="12"/>
-      <c r="AV76" s="12"/>
-      <c r="AW76" s="12"/>
-    </row>
-    <row r="77" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="13" t="s">
+      <c r="V76" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="W77" s="13"/>
-      <c r="X77" s="13"/>
-      <c r="Y77" s="13"/>
-      <c r="Z77" s="13"/>
-      <c r="AA77" s="14" t="s">
+      <c r="W76" s="13"/>
+      <c r="X76" s="13"/>
+      <c r="Y76" s="13"/>
+      <c r="Z76" s="13"/>
+      <c r="AA76" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB77" s="14"/>
-      <c r="AC77" s="14"/>
-      <c r="AD77" s="14"/>
-      <c r="AE77" s="14"/>
-      <c r="AF77" s="14"/>
-      <c r="AG77" s="14"/>
-      <c r="AH77" s="15" t="s">
+      <c r="AB76" s="14"/>
+      <c r="AC76" s="14"/>
+      <c r="AD76" s="14"/>
+      <c r="AE76" s="14"/>
+      <c r="AF76" s="14"/>
+      <c r="AG76" s="14"/>
+      <c r="AH76" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AI77" s="15"/>
-      <c r="AJ77" s="15"/>
-      <c r="AK77" s="15"/>
-      <c r="AL77" s="15"/>
-      <c r="AM77" s="16" t="s">
+      <c r="AI76" s="15"/>
+      <c r="AJ76" s="15"/>
+      <c r="AK76" s="15"/>
+      <c r="AL76" s="15"/>
+      <c r="AM76" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AN77" s="16"/>
-      <c r="AO77" s="16"/>
-      <c r="AP77" s="16"/>
-      <c r="AQ77" s="16"/>
-      <c r="AR77" s="16"/>
-      <c r="AS77" s="16"/>
-      <c r="AT77" s="16"/>
-      <c r="AU77" s="16"/>
-      <c r="AV77" s="16"/>
-      <c r="AW77" s="16"/>
+      <c r="AN76" s="16"/>
+      <c r="AO76" s="16"/>
+      <c r="AP76" s="16"/>
+      <c r="AQ76" s="16"/>
+      <c r="AR76" s="16"/>
+      <c r="AS76" s="16"/>
+      <c r="AT76" s="16"/>
+      <c r="AU76" s="16"/>
+      <c r="AV76" s="16"/>
+      <c r="AW76" s="16"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="17"/>
+      <c r="AM77" s="19"/>
+      <c r="AN77" s="19"/>
+      <c r="AO77" s="19"/>
+      <c r="AP77" s="19"/>
+      <c r="AQ77" s="19"/>
+      <c r="AR77" s="19"/>
+      <c r="AS77" s="19"/>
+      <c r="AT77" s="19"/>
+      <c r="AU77" s="19"/>
+      <c r="AV77" s="19"/>
+      <c r="AW77" s="20"/>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="17"/>
+      <c r="B78" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
+      <c r="S78" s="19"/>
       <c r="AM78" s="19"/>
       <c r="AN78" s="19"/>
       <c r="AO78" s="19"/>
@@ -13658,8 +13621,8 @@
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="17"/>
-      <c r="B79" s="59" t="s">
-        <v>79</v>
+      <c r="C79" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
@@ -13691,10 +13654,9 @@
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="17"/>
-      <c r="C80" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D80" s="19"/>
+      <c r="D80" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
@@ -13724,9 +13686,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="17"/>
-      <c r="D81" s="19" t="s">
-        <v>81</v>
-      </c>
+      <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
@@ -13756,6 +13716,9 @@
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="17"/>
+      <c r="C82" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
       <c r="F82" s="19"/>
@@ -13786,10 +13749,9 @@
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="17"/>
-      <c r="C83" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" s="19"/>
+      <c r="D83" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
@@ -13820,7 +13782,7 @@
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="17"/>
       <c r="D84" s="19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
@@ -13852,7 +13814,7 @@
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="17"/>
       <c r="D85" s="19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
@@ -13883,9 +13845,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="17"/>
-      <c r="D86" s="19" t="s">
-        <v>85</v>
-      </c>
+      <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
       <c r="G86" s="19"/>
@@ -13915,6 +13875,9 @@
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
+      <c r="C87" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
@@ -13945,9 +13908,6 @@
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="17"/>
-      <c r="C88" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
@@ -14726,40 +14686,77 @@
       <c r="AV113" s="19"/>
       <c r="AW113" s="20"/>
     </row>
-    <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="17"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="19"/>
-      <c r="L114" s="19"/>
-      <c r="M114" s="19"/>
-      <c r="N114" s="19"/>
-      <c r="O114" s="19"/>
-      <c r="P114" s="19"/>
-      <c r="Q114" s="19"/>
-      <c r="R114" s="19"/>
-      <c r="S114" s="19"/>
-      <c r="AM114" s="19"/>
-      <c r="AN114" s="19"/>
-      <c r="AO114" s="19"/>
-      <c r="AP114" s="19"/>
-      <c r="AQ114" s="19"/>
-      <c r="AR114" s="19"/>
-      <c r="AS114" s="19"/>
-      <c r="AT114" s="19"/>
-      <c r="AU114" s="19"/>
-      <c r="AV114" s="19"/>
-      <c r="AW114" s="20"/>
+    <row r="114" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W114" s="4"/>
+      <c r="X114" s="4"/>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="4"/>
+      <c r="AA114" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB114" s="5"/>
+      <c r="AC114" s="5"/>
+      <c r="AD114" s="5"/>
+      <c r="AE114" s="5"/>
+      <c r="AF114" s="5"/>
+      <c r="AG114" s="5"/>
+      <c r="AH114" s="5"/>
+      <c r="AI114" s="5"/>
+      <c r="AJ114" s="5"/>
+      <c r="AK114" s="5"/>
+      <c r="AL114" s="5"/>
+      <c r="AM114" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN114" s="6"/>
+      <c r="AO114" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP114" s="7"/>
+      <c r="AQ114" s="7"/>
+      <c r="AR114" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS114" s="6"/>
+      <c r="AT114" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU114" s="8"/>
+      <c r="AV114" s="8"/>
+      <c r="AW114" s="8"/>
     </row>
     <row r="115" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -14768,32 +14765,24 @@
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
-      <c r="J115" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
-      <c r="P115" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
       <c r="T115" s="3"/>
       <c r="U115" s="3"/>
-      <c r="V115" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="V115" s="4"/>
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
-      <c r="AA115" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
       <c r="AC115" s="5"/>
       <c r="AD115" s="5"/>
@@ -14805,25 +14794,21 @@
       <c r="AJ115" s="5"/>
       <c r="AK115" s="5"/>
       <c r="AL115" s="5"/>
-      <c r="AM115" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN115" s="6"/>
-      <c r="AO115" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP115" s="7"/>
-      <c r="AQ115" s="7"/>
-      <c r="AR115" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS115" s="6"/>
-      <c r="AT115" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU115" s="8"/>
-      <c r="AV115" s="8"/>
-      <c r="AW115" s="8"/>
+      <c r="AM115" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN115" s="10"/>
+      <c r="AO115" s="11"/>
+      <c r="AP115" s="11"/>
+      <c r="AQ115" s="11"/>
+      <c r="AR115" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS115" s="10"/>
+      <c r="AT115" s="12"/>
+      <c r="AU115" s="12"/>
+      <c r="AV115" s="12"/>
+      <c r="AW115" s="12"/>
     </row>
     <row r="116" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="2"/>
@@ -14847,100 +14832,78 @@
       <c r="S116" s="3"/>
       <c r="T116" s="3"/>
       <c r="U116" s="3"/>
-      <c r="V116" s="4"/>
-      <c r="W116" s="4"/>
-      <c r="X116" s="4"/>
-      <c r="Y116" s="4"/>
-      <c r="Z116" s="4"/>
-      <c r="AA116" s="5"/>
-      <c r="AB116" s="5"/>
-      <c r="AC116" s="5"/>
-      <c r="AD116" s="5"/>
-      <c r="AE116" s="5"/>
-      <c r="AF116" s="5"/>
-      <c r="AG116" s="5"/>
-      <c r="AH116" s="5"/>
-      <c r="AI116" s="5"/>
-      <c r="AJ116" s="5"/>
-      <c r="AK116" s="5"/>
-      <c r="AL116" s="5"/>
-      <c r="AM116" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN116" s="10"/>
-      <c r="AO116" s="11"/>
-      <c r="AP116" s="11"/>
-      <c r="AQ116" s="11"/>
-      <c r="AR116" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS116" s="10"/>
-      <c r="AT116" s="12"/>
-      <c r="AU116" s="12"/>
-      <c r="AV116" s="12"/>
-      <c r="AW116" s="12"/>
-    </row>
-    <row r="117" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
-      <c r="M117" s="3"/>
-      <c r="N117" s="3"/>
-      <c r="O117" s="3"/>
-      <c r="P117" s="3"/>
-      <c r="Q117" s="3"/>
-      <c r="R117" s="3"/>
-      <c r="S117" s="3"/>
-      <c r="T117" s="3"/>
-      <c r="U117" s="3"/>
-      <c r="V117" s="13" t="s">
+      <c r="V116" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="W117" s="13"/>
-      <c r="X117" s="13"/>
-      <c r="Y117" s="13"/>
-      <c r="Z117" s="13"/>
-      <c r="AA117" s="14" t="s">
+      <c r="W116" s="13"/>
+      <c r="X116" s="13"/>
+      <c r="Y116" s="13"/>
+      <c r="Z116" s="13"/>
+      <c r="AA116" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB117" s="14"/>
-      <c r="AC117" s="14"/>
-      <c r="AD117" s="14"/>
-      <c r="AE117" s="14"/>
-      <c r="AF117" s="14"/>
-      <c r="AG117" s="14"/>
-      <c r="AH117" s="15" t="s">
+      <c r="AB116" s="14"/>
+      <c r="AC116" s="14"/>
+      <c r="AD116" s="14"/>
+      <c r="AE116" s="14"/>
+      <c r="AF116" s="14"/>
+      <c r="AG116" s="14"/>
+      <c r="AH116" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AI117" s="15"/>
-      <c r="AJ117" s="15"/>
-      <c r="AK117" s="15"/>
-      <c r="AL117" s="15"/>
-      <c r="AM117" s="16" t="s">
+      <c r="AI116" s="15"/>
+      <c r="AJ116" s="15"/>
+      <c r="AK116" s="15"/>
+      <c r="AL116" s="15"/>
+      <c r="AM116" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AN117" s="16"/>
-      <c r="AO117" s="16"/>
-      <c r="AP117" s="16"/>
-      <c r="AQ117" s="16"/>
-      <c r="AR117" s="16"/>
-      <c r="AS117" s="16"/>
-      <c r="AT117" s="16"/>
-      <c r="AU117" s="16"/>
-      <c r="AV117" s="16"/>
-      <c r="AW117" s="16"/>
+      <c r="AN116" s="16"/>
+      <c r="AO116" s="16"/>
+      <c r="AP116" s="16"/>
+      <c r="AQ116" s="16"/>
+      <c r="AR116" s="16"/>
+      <c r="AS116" s="16"/>
+      <c r="AT116" s="16"/>
+      <c r="AU116" s="16"/>
+      <c r="AV116" s="16"/>
+      <c r="AW116" s="16"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="17"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="19"/>
+      <c r="L117" s="19"/>
+      <c r="M117" s="19"/>
+      <c r="N117" s="19"/>
+      <c r="O117" s="19"/>
+      <c r="P117" s="19"/>
+      <c r="Q117" s="19"/>
+      <c r="R117" s="19"/>
+      <c r="S117" s="19"/>
+      <c r="AM117" s="19"/>
+      <c r="AN117" s="19"/>
+      <c r="AO117" s="19"/>
+      <c r="AP117" s="19"/>
+      <c r="AQ117" s="19"/>
+      <c r="AR117" s="19"/>
+      <c r="AS117" s="19"/>
+      <c r="AT117" s="19"/>
+      <c r="AU117" s="19"/>
+      <c r="AV117" s="19"/>
+      <c r="AW117" s="20"/>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="17"/>
+      <c r="B118" s="59" t="s">
+        <v>90</v>
+      </c>
       <c r="D118" s="19"/>
       <c r="E118" s="19"/>
       <c r="F118" s="19"/>
@@ -14971,8 +14934,8 @@
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="17"/>
-      <c r="B119" s="59" t="s">
-        <v>87</v>
+      <c r="C119" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="D119" s="19"/>
       <c r="E119" s="19"/>
@@ -15004,10 +14967,9 @@
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="17"/>
-      <c r="C120" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D120" s="19"/>
+      <c r="D120" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="E120" s="19"/>
       <c r="F120" s="19"/>
       <c r="G120" s="19"/>
@@ -15037,9 +14999,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="17"/>
-      <c r="D121" s="19" t="s">
-        <v>88</v>
-      </c>
+      <c r="D121" s="19"/>
       <c r="E121" s="19"/>
       <c r="F121" s="19"/>
       <c r="G121" s="19"/>
@@ -15070,576 +15030,619 @@
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="17"/>
       <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19"/>
-      <c r="L122" s="19"/>
-      <c r="M122" s="19"/>
-      <c r="N122" s="19"/>
-      <c r="O122" s="19"/>
-      <c r="P122" s="19"/>
-      <c r="Q122" s="19"/>
-      <c r="R122" s="19"/>
-      <c r="S122" s="19"/>
-      <c r="AM122" s="19"/>
-      <c r="AN122" s="19"/>
-      <c r="AO122" s="19"/>
-      <c r="AP122" s="19"/>
-      <c r="AQ122" s="19"/>
-      <c r="AR122" s="19"/>
-      <c r="AS122" s="19"/>
-      <c r="AT122" s="19"/>
-      <c r="AU122" s="19"/>
+      <c r="E122" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="AV122" s="19"/>
       <c r="AW122" s="20"/>
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="17"/>
       <c r="D123" s="19"/>
-      <c r="E123" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="E123" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" s="139" t="s">
+        <v>56</v>
+      </c>
+      <c r="G123" s="139"/>
+      <c r="H123" s="139"/>
+      <c r="I123" s="139"/>
+      <c r="J123" s="139"/>
+      <c r="K123" s="139"/>
+      <c r="L123" s="139"/>
+      <c r="M123" s="139"/>
+      <c r="N123" s="149" t="s">
+        <v>92</v>
+      </c>
+      <c r="O123" s="149"/>
+      <c r="P123" s="149"/>
+      <c r="Q123" s="149"/>
+      <c r="R123" s="149"/>
+      <c r="S123" s="149"/>
+      <c r="T123" s="149"/>
+      <c r="U123" s="149"/>
+      <c r="V123" s="149"/>
+      <c r="W123" s="149"/>
+      <c r="X123" s="149"/>
+      <c r="Y123" s="149"/>
+      <c r="Z123" s="149"/>
+      <c r="AA123" s="149"/>
+      <c r="AB123" s="149"/>
+      <c r="AC123" s="149"/>
+      <c r="AD123" s="150" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE123" s="150"/>
+      <c r="AF123" s="150"/>
+      <c r="AG123" s="150"/>
+      <c r="AH123" s="150"/>
+      <c r="AI123" s="150"/>
+      <c r="AJ123" s="150"/>
+      <c r="AK123" s="150"/>
+      <c r="AL123" s="150" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM123" s="150"/>
+      <c r="AN123" s="150"/>
+      <c r="AO123" s="139" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP123" s="139"/>
+      <c r="AQ123" s="139"/>
+      <c r="AR123" s="139"/>
+      <c r="AS123" s="139"/>
+      <c r="AT123" s="139"/>
+      <c r="AU123" s="139"/>
       <c r="AV123" s="19"/>
       <c r="AW123" s="20"/>
+      <c r="AMB123" s="0"/>
+      <c r="AMC123" s="0"/>
+      <c r="AMD123" s="0"/>
+      <c r="AME123" s="0"/>
+      <c r="AMF123" s="0"/>
+      <c r="AMG123" s="0"/>
+      <c r="AMH123" s="0"/>
+      <c r="AMI123" s="0"/>
+      <c r="AMJ123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="17"/>
       <c r="D124" s="19"/>
-      <c r="E124" s="139" t="s">
-        <v>44</v>
-      </c>
-      <c r="F124" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="G124" s="139"/>
-      <c r="H124" s="139"/>
-      <c r="I124" s="139"/>
-      <c r="J124" s="139"/>
-      <c r="K124" s="139"/>
-      <c r="L124" s="139"/>
-      <c r="M124" s="139"/>
-      <c r="N124" s="149" t="s">
-        <v>89</v>
-      </c>
-      <c r="O124" s="149"/>
-      <c r="P124" s="149"/>
-      <c r="Q124" s="149"/>
-      <c r="R124" s="149"/>
-      <c r="S124" s="149"/>
-      <c r="T124" s="149"/>
-      <c r="U124" s="149"/>
-      <c r="V124" s="149"/>
-      <c r="W124" s="149"/>
-      <c r="X124" s="149"/>
-      <c r="Y124" s="149"/>
-      <c r="Z124" s="149"/>
-      <c r="AA124" s="149"/>
-      <c r="AB124" s="149"/>
-      <c r="AC124" s="149"/>
-      <c r="AD124" s="150" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE124" s="150"/>
-      <c r="AF124" s="150"/>
-      <c r="AG124" s="150"/>
-      <c r="AH124" s="150"/>
-      <c r="AI124" s="150"/>
-      <c r="AJ124" s="150"/>
-      <c r="AK124" s="150"/>
-      <c r="AL124" s="150" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM124" s="150"/>
-      <c r="AN124" s="150"/>
-      <c r="AO124" s="139" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP124" s="139"/>
-      <c r="AQ124" s="139"/>
-      <c r="AR124" s="139"/>
-      <c r="AS124" s="139"/>
-      <c r="AT124" s="139"/>
-      <c r="AU124" s="139"/>
+      <c r="E124" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" s="144" t="s">
+        <v>62</v>
+      </c>
+      <c r="G124" s="145"/>
+      <c r="H124" s="145"/>
+      <c r="I124" s="145"/>
+      <c r="J124" s="145"/>
+      <c r="K124" s="145"/>
+      <c r="L124" s="145"/>
+      <c r="M124" s="146"/>
+      <c r="N124" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="O124" s="145"/>
+      <c r="P124" s="145"/>
+      <c r="Q124" s="145"/>
+      <c r="R124" s="145"/>
+      <c r="S124" s="145"/>
+      <c r="T124" s="145"/>
+      <c r="U124" s="145"/>
+      <c r="V124" s="145"/>
+      <c r="W124" s="145"/>
+      <c r="X124" s="145"/>
+      <c r="Y124" s="145"/>
+      <c r="Z124" s="145"/>
+      <c r="AA124" s="145"/>
+      <c r="AB124" s="145"/>
+      <c r="AC124" s="146"/>
+      <c r="AD124" s="144" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE124" s="145"/>
+      <c r="AF124" s="145"/>
+      <c r="AG124" s="145"/>
+      <c r="AH124" s="145"/>
+      <c r="AI124" s="145"/>
+      <c r="AJ124" s="145"/>
+      <c r="AK124" s="146"/>
+      <c r="AL124" s="151" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM124" s="152"/>
+      <c r="AN124" s="153"/>
+      <c r="AO124" s="154"/>
+      <c r="AP124" s="145"/>
+      <c r="AQ124" s="145"/>
+      <c r="AR124" s="145"/>
+      <c r="AS124" s="145"/>
+      <c r="AT124" s="145"/>
+      <c r="AU124" s="146"/>
       <c r="AV124" s="19"/>
       <c r="AW124" s="20"/>
-      <c r="AZ124" s="111"/>
-      <c r="BA124" s="112"/>
-      <c r="BB124" s="112"/>
-      <c r="BC124" s="113"/>
-      <c r="BD124" s="113"/>
-      <c r="BE124" s="114"/>
+      <c r="AMB124" s="0"/>
+      <c r="AMC124" s="0"/>
+      <c r="AMD124" s="0"/>
+      <c r="AME124" s="0"/>
+      <c r="AMF124" s="0"/>
+      <c r="AMG124" s="0"/>
+      <c r="AMH124" s="0"/>
+      <c r="AMI124" s="0"/>
+      <c r="AMJ124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="17"/>
       <c r="D125" s="19"/>
       <c r="E125" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="F125" s="144" t="s">
-        <v>62</v>
-      </c>
-      <c r="G125" s="145"/>
-      <c r="H125" s="145"/>
-      <c r="I125" s="145"/>
-      <c r="J125" s="145"/>
-      <c r="K125" s="145"/>
-      <c r="L125" s="145"/>
-      <c r="M125" s="146"/>
-      <c r="N125" s="144" t="s">
-        <v>92</v>
-      </c>
-      <c r="O125" s="145"/>
-      <c r="P125" s="145"/>
-      <c r="Q125" s="145"/>
-      <c r="R125" s="145"/>
-      <c r="S125" s="145"/>
-      <c r="T125" s="145"/>
-      <c r="U125" s="145"/>
-      <c r="V125" s="145"/>
-      <c r="W125" s="145"/>
-      <c r="X125" s="145"/>
-      <c r="Y125" s="145"/>
-      <c r="Z125" s="145"/>
-      <c r="AA125" s="145"/>
-      <c r="AB125" s="145"/>
-      <c r="AC125" s="146"/>
-      <c r="AD125" s="144" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE125" s="145"/>
-      <c r="AF125" s="145"/>
-      <c r="AG125" s="145"/>
-      <c r="AH125" s="145"/>
-      <c r="AI125" s="145"/>
-      <c r="AJ125" s="145"/>
-      <c r="AK125" s="146"/>
-      <c r="AL125" s="151" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM125" s="152"/>
-      <c r="AN125" s="153"/>
-      <c r="AO125" s="154"/>
-      <c r="AP125" s="145"/>
-      <c r="AQ125" s="145"/>
-      <c r="AR125" s="145"/>
-      <c r="AS125" s="145"/>
-      <c r="AT125" s="145"/>
-      <c r="AU125" s="146"/>
+        <v>2</v>
+      </c>
+      <c r="F125" s="155" t="s">
+        <v>68</v>
+      </c>
+      <c r="G125" s="156"/>
+      <c r="H125" s="156"/>
+      <c r="I125" s="156"/>
+      <c r="J125" s="156"/>
+      <c r="K125" s="156"/>
+      <c r="L125" s="156"/>
+      <c r="M125" s="157"/>
+      <c r="N125" s="155" t="s">
+        <v>68</v>
+      </c>
+      <c r="O125" s="156"/>
+      <c r="P125" s="156"/>
+      <c r="Q125" s="156"/>
+      <c r="R125" s="156"/>
+      <c r="S125" s="156"/>
+      <c r="T125" s="158"/>
+      <c r="U125" s="158"/>
+      <c r="V125" s="158"/>
+      <c r="W125" s="158"/>
+      <c r="X125" s="158"/>
+      <c r="Y125" s="158"/>
+      <c r="Z125" s="158"/>
+      <c r="AA125" s="158"/>
+      <c r="AB125" s="158"/>
+      <c r="AC125" s="159"/>
+      <c r="AD125" s="160" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE125" s="158"/>
+      <c r="AF125" s="158"/>
+      <c r="AG125" s="158"/>
+      <c r="AH125" s="158"/>
+      <c r="AI125" s="158"/>
+      <c r="AJ125" s="158"/>
+      <c r="AK125" s="159"/>
+      <c r="AL125" s="161" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM125" s="162"/>
+      <c r="AN125" s="163"/>
+      <c r="AO125" s="155"/>
+      <c r="AP125" s="156"/>
+      <c r="AQ125" s="156"/>
+      <c r="AR125" s="156"/>
+      <c r="AS125" s="156"/>
+      <c r="AT125" s="156"/>
+      <c r="AU125" s="157"/>
       <c r="AV125" s="19"/>
       <c r="AW125" s="20"/>
-      <c r="AZ125" s="120"/>
-      <c r="BA125" s="121"/>
-      <c r="BB125" s="121"/>
-      <c r="BC125" s="122"/>
-      <c r="BD125" s="122"/>
-      <c r="BE125" s="123"/>
+      <c r="AMB125" s="0"/>
+      <c r="AMC125" s="0"/>
+      <c r="AMD125" s="0"/>
+      <c r="AME125" s="0"/>
+      <c r="AMF125" s="0"/>
+      <c r="AMG125" s="0"/>
+      <c r="AMH125" s="0"/>
+      <c r="AMI125" s="0"/>
+      <c r="AMJ125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
       <c r="D126" s="19"/>
       <c r="E126" s="141" t="n">
-        <v>2</v>
-      </c>
-      <c r="F126" s="155" t="s">
-        <v>68</v>
-      </c>
-      <c r="G126" s="156"/>
-      <c r="H126" s="156"/>
-      <c r="I126" s="156"/>
-      <c r="J126" s="156"/>
-      <c r="K126" s="156"/>
-      <c r="L126" s="156"/>
-      <c r="M126" s="157"/>
-      <c r="N126" s="155" t="s">
-        <v>68</v>
-      </c>
-      <c r="O126" s="156"/>
-      <c r="P126" s="156"/>
-      <c r="Q126" s="156"/>
-      <c r="R126" s="156"/>
-      <c r="S126" s="156"/>
-      <c r="T126" s="158"/>
-      <c r="U126" s="158"/>
-      <c r="V126" s="158"/>
-      <c r="W126" s="158"/>
-      <c r="X126" s="158"/>
-      <c r="Y126" s="158"/>
-      <c r="Z126" s="158"/>
-      <c r="AA126" s="158"/>
-      <c r="AB126" s="158"/>
-      <c r="AC126" s="159"/>
-      <c r="AD126" s="160" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE126" s="158"/>
-      <c r="AF126" s="158"/>
-      <c r="AG126" s="158"/>
-      <c r="AH126" s="158"/>
-      <c r="AI126" s="158"/>
-      <c r="AJ126" s="158"/>
-      <c r="AK126" s="159"/>
-      <c r="AL126" s="161" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM126" s="162"/>
-      <c r="AN126" s="163"/>
-      <c r="AO126" s="155"/>
-      <c r="AP126" s="156"/>
-      <c r="AQ126" s="156"/>
-      <c r="AR126" s="156"/>
-      <c r="AS126" s="156"/>
-      <c r="AT126" s="156"/>
-      <c r="AU126" s="157"/>
+        <v>3</v>
+      </c>
+      <c r="F126" s="164" t="s">
+        <v>70</v>
+      </c>
+      <c r="G126" s="165"/>
+      <c r="H126" s="165"/>
+      <c r="I126" s="165"/>
+      <c r="J126" s="165"/>
+      <c r="K126" s="165"/>
+      <c r="L126" s="165"/>
+      <c r="M126" s="166"/>
+      <c r="N126" s="164" t="s">
+        <v>70</v>
+      </c>
+      <c r="O126" s="165"/>
+      <c r="P126" s="165"/>
+      <c r="Q126" s="165"/>
+      <c r="R126" s="165"/>
+      <c r="S126" s="165"/>
+      <c r="T126" s="167"/>
+      <c r="U126" s="167"/>
+      <c r="V126" s="167"/>
+      <c r="W126" s="167"/>
+      <c r="X126" s="167"/>
+      <c r="Y126" s="167"/>
+      <c r="Z126" s="167"/>
+      <c r="AA126" s="167"/>
+      <c r="AB126" s="167"/>
+      <c r="AC126" s="168"/>
+      <c r="AD126" s="169" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE126" s="167"/>
+      <c r="AF126" s="167"/>
+      <c r="AG126" s="167"/>
+      <c r="AH126" s="167"/>
+      <c r="AI126" s="167"/>
+      <c r="AJ126" s="167"/>
+      <c r="AK126" s="168"/>
+      <c r="AL126" s="170" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM126" s="171"/>
+      <c r="AN126" s="172"/>
+      <c r="AO126" s="164"/>
+      <c r="AP126" s="165"/>
+      <c r="AQ126" s="165"/>
+      <c r="AR126" s="165"/>
+      <c r="AS126" s="165"/>
+      <c r="AT126" s="165"/>
+      <c r="AU126" s="166"/>
       <c r="AV126" s="19"/>
       <c r="AW126" s="20"/>
-      <c r="AZ126" s="164"/>
-      <c r="BA126" s="165"/>
-      <c r="BB126" s="165"/>
-      <c r="BC126" s="166"/>
-      <c r="BD126" s="166"/>
-      <c r="BE126" s="167"/>
+      <c r="AMB126" s="0"/>
+      <c r="AMC126" s="0"/>
+      <c r="AMD126" s="0"/>
+      <c r="AME126" s="0"/>
+      <c r="AMF126" s="0"/>
+      <c r="AMG126" s="0"/>
+      <c r="AMH126" s="0"/>
+      <c r="AMI126" s="0"/>
+      <c r="AMJ126" s="0"/>
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="17"/>
       <c r="D127" s="19"/>
       <c r="E127" s="141" t="n">
-        <v>3</v>
-      </c>
-      <c r="F127" s="168" t="s">
-        <v>69</v>
-      </c>
-      <c r="G127" s="169"/>
-      <c r="H127" s="169"/>
-      <c r="I127" s="169"/>
-      <c r="J127" s="169"/>
-      <c r="K127" s="169"/>
-      <c r="L127" s="169"/>
-      <c r="M127" s="170"/>
-      <c r="N127" s="168" t="s">
-        <v>69</v>
-      </c>
-      <c r="O127" s="169"/>
-      <c r="P127" s="169"/>
-      <c r="Q127" s="169"/>
-      <c r="R127" s="169"/>
-      <c r="S127" s="169"/>
-      <c r="T127" s="171"/>
-      <c r="U127" s="171"/>
-      <c r="V127" s="171"/>
-      <c r="W127" s="171"/>
-      <c r="X127" s="171"/>
-      <c r="Y127" s="171"/>
-      <c r="Z127" s="171"/>
-      <c r="AA127" s="171"/>
-      <c r="AB127" s="171"/>
-      <c r="AC127" s="172"/>
-      <c r="AD127" s="173" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE127" s="171"/>
-      <c r="AF127" s="171"/>
-      <c r="AG127" s="171"/>
-      <c r="AH127" s="171"/>
-      <c r="AI127" s="171"/>
-      <c r="AJ127" s="171"/>
-      <c r="AK127" s="172"/>
-      <c r="AL127" s="174" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM127" s="175"/>
-      <c r="AN127" s="176"/>
-      <c r="AO127" s="168"/>
-      <c r="AP127" s="169"/>
-      <c r="AQ127" s="169"/>
-      <c r="AR127" s="169"/>
-      <c r="AS127" s="169"/>
-      <c r="AT127" s="169"/>
-      <c r="AU127" s="170"/>
+        <v>4</v>
+      </c>
+      <c r="F127" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="G127" s="165"/>
+      <c r="H127" s="165"/>
+      <c r="I127" s="165"/>
+      <c r="J127" s="165"/>
+      <c r="K127" s="165"/>
+      <c r="L127" s="165"/>
+      <c r="M127" s="166"/>
+      <c r="N127" s="164" t="s">
+        <v>98</v>
+      </c>
+      <c r="O127" s="165"/>
+      <c r="P127" s="165"/>
+      <c r="Q127" s="165"/>
+      <c r="R127" s="165"/>
+      <c r="S127" s="165"/>
+      <c r="T127" s="167"/>
+      <c r="U127" s="167"/>
+      <c r="V127" s="167"/>
+      <c r="W127" s="167"/>
+      <c r="X127" s="167"/>
+      <c r="Y127" s="167"/>
+      <c r="Z127" s="167"/>
+      <c r="AA127" s="167"/>
+      <c r="AB127" s="167"/>
+      <c r="AC127" s="168"/>
+      <c r="AD127" s="169" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE127" s="167"/>
+      <c r="AF127" s="167"/>
+      <c r="AG127" s="167"/>
+      <c r="AH127" s="167"/>
+      <c r="AI127" s="167"/>
+      <c r="AJ127" s="167"/>
+      <c r="AK127" s="168"/>
+      <c r="AL127" s="170" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM127" s="171"/>
+      <c r="AN127" s="172"/>
+      <c r="AO127" s="164"/>
+      <c r="AP127" s="165"/>
+      <c r="AQ127" s="165"/>
+      <c r="AR127" s="165"/>
+      <c r="AS127" s="165"/>
+      <c r="AT127" s="165"/>
+      <c r="AU127" s="166"/>
       <c r="AV127" s="19"/>
       <c r="AW127" s="20"/>
-      <c r="AZ127" s="164"/>
-      <c r="BA127" s="165"/>
-      <c r="BB127" s="165"/>
-      <c r="BC127" s="166"/>
-      <c r="BD127" s="166"/>
-      <c r="BE127" s="167"/>
+      <c r="AMB127" s="0"/>
+      <c r="AMC127" s="0"/>
+      <c r="AMD127" s="0"/>
+      <c r="AME127" s="0"/>
+      <c r="AMF127" s="0"/>
+      <c r="AMG127" s="0"/>
+      <c r="AMH127" s="0"/>
+      <c r="AMI127" s="0"/>
+      <c r="AMJ127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="17"/>
       <c r="D128" s="19"/>
-      <c r="E128" s="141" t="n">
-        <v>4</v>
-      </c>
-      <c r="F128" s="168" t="s">
-        <v>73</v>
-      </c>
-      <c r="G128" s="169"/>
-      <c r="H128" s="169"/>
-      <c r="I128" s="169"/>
-      <c r="J128" s="169"/>
-      <c r="K128" s="169"/>
-      <c r="L128" s="169"/>
-      <c r="M128" s="170"/>
-      <c r="N128" s="168" t="s">
-        <v>95</v>
-      </c>
-      <c r="O128" s="169"/>
-      <c r="P128" s="169"/>
-      <c r="Q128" s="169"/>
-      <c r="R128" s="169"/>
-      <c r="S128" s="169"/>
-      <c r="T128" s="171"/>
-      <c r="U128" s="171"/>
-      <c r="V128" s="171"/>
-      <c r="W128" s="171"/>
-      <c r="X128" s="171"/>
-      <c r="Y128" s="171"/>
-      <c r="Z128" s="171"/>
-      <c r="AA128" s="171"/>
-      <c r="AB128" s="171"/>
-      <c r="AC128" s="172"/>
-      <c r="AD128" s="173" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE128" s="171"/>
-      <c r="AF128" s="171"/>
-      <c r="AG128" s="171"/>
-      <c r="AH128" s="171"/>
-      <c r="AI128" s="171"/>
-      <c r="AJ128" s="171"/>
-      <c r="AK128" s="172"/>
-      <c r="AL128" s="174" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM128" s="175"/>
-      <c r="AN128" s="176"/>
-      <c r="AO128" s="168"/>
-      <c r="AP128" s="169"/>
-      <c r="AQ128" s="169"/>
-      <c r="AR128" s="169"/>
-      <c r="AS128" s="169"/>
-      <c r="AT128" s="169"/>
-      <c r="AU128" s="170"/>
       <c r="AV128" s="19"/>
       <c r="AW128" s="20"/>
-      <c r="AZ128" s="164"/>
-      <c r="BA128" s="165"/>
-      <c r="BB128" s="165"/>
-      <c r="BC128" s="166"/>
-      <c r="BD128" s="166"/>
-      <c r="BE128" s="167"/>
-    </row>
-    <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMB128" s="0"/>
+      <c r="AMC128" s="0"/>
+      <c r="AMD128" s="0"/>
+      <c r="AME128" s="0"/>
+      <c r="AMF128" s="0"/>
+      <c r="AMG128" s="0"/>
+      <c r="AMH128" s="0"/>
+      <c r="AMI128" s="0"/>
+      <c r="AMJ128" s="0"/>
+    </row>
+    <row r="129" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="17"/>
+      <c r="B129" s="59"/>
+      <c r="C129" s="9"/>
       <c r="D129" s="19"/>
+      <c r="E129" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="AV129" s="19"/>
       <c r="AW129" s="20"/>
-      <c r="AZ129" s="120"/>
-      <c r="BA129" s="121"/>
-      <c r="BB129" s="121"/>
-      <c r="BC129" s="122"/>
-      <c r="BD129" s="122"/>
-      <c r="BE129" s="123"/>
-    </row>
-    <row r="130" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AX129" s="103"/>
+      <c r="AMB129" s="0"/>
+      <c r="AMC129" s="0"/>
+      <c r="AMD129" s="0"/>
+      <c r="AME129" s="0"/>
+      <c r="AMF129" s="0"/>
+      <c r="AMG129" s="0"/>
+      <c r="AMH129" s="0"/>
+      <c r="AMI129" s="0"/>
+      <c r="AMJ129" s="0"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="17"/>
-      <c r="B130" s="59"/>
-      <c r="C130" s="9"/>
       <c r="D130" s="19"/>
-      <c r="E130" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="E130" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="F130" s="139" t="s">
+        <v>56</v>
+      </c>
+      <c r="G130" s="139"/>
+      <c r="H130" s="139"/>
+      <c r="I130" s="139"/>
+      <c r="J130" s="139"/>
+      <c r="K130" s="139"/>
+      <c r="L130" s="139"/>
+      <c r="M130" s="139"/>
+      <c r="N130" s="149" t="s">
+        <v>92</v>
+      </c>
+      <c r="O130" s="149"/>
+      <c r="P130" s="149"/>
+      <c r="Q130" s="149"/>
+      <c r="R130" s="149"/>
+      <c r="S130" s="149"/>
+      <c r="T130" s="149"/>
+      <c r="U130" s="149"/>
+      <c r="V130" s="149"/>
+      <c r="W130" s="149"/>
+      <c r="X130" s="149"/>
+      <c r="Y130" s="149"/>
+      <c r="Z130" s="149"/>
+      <c r="AA130" s="149"/>
+      <c r="AB130" s="149"/>
+      <c r="AC130" s="149"/>
+      <c r="AD130" s="150" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE130" s="150"/>
+      <c r="AF130" s="150"/>
+      <c r="AG130" s="150"/>
+      <c r="AH130" s="150"/>
+      <c r="AI130" s="150"/>
+      <c r="AJ130" s="150"/>
+      <c r="AK130" s="150"/>
+      <c r="AL130" s="150" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM130" s="150"/>
+      <c r="AN130" s="150"/>
+      <c r="AO130" s="139" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP130" s="139"/>
+      <c r="AQ130" s="139"/>
+      <c r="AR130" s="139"/>
+      <c r="AS130" s="139"/>
+      <c r="AT130" s="139"/>
+      <c r="AU130" s="139"/>
       <c r="AV130" s="19"/>
       <c r="AW130" s="20"/>
-      <c r="AX130" s="103"/>
-      <c r="AZ130" s="120"/>
-      <c r="BA130" s="121"/>
-      <c r="BB130" s="121"/>
-      <c r="BC130" s="122"/>
-      <c r="BD130" s="122"/>
-      <c r="BE130" s="123"/>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="17"/>
       <c r="D131" s="19"/>
-      <c r="E131" s="139" t="s">
-        <v>44</v>
-      </c>
-      <c r="F131" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="G131" s="139"/>
-      <c r="H131" s="139"/>
-      <c r="I131" s="139"/>
-      <c r="J131" s="139"/>
-      <c r="K131" s="139"/>
-      <c r="L131" s="139"/>
-      <c r="M131" s="139"/>
-      <c r="N131" s="149" t="s">
-        <v>89</v>
-      </c>
-      <c r="O131" s="149"/>
-      <c r="P131" s="149"/>
-      <c r="Q131" s="149"/>
-      <c r="R131" s="149"/>
-      <c r="S131" s="149"/>
-      <c r="T131" s="149"/>
-      <c r="U131" s="149"/>
-      <c r="V131" s="149"/>
-      <c r="W131" s="149"/>
-      <c r="X131" s="149"/>
-      <c r="Y131" s="149"/>
-      <c r="Z131" s="149"/>
-      <c r="AA131" s="149"/>
-      <c r="AB131" s="149"/>
-      <c r="AC131" s="149"/>
-      <c r="AD131" s="150" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE131" s="150"/>
-      <c r="AF131" s="150"/>
-      <c r="AG131" s="150"/>
-      <c r="AH131" s="150"/>
-      <c r="AI131" s="150"/>
-      <c r="AJ131" s="150"/>
-      <c r="AK131" s="150"/>
-      <c r="AL131" s="150" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM131" s="150"/>
-      <c r="AN131" s="150"/>
-      <c r="AO131" s="139" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP131" s="139"/>
-      <c r="AQ131" s="139"/>
-      <c r="AR131" s="139"/>
-      <c r="AS131" s="139"/>
-      <c r="AT131" s="139"/>
-      <c r="AU131" s="139"/>
+      <c r="E131" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" s="145" t="s">
+        <v>76</v>
+      </c>
+      <c r="G131" s="145"/>
+      <c r="H131" s="145"/>
+      <c r="I131" s="145"/>
+      <c r="J131" s="145"/>
+      <c r="K131" s="145"/>
+      <c r="L131" s="145"/>
+      <c r="M131" s="145"/>
+      <c r="N131" s="144" t="s">
+        <v>76</v>
+      </c>
+      <c r="O131" s="145"/>
+      <c r="P131" s="145"/>
+      <c r="Q131" s="145"/>
+      <c r="R131" s="145"/>
+      <c r="S131" s="145"/>
+      <c r="T131" s="145"/>
+      <c r="U131" s="145"/>
+      <c r="V131" s="145"/>
+      <c r="W131" s="145"/>
+      <c r="X131" s="145"/>
+      <c r="Y131" s="145"/>
+      <c r="Z131" s="145"/>
+      <c r="AA131" s="145"/>
+      <c r="AB131" s="145"/>
+      <c r="AC131" s="146"/>
+      <c r="AD131" s="145"/>
+      <c r="AE131" s="145"/>
+      <c r="AF131" s="145"/>
+      <c r="AG131" s="145"/>
+      <c r="AH131" s="145"/>
+      <c r="AI131" s="145"/>
+      <c r="AJ131" s="145"/>
+      <c r="AK131" s="145"/>
+      <c r="AL131" s="144" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM131" s="145"/>
+      <c r="AN131" s="146"/>
+      <c r="AO131" s="145"/>
+      <c r="AP131" s="145"/>
+      <c r="AQ131" s="145"/>
+      <c r="AR131" s="145"/>
+      <c r="AS131" s="145"/>
+      <c r="AT131" s="145"/>
+      <c r="AU131" s="146"/>
       <c r="AV131" s="19"/>
       <c r="AW131" s="20"/>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="17"/>
       <c r="D132" s="19"/>
-      <c r="E132" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="F132" s="145" t="s">
-        <v>75</v>
-      </c>
-      <c r="G132" s="145"/>
-      <c r="H132" s="145"/>
-      <c r="I132" s="145"/>
-      <c r="J132" s="145"/>
-      <c r="K132" s="145"/>
-      <c r="L132" s="145"/>
-      <c r="M132" s="145"/>
-      <c r="N132" s="144" t="s">
-        <v>75</v>
-      </c>
-      <c r="O132" s="145"/>
-      <c r="P132" s="145"/>
-      <c r="Q132" s="145"/>
-      <c r="R132" s="145"/>
-      <c r="S132" s="145"/>
-      <c r="T132" s="145"/>
-      <c r="U132" s="145"/>
-      <c r="V132" s="145"/>
-      <c r="W132" s="145"/>
-      <c r="X132" s="145"/>
-      <c r="Y132" s="145"/>
-      <c r="Z132" s="145"/>
-      <c r="AA132" s="145"/>
-      <c r="AB132" s="145"/>
-      <c r="AC132" s="146"/>
-      <c r="AD132" s="145"/>
-      <c r="AE132" s="145"/>
-      <c r="AF132" s="145"/>
-      <c r="AG132" s="145"/>
-      <c r="AH132" s="145"/>
-      <c r="AI132" s="145"/>
-      <c r="AJ132" s="145"/>
-      <c r="AK132" s="145"/>
-      <c r="AL132" s="144" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM132" s="145"/>
-      <c r="AN132" s="146"/>
-      <c r="AO132" s="145"/>
-      <c r="AP132" s="145"/>
-      <c r="AQ132" s="145"/>
-      <c r="AR132" s="145"/>
-      <c r="AS132" s="145"/>
-      <c r="AT132" s="145"/>
-      <c r="AU132" s="146"/>
+      <c r="E132" s="173" t="n">
+        <v>2</v>
+      </c>
+      <c r="F132" s="174" t="s">
+        <v>78</v>
+      </c>
+      <c r="G132" s="174"/>
+      <c r="H132" s="174"/>
+      <c r="I132" s="174"/>
+      <c r="J132" s="174"/>
+      <c r="K132" s="174"/>
+      <c r="L132" s="174"/>
+      <c r="M132" s="174"/>
+      <c r="N132" s="175" t="s">
+        <v>99</v>
+      </c>
+      <c r="O132" s="174"/>
+      <c r="P132" s="174"/>
+      <c r="Q132" s="174"/>
+      <c r="R132" s="174"/>
+      <c r="S132" s="174"/>
+      <c r="T132" s="174"/>
+      <c r="U132" s="174"/>
+      <c r="V132" s="174"/>
+      <c r="W132" s="174"/>
+      <c r="X132" s="174"/>
+      <c r="Y132" s="174"/>
+      <c r="Z132" s="174"/>
+      <c r="AA132" s="174"/>
+      <c r="AB132" s="174"/>
+      <c r="AC132" s="176"/>
+      <c r="AD132" s="174"/>
+      <c r="AE132" s="177"/>
+      <c r="AF132" s="174"/>
+      <c r="AG132" s="174"/>
+      <c r="AH132" s="174"/>
+      <c r="AI132" s="174"/>
+      <c r="AJ132" s="174"/>
+      <c r="AK132" s="174"/>
+      <c r="AL132" s="175" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM132" s="174"/>
+      <c r="AN132" s="176"/>
+      <c r="AO132" s="174"/>
+      <c r="AP132" s="174"/>
+      <c r="AQ132" s="174"/>
+      <c r="AR132" s="174"/>
+      <c r="AS132" s="174"/>
+      <c r="AT132" s="174"/>
+      <c r="AU132" s="176"/>
       <c r="AV132" s="19"/>
       <c r="AW132" s="20"/>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="17"/>
       <c r="D133" s="19"/>
-      <c r="E133" s="177" t="n">
-        <v>2</v>
-      </c>
-      <c r="F133" s="178" t="s">
-        <v>77</v>
-      </c>
-      <c r="G133" s="178"/>
-      <c r="H133" s="178"/>
-      <c r="I133" s="178"/>
-      <c r="J133" s="178"/>
-      <c r="K133" s="178"/>
-      <c r="L133" s="178"/>
-      <c r="M133" s="178"/>
-      <c r="N133" s="179" t="s">
-        <v>96</v>
-      </c>
-      <c r="O133" s="178"/>
-      <c r="P133" s="178"/>
-      <c r="Q133" s="178"/>
-      <c r="R133" s="178"/>
-      <c r="S133" s="178"/>
-      <c r="T133" s="178"/>
-      <c r="U133" s="178"/>
-      <c r="V133" s="178"/>
-      <c r="W133" s="178"/>
-      <c r="X133" s="178"/>
-      <c r="Y133" s="178"/>
-      <c r="Z133" s="178"/>
-      <c r="AA133" s="178"/>
-      <c r="AB133" s="178"/>
-      <c r="AC133" s="180"/>
-      <c r="AD133" s="178"/>
-      <c r="AE133" s="181"/>
-      <c r="AF133" s="178"/>
-      <c r="AG133" s="178"/>
-      <c r="AH133" s="178"/>
-      <c r="AI133" s="178"/>
-      <c r="AJ133" s="178"/>
-      <c r="AK133" s="178"/>
-      <c r="AL133" s="179" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM133" s="178"/>
-      <c r="AN133" s="180"/>
-      <c r="AO133" s="178"/>
-      <c r="AP133" s="178"/>
-      <c r="AQ133" s="178"/>
-      <c r="AR133" s="178"/>
-      <c r="AS133" s="178"/>
-      <c r="AT133" s="178"/>
-      <c r="AU133" s="180"/>
+      <c r="E133" s="138"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="19"/>
+      <c r="N133" s="19"/>
+      <c r="O133" s="19"/>
+      <c r="P133" s="19"/>
+      <c r="Q133" s="19"/>
+      <c r="R133" s="19"/>
+      <c r="S133" s="19"/>
+      <c r="T133" s="19"/>
+      <c r="U133" s="19"/>
+      <c r="V133" s="19"/>
+      <c r="W133" s="19"/>
+      <c r="X133" s="19"/>
+      <c r="Y133" s="19"/>
+      <c r="Z133" s="19"/>
+      <c r="AA133" s="19"/>
+      <c r="AB133" s="19"/>
+      <c r="AC133" s="19"/>
+      <c r="AD133" s="19"/>
+      <c r="AE133" s="1"/>
+      <c r="AF133" s="19"/>
+      <c r="AG133" s="19"/>
+      <c r="AH133" s="19"/>
+      <c r="AI133" s="19"/>
+      <c r="AJ133" s="19"/>
+      <c r="AK133" s="19"/>
+      <c r="AL133" s="19"/>
+      <c r="AM133" s="19"/>
+      <c r="AN133" s="19"/>
+      <c r="AO133" s="19"/>
+      <c r="AP133" s="19"/>
+      <c r="AQ133" s="19"/>
+      <c r="AR133" s="19"/>
+      <c r="AS133" s="19"/>
+      <c r="AT133" s="19"/>
+      <c r="AU133" s="19"/>
       <c r="AV133" s="19"/>
       <c r="AW133" s="20"/>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="17"/>
+      <c r="C134" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="D134" s="19"/>
       <c r="E134" s="138"/>
       <c r="F134" s="19"/>
@@ -15647,101 +15650,100 @@
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
       <c r="J134" s="19"/>
-      <c r="K134" s="19"/>
-      <c r="L134" s="19"/>
-      <c r="M134" s="19"/>
-      <c r="N134" s="19"/>
-      <c r="O134" s="19"/>
-      <c r="P134" s="19"/>
-      <c r="Q134" s="19"/>
-      <c r="R134" s="19"/>
-      <c r="S134" s="19"/>
-      <c r="T134" s="19"/>
-      <c r="U134" s="19"/>
-      <c r="V134" s="19"/>
-      <c r="W134" s="19"/>
-      <c r="X134" s="19"/>
-      <c r="Y134" s="19"/>
-      <c r="Z134" s="19"/>
-      <c r="AA134" s="19"/>
-      <c r="AB134" s="19"/>
-      <c r="AC134" s="19"/>
-      <c r="AD134" s="19"/>
-      <c r="AE134" s="1"/>
-      <c r="AF134" s="19"/>
-      <c r="AG134" s="19"/>
-      <c r="AH134" s="19"/>
-      <c r="AI134" s="19"/>
-      <c r="AJ134" s="19"/>
-      <c r="AK134" s="19"/>
-      <c r="AL134" s="19"/>
-      <c r="AM134" s="19"/>
-      <c r="AN134" s="19"/>
-      <c r="AO134" s="19"/>
-      <c r="AP134" s="19"/>
-      <c r="AQ134" s="19"/>
-      <c r="AR134" s="19"/>
-      <c r="AS134" s="19"/>
-      <c r="AT134" s="19"/>
-      <c r="AU134" s="19"/>
+      <c r="K134" s="24"/>
+      <c r="L134" s="24"/>
+      <c r="M134" s="24"/>
+      <c r="N134" s="24"/>
+      <c r="O134" s="24"/>
+      <c r="P134" s="24"/>
+      <c r="Q134" s="24"/>
+      <c r="R134" s="24"/>
+      <c r="S134" s="24"/>
+      <c r="T134" s="24"/>
+      <c r="U134" s="24"/>
+      <c r="V134" s="24"/>
+      <c r="W134" s="24"/>
+      <c r="X134" s="24"/>
+      <c r="Y134" s="24"/>
+      <c r="Z134" s="24"/>
+      <c r="AA134" s="24"/>
+      <c r="AB134" s="24"/>
+      <c r="AC134" s="24"/>
+      <c r="AD134" s="24"/>
+      <c r="AF134" s="24"/>
+      <c r="AG134" s="24"/>
+      <c r="AH134" s="24"/>
+      <c r="AI134" s="24"/>
+      <c r="AJ134" s="24"/>
+      <c r="AK134" s="24"/>
+      <c r="AL134" s="24"/>
+      <c r="AM134" s="24"/>
+      <c r="AN134" s="24"/>
+      <c r="AO134" s="24"/>
+      <c r="AP134" s="24"/>
+      <c r="AQ134" s="24"/>
+      <c r="AR134" s="24"/>
+      <c r="AS134" s="24"/>
+      <c r="AT134" s="24"/>
+      <c r="AU134" s="24"/>
       <c r="AV134" s="19"/>
       <c r="AW134" s="20"/>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="17"/>
-      <c r="C135" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D135" s="19"/>
+      <c r="D135" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="E135" s="138"/>
       <c r="F135" s="19"/>
       <c r="G135" s="19"/>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
       <c r="J135" s="19"/>
-      <c r="K135" s="24"/>
-      <c r="L135" s="24"/>
-      <c r="M135" s="24"/>
-      <c r="N135" s="24"/>
-      <c r="O135" s="24"/>
-      <c r="P135" s="24"/>
-      <c r="Q135" s="24"/>
-      <c r="R135" s="24"/>
-      <c r="S135" s="24"/>
-      <c r="T135" s="24"/>
-      <c r="U135" s="24"/>
-      <c r="V135" s="24"/>
-      <c r="W135" s="24"/>
-      <c r="X135" s="24"/>
-      <c r="Y135" s="24"/>
-      <c r="Z135" s="24"/>
-      <c r="AA135" s="24"/>
-      <c r="AB135" s="24"/>
-      <c r="AC135" s="24"/>
-      <c r="AD135" s="24"/>
-      <c r="AF135" s="24"/>
-      <c r="AG135" s="24"/>
-      <c r="AH135" s="24"/>
-      <c r="AI135" s="24"/>
-      <c r="AJ135" s="24"/>
-      <c r="AK135" s="24"/>
-      <c r="AL135" s="24"/>
-      <c r="AM135" s="24"/>
-      <c r="AN135" s="24"/>
-      <c r="AO135" s="24"/>
-      <c r="AP135" s="24"/>
-      <c r="AQ135" s="24"/>
-      <c r="AR135" s="24"/>
-      <c r="AS135" s="24"/>
-      <c r="AT135" s="24"/>
-      <c r="AU135" s="24"/>
+      <c r="K135" s="19"/>
+      <c r="L135" s="19"/>
+      <c r="M135" s="19"/>
+      <c r="N135" s="19"/>
+      <c r="O135" s="19"/>
+      <c r="P135" s="19"/>
+      <c r="Q135" s="19"/>
+      <c r="R135" s="19"/>
+      <c r="S135" s="19"/>
+      <c r="T135" s="19"/>
+      <c r="U135" s="19"/>
+      <c r="V135" s="19"/>
+      <c r="W135" s="19"/>
+      <c r="X135" s="19"/>
+      <c r="Y135" s="19"/>
+      <c r="Z135" s="19"/>
+      <c r="AA135" s="19"/>
+      <c r="AB135" s="19"/>
+      <c r="AC135" s="19"/>
+      <c r="AD135" s="19"/>
+      <c r="AE135" s="1"/>
+      <c r="AF135" s="19"/>
+      <c r="AG135" s="19"/>
+      <c r="AH135" s="19"/>
+      <c r="AI135" s="19"/>
+      <c r="AJ135" s="19"/>
+      <c r="AK135" s="19"/>
+      <c r="AL135" s="19"/>
+      <c r="AM135" s="19"/>
+      <c r="AN135" s="19"/>
+      <c r="AO135" s="19"/>
+      <c r="AP135" s="19"/>
+      <c r="AQ135" s="19"/>
+      <c r="AR135" s="19"/>
+      <c r="AS135" s="19"/>
+      <c r="AT135" s="19"/>
+      <c r="AU135" s="19"/>
       <c r="AV135" s="19"/>
       <c r="AW135" s="20"/>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="17"/>
       <c r="D136" s="19" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E136" s="138"/>
       <c r="F136" s="19"/>
@@ -15791,10 +15793,10 @@
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="17"/>
-      <c r="D137" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E137" s="138"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="178" t="s">
+        <v>103</v>
+      </c>
       <c r="F137" s="19"/>
       <c r="G137" s="19"/>
       <c r="H137" s="19"/>
@@ -15843,311 +15845,317 @@
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="17"/>
       <c r="D138" s="19"/>
-      <c r="E138" s="182" t="s">
-        <v>100</v>
-      </c>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="19"/>
-      <c r="K138" s="19"/>
-      <c r="L138" s="19"/>
-      <c r="M138" s="19"/>
-      <c r="N138" s="19"/>
-      <c r="O138" s="19"/>
-      <c r="P138" s="19"/>
-      <c r="Q138" s="19"/>
-      <c r="R138" s="19"/>
-      <c r="S138" s="19"/>
-      <c r="T138" s="19"/>
-      <c r="U138" s="19"/>
-      <c r="V138" s="19"/>
-      <c r="W138" s="19"/>
-      <c r="X138" s="19"/>
-      <c r="Y138" s="19"/>
-      <c r="Z138" s="19"/>
-      <c r="AA138" s="19"/>
-      <c r="AB138" s="19"/>
-      <c r="AC138" s="19"/>
-      <c r="AD138" s="19"/>
-      <c r="AE138" s="1"/>
-      <c r="AF138" s="19"/>
-      <c r="AG138" s="19"/>
-      <c r="AH138" s="19"/>
-      <c r="AI138" s="19"/>
-      <c r="AJ138" s="19"/>
-      <c r="AK138" s="19"/>
-      <c r="AL138" s="19"/>
-      <c r="AM138" s="19"/>
-      <c r="AN138" s="19"/>
-      <c r="AO138" s="19"/>
-      <c r="AP138" s="19"/>
-      <c r="AQ138" s="19"/>
-      <c r="AR138" s="19"/>
-      <c r="AS138" s="19"/>
-      <c r="AT138" s="19"/>
-      <c r="AU138" s="19"/>
+      <c r="E138" s="179" t="s">
+        <v>44</v>
+      </c>
+      <c r="F138" s="180" t="s">
+        <v>56</v>
+      </c>
+      <c r="G138" s="180"/>
+      <c r="H138" s="180"/>
+      <c r="I138" s="180"/>
+      <c r="J138" s="180"/>
+      <c r="K138" s="180"/>
+      <c r="L138" s="180"/>
+      <c r="M138" s="180"/>
+      <c r="N138" s="180" t="s">
+        <v>104</v>
+      </c>
+      <c r="O138" s="180"/>
+      <c r="P138" s="180"/>
+      <c r="Q138" s="180"/>
+      <c r="R138" s="180"/>
+      <c r="S138" s="180"/>
+      <c r="T138" s="180"/>
+      <c r="U138" s="180"/>
+      <c r="V138" s="180"/>
+      <c r="W138" s="180"/>
+      <c r="X138" s="180"/>
+      <c r="Y138" s="180"/>
+      <c r="Z138" s="180"/>
+      <c r="AA138" s="180"/>
+      <c r="AB138" s="180"/>
+      <c r="AC138" s="180"/>
+      <c r="AD138" s="180"/>
+      <c r="AE138" s="180"/>
+      <c r="AF138" s="180"/>
+      <c r="AG138" s="180"/>
+      <c r="AH138" s="180"/>
+      <c r="AI138" s="180"/>
+      <c r="AJ138" s="181" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK138" s="181"/>
+      <c r="AL138" s="181"/>
+      <c r="AM138" s="181"/>
+      <c r="AN138" s="181"/>
+      <c r="AO138" s="181"/>
+      <c r="AP138" s="181"/>
+      <c r="AQ138" s="181"/>
+      <c r="AR138" s="181"/>
+      <c r="AS138" s="181"/>
+      <c r="AT138" s="181"/>
+      <c r="AU138" s="181"/>
       <c r="AV138" s="19"/>
       <c r="AW138" s="20"/>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="17"/>
       <c r="D139" s="19"/>
-      <c r="E139" s="183" t="s">
-        <v>44</v>
-      </c>
-      <c r="F139" s="184" t="s">
-        <v>56</v>
+      <c r="E139" s="182" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" s="183" t="s">
+        <v>62</v>
       </c>
       <c r="G139" s="184"/>
       <c r="H139" s="184"/>
-      <c r="I139" s="184"/>
-      <c r="J139" s="184"/>
-      <c r="K139" s="184"/>
-      <c r="L139" s="184"/>
-      <c r="M139" s="184"/>
-      <c r="N139" s="184" t="s">
-        <v>101</v>
+      <c r="I139" s="185"/>
+      <c r="J139" s="185"/>
+      <c r="K139" s="185"/>
+      <c r="L139" s="185"/>
+      <c r="M139" s="186"/>
+      <c r="N139" s="187" t="s">
+        <v>106</v>
       </c>
       <c r="O139" s="184"/>
       <c r="P139" s="184"/>
-      <c r="Q139" s="184"/>
-      <c r="R139" s="184"/>
-      <c r="S139" s="184"/>
-      <c r="T139" s="184"/>
-      <c r="U139" s="184"/>
-      <c r="V139" s="184"/>
-      <c r="W139" s="184"/>
-      <c r="X139" s="184"/>
-      <c r="Y139" s="184"/>
-      <c r="Z139" s="184"/>
-      <c r="AA139" s="184"/>
-      <c r="AB139" s="184"/>
-      <c r="AC139" s="184"/>
-      <c r="AD139" s="184"/>
-      <c r="AE139" s="184"/>
-      <c r="AF139" s="184"/>
-      <c r="AG139" s="184"/>
-      <c r="AH139" s="184"/>
-      <c r="AI139" s="184"/>
-      <c r="AJ139" s="185" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK139" s="185"/>
-      <c r="AL139" s="185"/>
-      <c r="AM139" s="185"/>
-      <c r="AN139" s="185"/>
-      <c r="AO139" s="185"/>
-      <c r="AP139" s="185"/>
-      <c r="AQ139" s="185"/>
-      <c r="AR139" s="185"/>
-      <c r="AS139" s="185"/>
-      <c r="AT139" s="185"/>
-      <c r="AU139" s="185"/>
+      <c r="Q139" s="185"/>
+      <c r="R139" s="185"/>
+      <c r="S139" s="185"/>
+      <c r="T139" s="185"/>
+      <c r="U139" s="185"/>
+      <c r="V139" s="188"/>
+      <c r="W139" s="188"/>
+      <c r="X139" s="188"/>
+      <c r="Y139" s="188"/>
+      <c r="Z139" s="188"/>
+      <c r="AA139" s="188"/>
+      <c r="AB139" s="188"/>
+      <c r="AC139" s="188"/>
+      <c r="AD139" s="188"/>
+      <c r="AE139" s="188"/>
+      <c r="AF139" s="188"/>
+      <c r="AG139" s="188"/>
+      <c r="AH139" s="188"/>
+      <c r="AI139" s="189"/>
+      <c r="AJ139" s="190" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK139" s="191"/>
+      <c r="AL139" s="191"/>
+      <c r="AM139" s="191"/>
+      <c r="AN139" s="191"/>
+      <c r="AO139" s="191"/>
+      <c r="AP139" s="191"/>
+      <c r="AQ139" s="191"/>
+      <c r="AR139" s="191"/>
+      <c r="AS139" s="191"/>
+      <c r="AT139" s="191"/>
+      <c r="AU139" s="192"/>
       <c r="AV139" s="19"/>
       <c r="AW139" s="20"/>
+      <c r="AY139" s="193"/>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="17"/>
       <c r="D140" s="19"/>
-      <c r="E140" s="186" t="n">
-        <v>1</v>
-      </c>
-      <c r="F140" s="187" t="s">
-        <v>62</v>
-      </c>
-      <c r="G140" s="188"/>
-      <c r="H140" s="188"/>
-      <c r="I140" s="189"/>
-      <c r="J140" s="189"/>
-      <c r="K140" s="189"/>
-      <c r="L140" s="189"/>
-      <c r="M140" s="190"/>
-      <c r="N140" s="191" t="s">
-        <v>103</v>
-      </c>
-      <c r="O140" s="188"/>
-      <c r="P140" s="188"/>
-      <c r="Q140" s="189"/>
-      <c r="R140" s="189"/>
-      <c r="S140" s="189"/>
-      <c r="T140" s="189"/>
-      <c r="U140" s="189"/>
-      <c r="V140" s="192"/>
-      <c r="W140" s="192"/>
-      <c r="X140" s="192"/>
-      <c r="Y140" s="192"/>
-      <c r="Z140" s="192"/>
-      <c r="AA140" s="192"/>
-      <c r="AB140" s="192"/>
-      <c r="AC140" s="192"/>
-      <c r="AD140" s="192"/>
-      <c r="AE140" s="192"/>
-      <c r="AF140" s="192"/>
-      <c r="AG140" s="192"/>
-      <c r="AH140" s="192"/>
-      <c r="AI140" s="193"/>
-      <c r="AJ140" s="194" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK140" s="195"/>
-      <c r="AL140" s="195"/>
-      <c r="AM140" s="195"/>
-      <c r="AN140" s="195"/>
-      <c r="AO140" s="195"/>
-      <c r="AP140" s="195"/>
-      <c r="AQ140" s="195"/>
-      <c r="AR140" s="195"/>
-      <c r="AS140" s="195"/>
-      <c r="AT140" s="195"/>
-      <c r="AU140" s="196"/>
+      <c r="E140" s="194" t="n">
+        <v>3</v>
+      </c>
+      <c r="F140" s="195" t="s">
+        <v>68</v>
+      </c>
+      <c r="G140" s="196"/>
+      <c r="H140" s="196"/>
+      <c r="I140" s="197"/>
+      <c r="J140" s="197"/>
+      <c r="K140" s="197"/>
+      <c r="L140" s="197"/>
+      <c r="M140" s="198"/>
+      <c r="N140" s="195" t="s">
+        <v>106</v>
+      </c>
+      <c r="O140" s="196"/>
+      <c r="P140" s="196"/>
+      <c r="Q140" s="197"/>
+      <c r="R140" s="197"/>
+      <c r="S140" s="197"/>
+      <c r="T140" s="197"/>
+      <c r="U140" s="197"/>
+      <c r="V140" s="199"/>
+      <c r="W140" s="199"/>
+      <c r="X140" s="199"/>
+      <c r="Y140" s="199"/>
+      <c r="Z140" s="199"/>
+      <c r="AA140" s="199"/>
+      <c r="AB140" s="199"/>
+      <c r="AC140" s="199"/>
+      <c r="AD140" s="199"/>
+      <c r="AE140" s="199"/>
+      <c r="AF140" s="199"/>
+      <c r="AG140" s="199"/>
+      <c r="AH140" s="199"/>
+      <c r="AI140" s="200"/>
+      <c r="AJ140" s="190" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK140" s="201"/>
+      <c r="AL140" s="201"/>
+      <c r="AM140" s="201"/>
+      <c r="AN140" s="201"/>
+      <c r="AO140" s="201"/>
+      <c r="AP140" s="201"/>
+      <c r="AQ140" s="201"/>
+      <c r="AR140" s="201"/>
+      <c r="AS140" s="201"/>
+      <c r="AT140" s="201"/>
+      <c r="AU140" s="202"/>
       <c r="AV140" s="19"/>
       <c r="AW140" s="20"/>
-      <c r="AY140" s="197"/>
-    </row>
-    <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AY140" s="193"/>
+    </row>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="17"/>
       <c r="D141" s="19"/>
-      <c r="E141" s="198" t="n">
-        <v>3</v>
-      </c>
-      <c r="F141" s="199" t="s">
-        <v>68</v>
-      </c>
-      <c r="G141" s="200"/>
-      <c r="H141" s="200"/>
-      <c r="I141" s="201"/>
-      <c r="J141" s="201"/>
-      <c r="K141" s="201"/>
-      <c r="L141" s="201"/>
-      <c r="M141" s="202"/>
-      <c r="N141" s="199" t="s">
-        <v>103</v>
-      </c>
-      <c r="O141" s="200"/>
-      <c r="P141" s="200"/>
-      <c r="Q141" s="201"/>
-      <c r="R141" s="201"/>
-      <c r="S141" s="201"/>
-      <c r="T141" s="201"/>
-      <c r="U141" s="201"/>
-      <c r="V141" s="203"/>
-      <c r="W141" s="203"/>
-      <c r="X141" s="203"/>
-      <c r="Y141" s="203"/>
-      <c r="Z141" s="203"/>
-      <c r="AA141" s="203"/>
-      <c r="AB141" s="203"/>
-      <c r="AC141" s="203"/>
-      <c r="AD141" s="203"/>
-      <c r="AE141" s="203"/>
-      <c r="AF141" s="203"/>
-      <c r="AG141" s="203"/>
-      <c r="AH141" s="203"/>
-      <c r="AI141" s="204"/>
-      <c r="AJ141" s="194" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK141" s="205"/>
-      <c r="AL141" s="205"/>
-      <c r="AM141" s="205"/>
-      <c r="AN141" s="205"/>
-      <c r="AO141" s="205"/>
-      <c r="AP141" s="205"/>
-      <c r="AQ141" s="205"/>
-      <c r="AR141" s="205"/>
-      <c r="AS141" s="205"/>
-      <c r="AT141" s="205"/>
-      <c r="AU141" s="206"/>
+      <c r="E141" s="194" t="n">
+        <v>6</v>
+      </c>
+      <c r="F141" s="195" t="s">
+        <v>70</v>
+      </c>
+      <c r="G141" s="196"/>
+      <c r="H141" s="196"/>
+      <c r="I141" s="197"/>
+      <c r="J141" s="197"/>
+      <c r="K141" s="197"/>
+      <c r="L141" s="197"/>
+      <c r="M141" s="198"/>
+      <c r="N141" s="195" t="s">
+        <v>106</v>
+      </c>
+      <c r="O141" s="196"/>
+      <c r="P141" s="196"/>
+      <c r="Q141" s="197"/>
+      <c r="R141" s="197"/>
+      <c r="S141" s="197"/>
+      <c r="T141" s="197"/>
+      <c r="U141" s="197"/>
+      <c r="V141" s="199"/>
+      <c r="W141" s="199"/>
+      <c r="X141" s="199"/>
+      <c r="Y141" s="199"/>
+      <c r="Z141" s="199"/>
+      <c r="AA141" s="199"/>
+      <c r="AB141" s="199"/>
+      <c r="AC141" s="199"/>
+      <c r="AD141" s="199"/>
+      <c r="AE141" s="199"/>
+      <c r="AF141" s="199"/>
+      <c r="AG141" s="199"/>
+      <c r="AH141" s="199"/>
+      <c r="AI141" s="200"/>
+      <c r="AJ141" s="190" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK141" s="201"/>
+      <c r="AL141" s="201"/>
+      <c r="AM141" s="201"/>
+      <c r="AN141" s="201"/>
+      <c r="AO141" s="201"/>
+      <c r="AP141" s="201"/>
+      <c r="AQ141" s="201"/>
+      <c r="AR141" s="201"/>
+      <c r="AS141" s="201"/>
+      <c r="AT141" s="201"/>
+      <c r="AU141" s="202"/>
       <c r="AV141" s="19"/>
       <c r="AW141" s="20"/>
-      <c r="AY141" s="197"/>
-    </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AY141" s="193"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="17"/>
       <c r="D142" s="19"/>
-      <c r="E142" s="198" t="n">
-        <v>6</v>
-      </c>
-      <c r="F142" s="199" t="s">
-        <v>69</v>
-      </c>
-      <c r="G142" s="200"/>
-      <c r="H142" s="200"/>
-      <c r="I142" s="201"/>
-      <c r="J142" s="201"/>
-      <c r="K142" s="201"/>
-      <c r="L142" s="201"/>
-      <c r="M142" s="202"/>
-      <c r="N142" s="199" t="s">
-        <v>103</v>
-      </c>
-      <c r="O142" s="200"/>
-      <c r="P142" s="200"/>
-      <c r="Q142" s="201"/>
-      <c r="R142" s="201"/>
-      <c r="S142" s="201"/>
-      <c r="T142" s="201"/>
-      <c r="U142" s="201"/>
-      <c r="V142" s="203"/>
-      <c r="W142" s="203"/>
-      <c r="X142" s="203"/>
-      <c r="Y142" s="203"/>
-      <c r="Z142" s="203"/>
-      <c r="AA142" s="203"/>
-      <c r="AB142" s="203"/>
-      <c r="AC142" s="203"/>
-      <c r="AD142" s="203"/>
-      <c r="AE142" s="203"/>
-      <c r="AF142" s="203"/>
-      <c r="AG142" s="203"/>
-      <c r="AH142" s="203"/>
-      <c r="AI142" s="204"/>
-      <c r="AJ142" s="194" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK142" s="205"/>
-      <c r="AL142" s="205"/>
-      <c r="AM142" s="205"/>
-      <c r="AN142" s="205"/>
-      <c r="AO142" s="205"/>
-      <c r="AP142" s="205"/>
-      <c r="AQ142" s="205"/>
-      <c r="AR142" s="205"/>
-      <c r="AS142" s="205"/>
-      <c r="AT142" s="205"/>
-      <c r="AU142" s="206"/>
+      <c r="E142" s="194" t="n">
+        <v>8</v>
+      </c>
+      <c r="F142" s="195" t="s">
+        <v>68</v>
+      </c>
+      <c r="G142" s="196"/>
+      <c r="H142" s="196"/>
+      <c r="I142" s="197"/>
+      <c r="J142" s="197"/>
+      <c r="K142" s="197"/>
+      <c r="L142" s="197"/>
+      <c r="M142" s="198"/>
+      <c r="N142" s="195" t="s">
+        <v>110</v>
+      </c>
+      <c r="O142" s="196"/>
+      <c r="P142" s="196"/>
+      <c r="Q142" s="197"/>
+      <c r="R142" s="197"/>
+      <c r="S142" s="197"/>
+      <c r="T142" s="197"/>
+      <c r="U142" s="197"/>
+      <c r="V142" s="199"/>
+      <c r="W142" s="199"/>
+      <c r="X142" s="199"/>
+      <c r="Y142" s="199"/>
+      <c r="Z142" s="199"/>
+      <c r="AA142" s="199"/>
+      <c r="AB142" s="199"/>
+      <c r="AC142" s="199"/>
+      <c r="AD142" s="199"/>
+      <c r="AE142" s="199"/>
+      <c r="AF142" s="199"/>
+      <c r="AG142" s="199"/>
+      <c r="AH142" s="199"/>
+      <c r="AI142" s="200"/>
+      <c r="AJ142" s="190" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK142" s="201"/>
+      <c r="AL142" s="201"/>
+      <c r="AM142" s="201"/>
+      <c r="AN142" s="201"/>
+      <c r="AO142" s="201"/>
+      <c r="AP142" s="201"/>
+      <c r="AQ142" s="201"/>
+      <c r="AR142" s="201"/>
+      <c r="AS142" s="201"/>
+      <c r="AT142" s="201"/>
+      <c r="AU142" s="202"/>
       <c r="AV142" s="19"/>
       <c r="AW142" s="20"/>
-      <c r="AY142" s="197"/>
-    </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
       <c r="D143" s="19"/>
-      <c r="E143" s="207" t="n">
-        <v>7</v>
-      </c>
-      <c r="F143" s="208" t="s">
-        <v>73</v>
-      </c>
-      <c r="G143" s="209"/>
-      <c r="H143" s="209"/>
-      <c r="I143" s="210"/>
-      <c r="J143" s="210"/>
-      <c r="K143" s="210"/>
-      <c r="L143" s="210"/>
-      <c r="M143" s="211"/>
-      <c r="N143" s="199" t="s">
-        <v>103</v>
-      </c>
-      <c r="O143" s="199"/>
-      <c r="P143" s="199"/>
-      <c r="Q143" s="199"/>
-      <c r="R143" s="199"/>
-      <c r="S143" s="199"/>
-      <c r="T143" s="199"/>
-      <c r="U143" s="199"/>
+      <c r="E143" s="194" t="n">
+        <v>9</v>
+      </c>
+      <c r="F143" s="195" t="s">
+        <v>112</v>
+      </c>
+      <c r="G143" s="196"/>
+      <c r="H143" s="196"/>
+      <c r="I143" s="197"/>
+      <c r="J143" s="197"/>
+      <c r="K143" s="197"/>
+      <c r="L143" s="197"/>
+      <c r="M143" s="198"/>
+      <c r="N143" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="O143" s="196"/>
+      <c r="P143" s="196"/>
+      <c r="Q143" s="197"/>
+      <c r="R143" s="197"/>
+      <c r="S143" s="197"/>
+      <c r="T143" s="197"/>
+      <c r="U143" s="197"/>
       <c r="V143" s="199"/>
       <c r="W143" s="199"/>
       <c r="X143" s="199"/>
@@ -16161,290 +16169,273 @@
       <c r="AF143" s="199"/>
       <c r="AG143" s="199"/>
       <c r="AH143" s="199"/>
-      <c r="AI143" s="199"/>
-      <c r="AJ143" s="194" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK143" s="212"/>
-      <c r="AL143" s="212"/>
-      <c r="AM143" s="212"/>
-      <c r="AN143" s="212"/>
-      <c r="AO143" s="212"/>
-      <c r="AP143" s="212"/>
-      <c r="AQ143" s="212"/>
-      <c r="AR143" s="212"/>
-      <c r="AS143" s="212"/>
-      <c r="AT143" s="212"/>
-      <c r="AU143" s="213"/>
+      <c r="AI143" s="200"/>
+      <c r="AJ143" s="190" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK143" s="201"/>
+      <c r="AL143" s="201"/>
+      <c r="AM143" s="201"/>
+      <c r="AN143" s="201"/>
+      <c r="AO143" s="201"/>
+      <c r="AP143" s="201"/>
+      <c r="AQ143" s="201"/>
+      <c r="AR143" s="201"/>
+      <c r="AS143" s="201"/>
+      <c r="AT143" s="201"/>
+      <c r="AU143" s="202"/>
       <c r="AV143" s="19"/>
       <c r="AW143" s="20"/>
-      <c r="AY143" s="197"/>
-      <c r="AZ143" s="214"/>
-      <c r="BA143" s="214"/>
-      <c r="BB143" s="214"/>
-      <c r="BC143" s="214"/>
-      <c r="BD143" s="214"/>
-      <c r="BE143" s="214"/>
-      <c r="BF143" s="214"/>
-      <c r="BG143" s="214"/>
-      <c r="BH143" s="214"/>
-      <c r="BI143" s="214"/>
-      <c r="BJ143" s="214"/>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="17"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="198" t="n">
-        <v>8</v>
-      </c>
-      <c r="F144" s="199" t="s">
-        <v>68</v>
-      </c>
-      <c r="G144" s="200"/>
-      <c r="H144" s="200"/>
-      <c r="I144" s="201"/>
-      <c r="J144" s="201"/>
-      <c r="K144" s="201"/>
-      <c r="L144" s="201"/>
-      <c r="M144" s="202"/>
-      <c r="N144" s="199" t="s">
-        <v>105</v>
-      </c>
-      <c r="O144" s="200"/>
-      <c r="P144" s="200"/>
-      <c r="Q144" s="201"/>
-      <c r="R144" s="201"/>
-      <c r="S144" s="201"/>
-      <c r="T144" s="201"/>
-      <c r="U144" s="201"/>
-      <c r="V144" s="203"/>
-      <c r="W144" s="203"/>
-      <c r="X144" s="203"/>
-      <c r="Y144" s="203"/>
-      <c r="Z144" s="203"/>
-      <c r="AA144" s="203"/>
-      <c r="AB144" s="203"/>
-      <c r="AC144" s="203"/>
-      <c r="AD144" s="203"/>
-      <c r="AE144" s="203"/>
-      <c r="AF144" s="203"/>
-      <c r="AG144" s="203"/>
-      <c r="AH144" s="203"/>
-      <c r="AI144" s="204"/>
-      <c r="AJ144" s="194" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK144" s="205"/>
-      <c r="AL144" s="205"/>
-      <c r="AM144" s="205"/>
-      <c r="AN144" s="205"/>
-      <c r="AO144" s="205"/>
-      <c r="AP144" s="205"/>
-      <c r="AQ144" s="205"/>
-      <c r="AR144" s="205"/>
-      <c r="AS144" s="205"/>
-      <c r="AT144" s="205"/>
-      <c r="AU144" s="206"/>
       <c r="AV144" s="19"/>
       <c r="AW144" s="20"/>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="17"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="198" t="n">
-        <v>9</v>
-      </c>
-      <c r="F145" s="199" t="s">
-        <v>107</v>
-      </c>
-      <c r="G145" s="200"/>
-      <c r="H145" s="200"/>
-      <c r="I145" s="201"/>
-      <c r="J145" s="201"/>
-      <c r="K145" s="201"/>
-      <c r="L145" s="201"/>
-      <c r="M145" s="202"/>
-      <c r="N145" s="199" t="s">
-        <v>108</v>
-      </c>
-      <c r="O145" s="200"/>
-      <c r="P145" s="200"/>
-      <c r="Q145" s="201"/>
-      <c r="R145" s="201"/>
-      <c r="S145" s="201"/>
-      <c r="T145" s="201"/>
-      <c r="U145" s="201"/>
-      <c r="V145" s="203"/>
-      <c r="W145" s="203"/>
-      <c r="X145" s="203"/>
-      <c r="Y145" s="203"/>
-      <c r="Z145" s="203"/>
-      <c r="AA145" s="203"/>
-      <c r="AB145" s="203"/>
-      <c r="AC145" s="203"/>
-      <c r="AD145" s="203"/>
-      <c r="AE145" s="203"/>
-      <c r="AF145" s="203"/>
-      <c r="AG145" s="203"/>
-      <c r="AH145" s="203"/>
-      <c r="AI145" s="204"/>
-      <c r="AJ145" s="194" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK145" s="205"/>
-      <c r="AL145" s="205"/>
-      <c r="AM145" s="205"/>
-      <c r="AN145" s="205"/>
-      <c r="AO145" s="205"/>
-      <c r="AP145" s="205"/>
-      <c r="AQ145" s="205"/>
-      <c r="AR145" s="205"/>
-      <c r="AS145" s="205"/>
-      <c r="AT145" s="205"/>
-      <c r="AU145" s="206"/>
       <c r="AV145" s="19"/>
       <c r="AW145" s="20"/>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="17"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="198" t="n">
-        <v>10</v>
-      </c>
-      <c r="F146" s="199" t="s">
-        <v>73</v>
-      </c>
-      <c r="G146" s="200"/>
-      <c r="H146" s="200"/>
-      <c r="I146" s="201"/>
-      <c r="J146" s="201"/>
-      <c r="K146" s="201"/>
-      <c r="L146" s="201"/>
-      <c r="M146" s="202"/>
-      <c r="N146" s="199" t="s">
-        <v>110</v>
-      </c>
-      <c r="O146" s="200"/>
-      <c r="P146" s="200"/>
-      <c r="Q146" s="201"/>
-      <c r="R146" s="201"/>
-      <c r="S146" s="201"/>
-      <c r="T146" s="201"/>
-      <c r="U146" s="201"/>
-      <c r="V146" s="203"/>
-      <c r="W146" s="203"/>
-      <c r="X146" s="203"/>
-      <c r="Y146" s="203"/>
-      <c r="Z146" s="203"/>
-      <c r="AA146" s="203"/>
-      <c r="AB146" s="203"/>
-      <c r="AC146" s="203"/>
-      <c r="AD146" s="203"/>
-      <c r="AE146" s="203"/>
-      <c r="AF146" s="203"/>
-      <c r="AG146" s="203"/>
-      <c r="AH146" s="203"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D146" s="203"/>
+      <c r="E146" s="204"/>
+      <c r="F146" s="204"/>
+      <c r="G146" s="204"/>
+      <c r="H146" s="204"/>
+      <c r="I146" s="204"/>
+      <c r="J146" s="204"/>
+      <c r="K146" s="204"/>
+      <c r="L146" s="204"/>
+      <c r="M146" s="204"/>
+      <c r="N146" s="204"/>
+      <c r="O146" s="204"/>
+      <c r="P146" s="204"/>
+      <c r="Q146" s="204"/>
+      <c r="R146" s="204"/>
+      <c r="S146" s="204"/>
+      <c r="T146" s="204"/>
+      <c r="U146" s="204"/>
+      <c r="V146" s="204"/>
+      <c r="W146" s="204"/>
+      <c r="X146" s="204"/>
+      <c r="Y146" s="204"/>
+      <c r="Z146" s="204"/>
+      <c r="AA146" s="204"/>
+      <c r="AB146" s="204"/>
+      <c r="AC146" s="204"/>
+      <c r="AD146" s="204"/>
+      <c r="AE146" s="204"/>
+      <c r="AF146" s="204"/>
+      <c r="AG146" s="204"/>
+      <c r="AH146" s="204"/>
       <c r="AI146" s="204"/>
-      <c r="AJ146" s="194" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK146" s="205"/>
-      <c r="AL146" s="205"/>
-      <c r="AM146" s="205"/>
-      <c r="AN146" s="205"/>
-      <c r="AO146" s="205"/>
-      <c r="AP146" s="205"/>
-      <c r="AQ146" s="205"/>
-      <c r="AR146" s="205"/>
-      <c r="AS146" s="205"/>
-      <c r="AT146" s="205"/>
-      <c r="AU146" s="206"/>
+      <c r="AJ146" s="204"/>
+      <c r="AK146" s="204"/>
+      <c r="AL146" s="204"/>
+      <c r="AM146" s="204"/>
+      <c r="AN146" s="204"/>
+      <c r="AO146" s="204"/>
+      <c r="AP146" s="204"/>
+      <c r="AQ146" s="204"/>
+      <c r="AR146" s="204"/>
+      <c r="AS146" s="204"/>
+      <c r="AT146" s="204"/>
+      <c r="AU146" s="19"/>
       <c r="AV146" s="19"/>
       <c r="AW146" s="20"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="17"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="205"/>
+      <c r="E147" s="206" t="s">
+        <v>116</v>
+      </c>
+      <c r="F147" s="206"/>
+      <c r="G147" s="206"/>
+      <c r="H147" s="206"/>
+      <c r="I147" s="206"/>
+      <c r="J147" s="207"/>
+      <c r="K147" s="208"/>
+      <c r="L147" s="209"/>
+      <c r="M147" s="209"/>
+      <c r="N147" s="209"/>
+      <c r="O147" s="209" t="s">
+        <v>117</v>
+      </c>
+      <c r="P147" s="209"/>
+      <c r="Q147" s="209"/>
+      <c r="R147" s="209"/>
+      <c r="S147" s="209"/>
+      <c r="T147" s="209"/>
+      <c r="U147" s="209"/>
+      <c r="V147" s="209"/>
+      <c r="W147" s="209"/>
+      <c r="X147" s="209"/>
+      <c r="Y147" s="209"/>
+      <c r="Z147" s="209"/>
+      <c r="AA147" s="209"/>
+      <c r="AB147" s="209"/>
+      <c r="AC147" s="209"/>
+      <c r="AD147" s="209"/>
+      <c r="AE147" s="209"/>
+      <c r="AF147" s="209"/>
+      <c r="AG147" s="209"/>
+      <c r="AH147" s="209"/>
+      <c r="AI147" s="209"/>
+      <c r="AJ147" s="209"/>
+      <c r="AK147" s="209"/>
+      <c r="AL147" s="209"/>
+      <c r="AM147" s="209"/>
+      <c r="AN147" s="209"/>
+      <c r="AO147" s="209"/>
+      <c r="AP147" s="209"/>
+      <c r="AQ147" s="209"/>
+      <c r="AR147" s="209"/>
+      <c r="AS147" s="209"/>
+      <c r="AT147" s="210"/>
+      <c r="AU147" s="19"/>
       <c r="AV147" s="19"/>
       <c r="AW147" s="20"/>
     </row>
     <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="17"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="211" t="s">
+        <v>48</v>
+      </c>
+      <c r="E148" s="211"/>
+      <c r="F148" s="211"/>
+      <c r="G148" s="211"/>
+      <c r="H148" s="211"/>
+      <c r="I148" s="211"/>
+      <c r="J148" s="211"/>
+      <c r="K148" s="212"/>
+      <c r="L148" s="213"/>
+      <c r="M148" s="213" t="s">
+        <v>118</v>
+      </c>
+      <c r="N148" s="213"/>
+      <c r="O148" s="213"/>
+      <c r="P148" s="214"/>
+      <c r="Q148" s="214"/>
+      <c r="R148" s="214"/>
+      <c r="S148" s="214"/>
+      <c r="T148" s="214"/>
+      <c r="U148" s="214"/>
+      <c r="V148" s="214"/>
+      <c r="W148" s="214"/>
+      <c r="X148" s="215" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y148" s="214" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z148" s="214"/>
+      <c r="AA148" s="214"/>
+      <c r="AB148" s="214"/>
+      <c r="AC148" s="214"/>
+      <c r="AD148" s="214"/>
+      <c r="AE148" s="214"/>
+      <c r="AF148" s="214"/>
+      <c r="AG148" s="214"/>
+      <c r="AH148" s="214"/>
+      <c r="AI148" s="214"/>
+      <c r="AJ148" s="214"/>
+      <c r="AK148" s="214"/>
+      <c r="AL148" s="214"/>
+      <c r="AM148" s="214"/>
+      <c r="AN148" s="214"/>
+      <c r="AO148" s="214"/>
+      <c r="AP148" s="214"/>
+      <c r="AQ148" s="214"/>
+      <c r="AR148" s="214"/>
+      <c r="AS148" s="214"/>
+      <c r="AT148" s="216"/>
+      <c r="AU148" s="26"/>
       <c r="AV148" s="19"/>
       <c r="AW148" s="20"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="17"/>
       <c r="B149" s="9"/>
-      <c r="C149" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D149" s="215"/>
-      <c r="E149" s="216"/>
-      <c r="F149" s="216"/>
-      <c r="G149" s="216"/>
-      <c r="H149" s="216"/>
-      <c r="I149" s="216"/>
-      <c r="J149" s="216"/>
-      <c r="K149" s="216"/>
-      <c r="L149" s="216"/>
-      <c r="M149" s="216"/>
-      <c r="N149" s="216"/>
-      <c r="O149" s="216"/>
-      <c r="P149" s="216"/>
-      <c r="Q149" s="216"/>
-      <c r="R149" s="216"/>
-      <c r="S149" s="216"/>
-      <c r="T149" s="216"/>
-      <c r="U149" s="216"/>
-      <c r="V149" s="216"/>
-      <c r="W149" s="216"/>
-      <c r="X149" s="216"/>
-      <c r="Y149" s="216"/>
-      <c r="Z149" s="216"/>
-      <c r="AA149" s="216"/>
-      <c r="AB149" s="216"/>
-      <c r="AC149" s="216"/>
-      <c r="AD149" s="216"/>
-      <c r="AE149" s="216"/>
-      <c r="AF149" s="216"/>
-      <c r="AG149" s="216"/>
-      <c r="AH149" s="216"/>
-      <c r="AI149" s="216"/>
-      <c r="AJ149" s="216"/>
-      <c r="AK149" s="216"/>
-      <c r="AL149" s="216"/>
-      <c r="AM149" s="216"/>
-      <c r="AN149" s="216"/>
-      <c r="AO149" s="216"/>
-      <c r="AP149" s="216"/>
-      <c r="AQ149" s="216"/>
-      <c r="AR149" s="216"/>
-      <c r="AS149" s="216"/>
-      <c r="AT149" s="216"/>
-      <c r="AU149" s="19"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="211"/>
+      <c r="E149" s="211"/>
+      <c r="F149" s="211"/>
+      <c r="G149" s="211"/>
+      <c r="H149" s="211"/>
+      <c r="I149" s="211"/>
+      <c r="J149" s="211"/>
+      <c r="K149" s="217"/>
+      <c r="L149" s="197"/>
+      <c r="M149" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="N149" s="197"/>
+      <c r="O149" s="197"/>
+      <c r="P149" s="199"/>
+      <c r="Q149" s="199"/>
+      <c r="R149" s="199"/>
+      <c r="S149" s="199"/>
+      <c r="T149" s="199"/>
+      <c r="U149" s="199"/>
+      <c r="V149" s="199"/>
+      <c r="W149" s="199"/>
+      <c r="X149" s="218" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y149" s="214" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z149" s="199"/>
+      <c r="AA149" s="199"/>
+      <c r="AB149" s="199"/>
+      <c r="AC149" s="199"/>
+      <c r="AD149" s="199"/>
+      <c r="AE149" s="199"/>
+      <c r="AF149" s="199"/>
+      <c r="AG149" s="199"/>
+      <c r="AH149" s="199"/>
+      <c r="AI149" s="199"/>
+      <c r="AJ149" s="199"/>
+      <c r="AK149" s="199"/>
+      <c r="AL149" s="199"/>
+      <c r="AM149" s="199"/>
+      <c r="AN149" s="199"/>
+      <c r="AO149" s="199"/>
+      <c r="AP149" s="199"/>
+      <c r="AQ149" s="199"/>
+      <c r="AR149" s="199"/>
+      <c r="AS149" s="199"/>
+      <c r="AT149" s="200"/>
       <c r="AV149" s="19"/>
       <c r="AW149" s="20"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="17"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="217"/>
-      <c r="E150" s="218" t="s">
-        <v>113</v>
-      </c>
-      <c r="F150" s="218"/>
-      <c r="G150" s="218"/>
-      <c r="H150" s="218"/>
-      <c r="I150" s="218"/>
-      <c r="J150" s="219"/>
-      <c r="K150" s="220"/>
-      <c r="L150" s="221"/>
-      <c r="M150" s="221"/>
-      <c r="N150" s="221"/>
-      <c r="O150" s="221" t="s">
-        <v>114</v>
-      </c>
+      <c r="D150" s="211"/>
+      <c r="E150" s="211"/>
+      <c r="F150" s="211"/>
+      <c r="G150" s="211"/>
+      <c r="H150" s="211"/>
+      <c r="I150" s="211"/>
+      <c r="J150" s="211"/>
+      <c r="K150" s="219"/>
+      <c r="L150" s="220"/>
+      <c r="M150" s="220" t="s">
+        <v>122</v>
+      </c>
+      <c r="N150" s="220"/>
+      <c r="O150" s="220"/>
       <c r="P150" s="221"/>
       <c r="Q150" s="221"/>
       <c r="R150" s="221"/>
@@ -16453,8 +16444,12 @@
       <c r="U150" s="221"/>
       <c r="V150" s="221"/>
       <c r="W150" s="221"/>
-      <c r="X150" s="221"/>
-      <c r="Y150" s="221"/>
+      <c r="X150" s="222" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y150" s="214" t="s">
+        <v>120</v>
+      </c>
       <c r="Z150" s="221"/>
       <c r="AA150" s="221"/>
       <c r="AB150" s="221"/>
@@ -16475,410 +16470,386 @@
       <c r="AQ150" s="221"/>
       <c r="AR150" s="221"/>
       <c r="AS150" s="221"/>
-      <c r="AT150" s="222"/>
-      <c r="AU150" s="19"/>
+      <c r="AT150" s="223"/>
       <c r="AV150" s="19"/>
       <c r="AW150" s="20"/>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="17"/>
-      <c r="B151" s="9"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="223" t="s">
-        <v>48</v>
-      </c>
-      <c r="E151" s="223"/>
-      <c r="F151" s="223"/>
-      <c r="G151" s="223"/>
-      <c r="H151" s="223"/>
-      <c r="I151" s="223"/>
-      <c r="J151" s="223"/>
-      <c r="K151" s="224"/>
-      <c r="L151" s="225"/>
-      <c r="M151" s="225" t="s">
-        <v>115</v>
-      </c>
-      <c r="N151" s="225"/>
-      <c r="O151" s="225"/>
-      <c r="P151" s="226"/>
-      <c r="Q151" s="226"/>
-      <c r="R151" s="226"/>
-      <c r="S151" s="226"/>
-      <c r="T151" s="226"/>
-      <c r="U151" s="226"/>
-      <c r="V151" s="226"/>
-      <c r="W151" s="226"/>
-      <c r="X151" s="227" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y151" s="226" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z151" s="226"/>
-      <c r="AA151" s="226"/>
-      <c r="AB151" s="226"/>
-      <c r="AC151" s="226"/>
-      <c r="AD151" s="226"/>
-      <c r="AE151" s="226"/>
-      <c r="AF151" s="226"/>
-      <c r="AG151" s="226"/>
-      <c r="AH151" s="226"/>
-      <c r="AI151" s="226"/>
-      <c r="AJ151" s="226"/>
-      <c r="AK151" s="226"/>
-      <c r="AL151" s="226"/>
-      <c r="AM151" s="226"/>
-      <c r="AN151" s="226"/>
-      <c r="AO151" s="226"/>
-      <c r="AP151" s="226"/>
-      <c r="AQ151" s="226"/>
-      <c r="AR151" s="226"/>
-      <c r="AS151" s="226"/>
-      <c r="AT151" s="228"/>
-      <c r="AU151" s="26"/>
+      <c r="AT151" s="24"/>
       <c r="AV151" s="19"/>
       <c r="AW151" s="20"/>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="17"/>
-      <c r="B152" s="9"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="223"/>
-      <c r="E152" s="223"/>
-      <c r="F152" s="223"/>
-      <c r="G152" s="223"/>
-      <c r="H152" s="223"/>
-      <c r="I152" s="223"/>
-      <c r="J152" s="223"/>
-      <c r="K152" s="229"/>
-      <c r="L152" s="201"/>
-      <c r="M152" s="201" t="s">
-        <v>118</v>
-      </c>
-      <c r="N152" s="201"/>
-      <c r="O152" s="201"/>
-      <c r="P152" s="203"/>
-      <c r="Q152" s="203"/>
-      <c r="R152" s="203"/>
-      <c r="S152" s="203"/>
-      <c r="T152" s="203"/>
-      <c r="U152" s="203"/>
-      <c r="V152" s="203"/>
-      <c r="W152" s="203"/>
-      <c r="X152" s="230" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y152" s="226" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z152" s="203"/>
-      <c r="AA152" s="203"/>
-      <c r="AB152" s="203"/>
-      <c r="AC152" s="203"/>
-      <c r="AD152" s="203"/>
-      <c r="AE152" s="203"/>
-      <c r="AF152" s="203"/>
-      <c r="AG152" s="203"/>
-      <c r="AH152" s="203"/>
-      <c r="AI152" s="203"/>
-      <c r="AJ152" s="203"/>
-      <c r="AK152" s="203"/>
-      <c r="AL152" s="203"/>
-      <c r="AM152" s="203"/>
-      <c r="AN152" s="203"/>
-      <c r="AO152" s="203"/>
-      <c r="AP152" s="203"/>
-      <c r="AQ152" s="203"/>
-      <c r="AR152" s="203"/>
-      <c r="AS152" s="203"/>
-      <c r="AT152" s="204"/>
+      <c r="AT152" s="24"/>
       <c r="AV152" s="19"/>
       <c r="AW152" s="20"/>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="17"/>
-      <c r="D153" s="223"/>
-      <c r="E153" s="223"/>
-      <c r="F153" s="223"/>
-      <c r="G153" s="223"/>
-      <c r="H153" s="223"/>
-      <c r="I153" s="223"/>
-      <c r="J153" s="223"/>
-      <c r="K153" s="231"/>
-      <c r="L153" s="232"/>
-      <c r="M153" s="232" t="s">
-        <v>119</v>
-      </c>
-      <c r="N153" s="232"/>
-      <c r="O153" s="232"/>
-      <c r="P153" s="233"/>
-      <c r="Q153" s="233"/>
-      <c r="R153" s="233"/>
-      <c r="S153" s="233"/>
-      <c r="T153" s="233"/>
-      <c r="U153" s="233"/>
-      <c r="V153" s="233"/>
-      <c r="W153" s="233"/>
-      <c r="X153" s="234" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y153" s="226" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z153" s="233"/>
-      <c r="AA153" s="233"/>
-      <c r="AB153" s="233"/>
-      <c r="AC153" s="233"/>
-      <c r="AD153" s="233"/>
-      <c r="AE153" s="233"/>
-      <c r="AF153" s="233"/>
-      <c r="AG153" s="233"/>
-      <c r="AH153" s="233"/>
-      <c r="AI153" s="233"/>
-      <c r="AJ153" s="233"/>
-      <c r="AK153" s="233"/>
-      <c r="AL153" s="233"/>
-      <c r="AM153" s="233"/>
-      <c r="AN153" s="233"/>
-      <c r="AO153" s="233"/>
-      <c r="AP153" s="233"/>
-      <c r="AQ153" s="233"/>
-      <c r="AR153" s="233"/>
-      <c r="AS153" s="233"/>
-      <c r="AT153" s="235"/>
+      <c r="D153" s="178"/>
+      <c r="E153" s="224"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="24"/>
+      <c r="H153" s="24"/>
+      <c r="I153" s="24"/>
+      <c r="J153" s="24"/>
+      <c r="K153" s="24"/>
+      <c r="L153" s="24"/>
+      <c r="M153" s="24"/>
+      <c r="N153" s="24"/>
+      <c r="O153" s="24"/>
+      <c r="P153" s="24"/>
+      <c r="Q153" s="24"/>
+      <c r="R153" s="24"/>
+      <c r="S153" s="24"/>
+      <c r="T153" s="24"/>
+      <c r="U153" s="24"/>
+      <c r="V153" s="24"/>
+      <c r="W153" s="24"/>
+      <c r="X153" s="24"/>
+      <c r="Y153" s="24"/>
+      <c r="Z153" s="24"/>
+      <c r="AA153" s="24"/>
+      <c r="AB153" s="24"/>
+      <c r="AC153" s="24"/>
+      <c r="AD153" s="24"/>
+      <c r="AF153" s="24"/>
+      <c r="AG153" s="24"/>
+      <c r="AH153" s="24"/>
+      <c r="AI153" s="24"/>
+      <c r="AJ153" s="24"/>
+      <c r="AK153" s="24"/>
+      <c r="AL153" s="24"/>
+      <c r="AM153" s="24"/>
+      <c r="AN153" s="24"/>
+      <c r="AO153" s="24"/>
+      <c r="AP153" s="24"/>
+      <c r="AQ153" s="24"/>
+      <c r="AR153" s="24"/>
+      <c r="AS153" s="24"/>
+      <c r="AT153" s="24"/>
       <c r="AV153" s="19"/>
       <c r="AW153" s="20"/>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="17"/>
-      <c r="AT154" s="24"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="178"/>
+      <c r="E154" s="225" t="s">
+        <v>123</v>
+      </c>
+      <c r="F154" s="226"/>
+      <c r="G154" s="226"/>
+      <c r="H154" s="227"/>
+      <c r="I154" s="205" t="s">
+        <v>124</v>
+      </c>
+      <c r="J154" s="206"/>
+      <c r="K154" s="206"/>
+      <c r="L154" s="206"/>
+      <c r="M154" s="206"/>
+      <c r="N154" s="206"/>
+      <c r="O154" s="206"/>
+      <c r="P154" s="206"/>
+      <c r="Q154" s="206"/>
+      <c r="R154" s="206"/>
+      <c r="S154" s="206"/>
+      <c r="T154" s="206"/>
+      <c r="U154" s="206"/>
+      <c r="V154" s="206"/>
+      <c r="W154" s="206"/>
+      <c r="X154" s="206"/>
+      <c r="Y154" s="206"/>
+      <c r="Z154" s="206"/>
+      <c r="AA154" s="206"/>
+      <c r="AB154" s="206"/>
+      <c r="AC154" s="206"/>
+      <c r="AD154" s="206"/>
+      <c r="AE154" s="206"/>
+      <c r="AF154" s="206"/>
+      <c r="AG154" s="206"/>
+      <c r="AH154" s="206"/>
+      <c r="AI154" s="207"/>
+      <c r="AJ154" s="205" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK154" s="206"/>
+      <c r="AL154" s="206"/>
+      <c r="AM154" s="206"/>
+      <c r="AN154" s="206"/>
+      <c r="AO154" s="206"/>
+      <c r="AP154" s="206"/>
+      <c r="AQ154" s="206"/>
+      <c r="AR154" s="206"/>
+      <c r="AS154" s="206"/>
+      <c r="AT154" s="207"/>
       <c r="AV154" s="19"/>
       <c r="AW154" s="20"/>
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="17"/>
-      <c r="AT155" s="24"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="178"/>
+      <c r="D155" s="178"/>
+      <c r="F155" s="228" t="s">
+        <v>126</v>
+      </c>
+      <c r="G155" s="229"/>
+      <c r="H155" s="230"/>
+      <c r="I155" s="231" t="s">
+        <v>127</v>
+      </c>
+      <c r="J155" s="232"/>
+      <c r="K155" s="232"/>
+      <c r="L155" s="232"/>
+      <c r="M155" s="232"/>
+      <c r="N155" s="232"/>
+      <c r="O155" s="232"/>
+      <c r="P155" s="232"/>
+      <c r="Q155" s="232"/>
+      <c r="R155" s="232"/>
+      <c r="S155" s="232"/>
+      <c r="T155" s="232"/>
+      <c r="U155" s="232"/>
+      <c r="V155" s="232"/>
+      <c r="W155" s="232"/>
+      <c r="X155" s="232"/>
+      <c r="Y155" s="232"/>
+      <c r="Z155" s="232"/>
+      <c r="AA155" s="232"/>
+      <c r="AB155" s="232"/>
+      <c r="AC155" s="232"/>
+      <c r="AD155" s="232"/>
+      <c r="AE155" s="233"/>
+      <c r="AF155" s="232"/>
+      <c r="AG155" s="232"/>
+      <c r="AH155" s="232"/>
+      <c r="AI155" s="234"/>
+      <c r="AJ155" s="235" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK155" s="232"/>
+      <c r="AL155" s="232"/>
+      <c r="AM155" s="232"/>
+      <c r="AN155" s="232"/>
+      <c r="AO155" s="232"/>
+      <c r="AP155" s="232"/>
+      <c r="AQ155" s="232"/>
+      <c r="AR155" s="232"/>
+      <c r="AS155" s="232"/>
+      <c r="AT155" s="234"/>
       <c r="AV155" s="19"/>
       <c r="AW155" s="20"/>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="17"/>
-      <c r="D156" s="182"/>
-      <c r="E156" s="236"/>
-      <c r="F156" s="24"/>
-      <c r="G156" s="24"/>
-      <c r="H156" s="24"/>
-      <c r="I156" s="24"/>
-      <c r="J156" s="24"/>
-      <c r="K156" s="24"/>
-      <c r="L156" s="24"/>
-      <c r="M156" s="24"/>
-      <c r="N156" s="24"/>
-      <c r="O156" s="24"/>
-      <c r="P156" s="24"/>
-      <c r="Q156" s="24"/>
-      <c r="R156" s="24"/>
-      <c r="S156" s="24"/>
-      <c r="T156" s="24"/>
-      <c r="U156" s="24"/>
-      <c r="V156" s="24"/>
-      <c r="W156" s="24"/>
-      <c r="X156" s="24"/>
-      <c r="Y156" s="24"/>
-      <c r="Z156" s="24"/>
-      <c r="AA156" s="24"/>
-      <c r="AB156" s="24"/>
-      <c r="AC156" s="24"/>
-      <c r="AD156" s="24"/>
-      <c r="AF156" s="24"/>
-      <c r="AG156" s="24"/>
-      <c r="AH156" s="24"/>
-      <c r="AI156" s="24"/>
-      <c r="AJ156" s="24"/>
-      <c r="AK156" s="24"/>
-      <c r="AL156" s="24"/>
-      <c r="AM156" s="24"/>
-      <c r="AN156" s="24"/>
-      <c r="AO156" s="24"/>
-      <c r="AP156" s="24"/>
-      <c r="AQ156" s="24"/>
-      <c r="AR156" s="24"/>
-      <c r="AS156" s="24"/>
-      <c r="AT156" s="24"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="178"/>
+      <c r="D156" s="178"/>
+      <c r="E156" s="236" t="s">
+        <v>129</v>
+      </c>
+      <c r="F156" s="237"/>
+      <c r="G156" s="237"/>
+      <c r="H156" s="238"/>
+      <c r="I156" s="239" t="s">
+        <v>130</v>
+      </c>
+      <c r="J156" s="240"/>
+      <c r="K156" s="240"/>
+      <c r="L156" s="240"/>
+      <c r="M156" s="240"/>
+      <c r="N156" s="240"/>
+      <c r="O156" s="240"/>
+      <c r="P156" s="240"/>
+      <c r="Q156" s="240"/>
+      <c r="R156" s="240"/>
+      <c r="S156" s="240"/>
+      <c r="T156" s="240"/>
+      <c r="U156" s="240"/>
+      <c r="V156" s="240"/>
+      <c r="W156" s="240"/>
+      <c r="X156" s="240"/>
+      <c r="Y156" s="240"/>
+      <c r="Z156" s="240"/>
+      <c r="AA156" s="240"/>
+      <c r="AB156" s="240"/>
+      <c r="AC156" s="240"/>
+      <c r="AD156" s="240"/>
+      <c r="AE156" s="241"/>
+      <c r="AF156" s="240"/>
+      <c r="AG156" s="240"/>
+      <c r="AH156" s="240"/>
+      <c r="AI156" s="242"/>
+      <c r="AJ156" s="243" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK156" s="240"/>
+      <c r="AL156" s="240"/>
+      <c r="AM156" s="240"/>
+      <c r="AN156" s="240"/>
+      <c r="AO156" s="240"/>
+      <c r="AP156" s="240"/>
+      <c r="AQ156" s="240"/>
+      <c r="AR156" s="240"/>
+      <c r="AS156" s="240"/>
+      <c r="AT156" s="242"/>
       <c r="AV156" s="19"/>
       <c r="AW156" s="20"/>
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="17"/>
       <c r="B157" s="9"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="182"/>
-      <c r="E157" s="237" t="s">
-        <v>120</v>
-      </c>
-      <c r="F157" s="238"/>
-      <c r="G157" s="238"/>
-      <c r="H157" s="239"/>
-      <c r="I157" s="217" t="s">
-        <v>121</v>
-      </c>
-      <c r="J157" s="218"/>
-      <c r="K157" s="218"/>
-      <c r="L157" s="218"/>
-      <c r="M157" s="218"/>
-      <c r="N157" s="218"/>
-      <c r="O157" s="218"/>
-      <c r="P157" s="218"/>
-      <c r="Q157" s="218"/>
-      <c r="R157" s="218"/>
-      <c r="S157" s="218"/>
-      <c r="T157" s="218"/>
-      <c r="U157" s="218"/>
-      <c r="V157" s="218"/>
-      <c r="W157" s="218"/>
-      <c r="X157" s="218"/>
-      <c r="Y157" s="218"/>
-      <c r="Z157" s="218"/>
-      <c r="AA157" s="218"/>
-      <c r="AB157" s="218"/>
-      <c r="AC157" s="218"/>
-      <c r="AD157" s="218"/>
-      <c r="AE157" s="218"/>
-      <c r="AF157" s="218"/>
-      <c r="AG157" s="218"/>
-      <c r="AH157" s="218"/>
-      <c r="AI157" s="219"/>
-      <c r="AJ157" s="217" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK157" s="218"/>
-      <c r="AL157" s="218"/>
-      <c r="AM157" s="218"/>
-      <c r="AN157" s="218"/>
-      <c r="AO157" s="218"/>
-      <c r="AP157" s="218"/>
-      <c r="AQ157" s="218"/>
-      <c r="AR157" s="218"/>
-      <c r="AS157" s="218"/>
-      <c r="AT157" s="219"/>
+      <c r="D157" s="178"/>
+      <c r="E157" s="24"/>
+      <c r="F157" s="24"/>
+      <c r="G157" s="24"/>
+      <c r="H157" s="24"/>
+      <c r="I157" s="24"/>
+      <c r="J157" s="24"/>
+      <c r="K157" s="24"/>
+      <c r="L157" s="24"/>
+      <c r="M157" s="24"/>
+      <c r="N157" s="24"/>
+      <c r="O157" s="24"/>
+      <c r="P157" s="24"/>
+      <c r="Q157" s="24"/>
+      <c r="R157" s="24"/>
+      <c r="S157" s="24"/>
+      <c r="T157" s="24"/>
+      <c r="U157" s="24"/>
+      <c r="V157" s="24"/>
+      <c r="W157" s="24"/>
+      <c r="X157" s="24"/>
+      <c r="Y157" s="24"/>
+      <c r="Z157" s="24"/>
+      <c r="AA157" s="24"/>
+      <c r="AB157" s="24"/>
+      <c r="AC157" s="24"/>
+      <c r="AD157" s="24"/>
+      <c r="AF157" s="24"/>
+      <c r="AG157" s="24"/>
+      <c r="AH157" s="24"/>
+      <c r="AI157" s="24"/>
+      <c r="AJ157" s="190"/>
+      <c r="AK157" s="24"/>
+      <c r="AL157" s="24"/>
+      <c r="AM157" s="24"/>
+      <c r="AN157" s="24"/>
+      <c r="AO157" s="24"/>
+      <c r="AP157" s="24"/>
+      <c r="AQ157" s="24"/>
+      <c r="AR157" s="24"/>
+      <c r="AS157" s="24"/>
+      <c r="AT157" s="24"/>
       <c r="AV157" s="19"/>
       <c r="AW157" s="20"/>
     </row>
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="17"/>
       <c r="B158" s="9"/>
-      <c r="C158" s="182"/>
-      <c r="D158" s="182"/>
-      <c r="F158" s="240" t="s">
-        <v>123</v>
-      </c>
-      <c r="G158" s="241"/>
-      <c r="H158" s="242"/>
-      <c r="I158" s="243" t="s">
-        <v>124</v>
-      </c>
-      <c r="J158" s="244"/>
-      <c r="K158" s="244"/>
-      <c r="L158" s="244"/>
-      <c r="M158" s="244"/>
-      <c r="N158" s="244"/>
-      <c r="O158" s="244"/>
-      <c r="P158" s="244"/>
-      <c r="Q158" s="244"/>
-      <c r="R158" s="244"/>
-      <c r="S158" s="244"/>
-      <c r="T158" s="244"/>
-      <c r="U158" s="244"/>
-      <c r="V158" s="244"/>
-      <c r="W158" s="244"/>
-      <c r="X158" s="244"/>
-      <c r="Y158" s="244"/>
-      <c r="Z158" s="244"/>
-      <c r="AA158" s="244"/>
-      <c r="AB158" s="244"/>
-      <c r="AC158" s="244"/>
-      <c r="AD158" s="244"/>
-      <c r="AE158" s="245"/>
-      <c r="AF158" s="244"/>
-      <c r="AG158" s="244"/>
-      <c r="AH158" s="244"/>
-      <c r="AI158" s="246"/>
-      <c r="AJ158" s="247" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK158" s="244"/>
-      <c r="AL158" s="244"/>
-      <c r="AM158" s="244"/>
-      <c r="AN158" s="244"/>
-      <c r="AO158" s="244"/>
-      <c r="AP158" s="244"/>
-      <c r="AQ158" s="244"/>
-      <c r="AR158" s="244"/>
-      <c r="AS158" s="244"/>
-      <c r="AT158" s="246"/>
+      <c r="D158" s="178"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="24"/>
+      <c r="G158" s="24"/>
+      <c r="H158" s="24"/>
+      <c r="I158" s="24"/>
+      <c r="J158" s="24"/>
+      <c r="K158" s="24"/>
+      <c r="L158" s="24"/>
+      <c r="M158" s="24"/>
+      <c r="N158" s="24"/>
+      <c r="O158" s="24"/>
+      <c r="P158" s="24"/>
+      <c r="Q158" s="24"/>
+      <c r="R158" s="24"/>
+      <c r="S158" s="24"/>
+      <c r="T158" s="24"/>
+      <c r="U158" s="24"/>
+      <c r="V158" s="24"/>
+      <c r="W158" s="24"/>
+      <c r="X158" s="24"/>
+      <c r="Y158" s="24"/>
+      <c r="Z158" s="24"/>
+      <c r="AA158" s="24"/>
+      <c r="AB158" s="24"/>
+      <c r="AC158" s="24"/>
+      <c r="AD158" s="24"/>
+      <c r="AF158" s="24"/>
+      <c r="AG158" s="24"/>
+      <c r="AH158" s="24"/>
+      <c r="AI158" s="24"/>
+      <c r="AJ158" s="190"/>
+      <c r="AK158" s="24"/>
+      <c r="AL158" s="24"/>
+      <c r="AM158" s="24"/>
+      <c r="AN158" s="24"/>
+      <c r="AO158" s="24"/>
+      <c r="AP158" s="24"/>
+      <c r="AQ158" s="24"/>
+      <c r="AR158" s="24"/>
+      <c r="AS158" s="24"/>
+      <c r="AT158" s="24"/>
       <c r="AV158" s="19"/>
       <c r="AW158" s="20"/>
     </row>
     <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="17"/>
       <c r="B159" s="9"/>
-      <c r="C159" s="182"/>
-      <c r="D159" s="182"/>
-      <c r="E159" s="248" t="s">
-        <v>126</v>
-      </c>
-      <c r="F159" s="249"/>
-      <c r="G159" s="249"/>
-      <c r="H159" s="250"/>
-      <c r="I159" s="251" t="s">
-        <v>127</v>
-      </c>
-      <c r="J159" s="252"/>
-      <c r="K159" s="252"/>
-      <c r="L159" s="252"/>
-      <c r="M159" s="252"/>
-      <c r="N159" s="252"/>
-      <c r="O159" s="252"/>
-      <c r="P159" s="252"/>
-      <c r="Q159" s="252"/>
-      <c r="R159" s="252"/>
-      <c r="S159" s="252"/>
-      <c r="T159" s="252"/>
-      <c r="U159" s="252"/>
-      <c r="V159" s="252"/>
-      <c r="W159" s="252"/>
-      <c r="X159" s="252"/>
-      <c r="Y159" s="252"/>
-      <c r="Z159" s="252"/>
-      <c r="AA159" s="252"/>
-      <c r="AB159" s="252"/>
-      <c r="AC159" s="252"/>
-      <c r="AD159" s="252"/>
-      <c r="AE159" s="253"/>
-      <c r="AF159" s="252"/>
-      <c r="AG159" s="252"/>
-      <c r="AH159" s="252"/>
-      <c r="AI159" s="254"/>
-      <c r="AJ159" s="255" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK159" s="252"/>
-      <c r="AL159" s="252"/>
-      <c r="AM159" s="252"/>
-      <c r="AN159" s="252"/>
-      <c r="AO159" s="252"/>
-      <c r="AP159" s="252"/>
-      <c r="AQ159" s="252"/>
-      <c r="AR159" s="252"/>
-      <c r="AS159" s="252"/>
-      <c r="AT159" s="254"/>
+      <c r="D159" s="178" t="s">
+        <v>132</v>
+      </c>
+      <c r="E159" s="24"/>
+      <c r="F159" s="24"/>
+      <c r="G159" s="24"/>
+      <c r="H159" s="24"/>
+      <c r="I159" s="24"/>
+      <c r="J159" s="24"/>
+      <c r="K159" s="24"/>
+      <c r="L159" s="24"/>
+      <c r="M159" s="24"/>
+      <c r="N159" s="24"/>
+      <c r="O159" s="24"/>
+      <c r="P159" s="24"/>
+      <c r="Q159" s="24"/>
+      <c r="R159" s="24"/>
+      <c r="S159" s="24"/>
+      <c r="T159" s="24"/>
+      <c r="U159" s="24"/>
+      <c r="V159" s="24"/>
+      <c r="W159" s="24"/>
+      <c r="X159" s="24"/>
+      <c r="Y159" s="24"/>
+      <c r="Z159" s="24"/>
+      <c r="AA159" s="24"/>
+      <c r="AB159" s="24"/>
+      <c r="AC159" s="24"/>
+      <c r="AD159" s="24"/>
+      <c r="AF159" s="24"/>
+      <c r="AG159" s="24"/>
+      <c r="AH159" s="24"/>
+      <c r="AI159" s="24"/>
+      <c r="AJ159" s="190"/>
+      <c r="AK159" s="24"/>
+      <c r="AL159" s="24"/>
+      <c r="AM159" s="24"/>
+      <c r="AN159" s="24"/>
+      <c r="AO159" s="24"/>
+      <c r="AP159" s="24"/>
+      <c r="AQ159" s="24"/>
+      <c r="AR159" s="24"/>
+      <c r="AS159" s="24"/>
+      <c r="AT159" s="24"/>
       <c r="AV159" s="19"/>
       <c r="AW159" s="20"/>
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="17"/>
       <c r="B160" s="9"/>
-      <c r="D160" s="182"/>
+      <c r="D160" s="178"/>
       <c r="E160" s="24"/>
       <c r="F160" s="24"/>
       <c r="G160" s="24"/>
@@ -16909,7 +16880,7 @@
       <c r="AG160" s="24"/>
       <c r="AH160" s="24"/>
       <c r="AI160" s="24"/>
-      <c r="AJ160" s="194"/>
+      <c r="AJ160" s="190"/>
       <c r="AK160" s="24"/>
       <c r="AL160" s="24"/>
       <c r="AM160" s="24"/>
@@ -16920,13 +16891,12 @@
       <c r="AR160" s="24"/>
       <c r="AS160" s="24"/>
       <c r="AT160" s="24"/>
-      <c r="AV160" s="19"/>
       <c r="AW160" s="20"/>
     </row>
     <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="17"/>
       <c r="B161" s="9"/>
-      <c r="D161" s="182"/>
+      <c r="D161" s="178"/>
       <c r="E161" s="24"/>
       <c r="F161" s="24"/>
       <c r="G161" s="24"/>
@@ -16957,7 +16927,7 @@
       <c r="AG161" s="24"/>
       <c r="AH161" s="24"/>
       <c r="AI161" s="24"/>
-      <c r="AJ161" s="194"/>
+      <c r="AJ161" s="190"/>
       <c r="AK161" s="24"/>
       <c r="AL161" s="24"/>
       <c r="AM161" s="24"/>
@@ -16968,172 +16938,30 @@
       <c r="AR161" s="24"/>
       <c r="AS161" s="24"/>
       <c r="AT161" s="24"/>
-      <c r="AV161" s="19"/>
       <c r="AW161" s="20"/>
     </row>
     <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="17"/>
-      <c r="B162" s="9"/>
-      <c r="D162" s="182" t="s">
-        <v>129</v>
-      </c>
-      <c r="E162" s="24"/>
-      <c r="F162" s="24"/>
-      <c r="G162" s="24"/>
-      <c r="H162" s="24"/>
-      <c r="I162" s="24"/>
-      <c r="J162" s="24"/>
-      <c r="K162" s="24"/>
-      <c r="L162" s="24"/>
-      <c r="M162" s="24"/>
-      <c r="N162" s="24"/>
-      <c r="O162" s="24"/>
-      <c r="P162" s="24"/>
-      <c r="Q162" s="24"/>
-      <c r="R162" s="24"/>
-      <c r="S162" s="24"/>
-      <c r="T162" s="24"/>
-      <c r="U162" s="24"/>
-      <c r="V162" s="24"/>
-      <c r="W162" s="24"/>
-      <c r="X162" s="24"/>
-      <c r="Y162" s="24"/>
-      <c r="Z162" s="24"/>
-      <c r="AA162" s="24"/>
-      <c r="AB162" s="24"/>
-      <c r="AC162" s="24"/>
-      <c r="AD162" s="24"/>
-      <c r="AF162" s="24"/>
-      <c r="AG162" s="24"/>
-      <c r="AH162" s="24"/>
-      <c r="AI162" s="24"/>
-      <c r="AJ162" s="194"/>
-      <c r="AK162" s="24"/>
-      <c r="AL162" s="24"/>
-      <c r="AM162" s="24"/>
-      <c r="AN162" s="24"/>
-      <c r="AO162" s="24"/>
-      <c r="AP162" s="24"/>
-      <c r="AQ162" s="24"/>
-      <c r="AR162" s="24"/>
-      <c r="AS162" s="24"/>
-      <c r="AT162" s="24"/>
-      <c r="AV162" s="19"/>
-      <c r="AW162" s="20"/>
+      <c r="A162" s="25"/>
+      <c r="AW162" s="27"/>
     </row>
     <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="17"/>
       <c r="B163" s="9"/>
-      <c r="D163" s="182"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="24"/>
-      <c r="G163" s="24"/>
-      <c r="H163" s="24"/>
-      <c r="I163" s="24"/>
-      <c r="J163" s="24"/>
-      <c r="K163" s="24"/>
-      <c r="L163" s="24"/>
-      <c r="M163" s="24"/>
-      <c r="N163" s="24"/>
-      <c r="O163" s="24"/>
-      <c r="P163" s="24"/>
-      <c r="Q163" s="24"/>
-      <c r="R163" s="24"/>
-      <c r="S163" s="24"/>
-      <c r="T163" s="24"/>
-      <c r="U163" s="24"/>
-      <c r="V163" s="24"/>
-      <c r="W163" s="24"/>
-      <c r="X163" s="24"/>
-      <c r="Y163" s="24"/>
-      <c r="Z163" s="24"/>
-      <c r="AA163" s="24"/>
-      <c r="AB163" s="24"/>
-      <c r="AC163" s="24"/>
-      <c r="AD163" s="24"/>
-      <c r="AF163" s="24"/>
-      <c r="AG163" s="24"/>
-      <c r="AH163" s="24"/>
-      <c r="AI163" s="24"/>
-      <c r="AJ163" s="194"/>
-      <c r="AK163" s="24"/>
-      <c r="AL163" s="24"/>
-      <c r="AM163" s="24"/>
-      <c r="AN163" s="24"/>
-      <c r="AO163" s="24"/>
-      <c r="AP163" s="24"/>
-      <c r="AQ163" s="24"/>
-      <c r="AR163" s="24"/>
-      <c r="AS163" s="24"/>
-      <c r="AT163" s="24"/>
-      <c r="AW163" s="20"/>
+      <c r="AX163" s="1"/>
     </row>
     <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="17"/>
       <c r="B164" s="9"/>
-      <c r="D164" s="182"/>
-      <c r="E164" s="24"/>
-      <c r="F164" s="24"/>
-      <c r="G164" s="24"/>
-      <c r="H164" s="24"/>
-      <c r="I164" s="24"/>
-      <c r="J164" s="24"/>
-      <c r="K164" s="24"/>
-      <c r="L164" s="24"/>
-      <c r="M164" s="24"/>
-      <c r="N164" s="24"/>
-      <c r="O164" s="24"/>
-      <c r="P164" s="24"/>
-      <c r="Q164" s="24"/>
-      <c r="R164" s="24"/>
-      <c r="S164" s="24"/>
-      <c r="T164" s="24"/>
-      <c r="U164" s="24"/>
-      <c r="V164" s="24"/>
-      <c r="W164" s="24"/>
-      <c r="X164" s="24"/>
-      <c r="Y164" s="24"/>
-      <c r="Z164" s="24"/>
-      <c r="AA164" s="24"/>
-      <c r="AB164" s="24"/>
-      <c r="AC164" s="24"/>
-      <c r="AD164" s="24"/>
-      <c r="AF164" s="24"/>
-      <c r="AG164" s="24"/>
-      <c r="AH164" s="24"/>
-      <c r="AI164" s="24"/>
-      <c r="AJ164" s="194"/>
-      <c r="AK164" s="24"/>
-      <c r="AL164" s="24"/>
-      <c r="AM164" s="24"/>
-      <c r="AN164" s="24"/>
-      <c r="AO164" s="24"/>
-      <c r="AP164" s="24"/>
-      <c r="AQ164" s="24"/>
-      <c r="AR164" s="24"/>
-      <c r="AS164" s="24"/>
-      <c r="AT164" s="24"/>
-      <c r="AW164" s="20"/>
     </row>
     <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="25"/>
-      <c r="AW165" s="27"/>
-    </row>
-    <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B166" s="9"/>
-      <c r="AX166" s="1"/>
-    </row>
-    <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B167" s="9"/>
-    </row>
-    <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B168" s="9"/>
-    </row>
+      <c r="B165" s="9"/>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="100">
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="J1:O3"/>
     <mergeCell ref="P1:U3"/>
@@ -17183,54 +17011,57 @@
     <mergeCell ref="D52:M52"/>
     <mergeCell ref="N52:W52"/>
     <mergeCell ref="X52:AV52"/>
-    <mergeCell ref="A75:I77"/>
-    <mergeCell ref="J75:O77"/>
-    <mergeCell ref="P75:U77"/>
-    <mergeCell ref="V75:Z76"/>
-    <mergeCell ref="AA75:AL76"/>
+    <mergeCell ref="D58:M58"/>
+    <mergeCell ref="N58:W58"/>
+    <mergeCell ref="X58:AV58"/>
+    <mergeCell ref="A74:I76"/>
+    <mergeCell ref="J74:O76"/>
+    <mergeCell ref="P74:U76"/>
+    <mergeCell ref="V74:Z75"/>
+    <mergeCell ref="AA74:AL75"/>
+    <mergeCell ref="AM74:AN74"/>
+    <mergeCell ref="AO74:AQ74"/>
+    <mergeCell ref="AR74:AS74"/>
+    <mergeCell ref="AT74:AW74"/>
     <mergeCell ref="AM75:AN75"/>
     <mergeCell ref="AO75:AQ75"/>
     <mergeCell ref="AR75:AS75"/>
     <mergeCell ref="AT75:AW75"/>
-    <mergeCell ref="AM76:AN76"/>
-    <mergeCell ref="AO76:AQ76"/>
-    <mergeCell ref="AR76:AS76"/>
-    <mergeCell ref="AT76:AW76"/>
-    <mergeCell ref="V77:Z77"/>
-    <mergeCell ref="AA77:AG77"/>
-    <mergeCell ref="AH77:AL77"/>
-    <mergeCell ref="AM77:AW77"/>
-    <mergeCell ref="A115:I117"/>
-    <mergeCell ref="J115:O117"/>
-    <mergeCell ref="P115:U117"/>
-    <mergeCell ref="V115:Z116"/>
-    <mergeCell ref="AA115:AL116"/>
+    <mergeCell ref="V76:Z76"/>
+    <mergeCell ref="AA76:AG76"/>
+    <mergeCell ref="AH76:AL76"/>
+    <mergeCell ref="AM76:AW76"/>
+    <mergeCell ref="A114:I116"/>
+    <mergeCell ref="J114:O116"/>
+    <mergeCell ref="P114:U116"/>
+    <mergeCell ref="V114:Z115"/>
+    <mergeCell ref="AA114:AL115"/>
+    <mergeCell ref="AM114:AN114"/>
+    <mergeCell ref="AO114:AQ114"/>
+    <mergeCell ref="AR114:AS114"/>
+    <mergeCell ref="AT114:AW114"/>
     <mergeCell ref="AM115:AN115"/>
     <mergeCell ref="AO115:AQ115"/>
     <mergeCell ref="AR115:AS115"/>
     <mergeCell ref="AT115:AW115"/>
-    <mergeCell ref="AM116:AN116"/>
-    <mergeCell ref="AO116:AQ116"/>
-    <mergeCell ref="AR116:AS116"/>
-    <mergeCell ref="AT116:AW116"/>
-    <mergeCell ref="V117:Z117"/>
-    <mergeCell ref="AA117:AG117"/>
-    <mergeCell ref="AH117:AL117"/>
-    <mergeCell ref="AM117:AW117"/>
-    <mergeCell ref="F124:M124"/>
-    <mergeCell ref="N124:AC124"/>
-    <mergeCell ref="AD124:AK124"/>
-    <mergeCell ref="AL124:AN124"/>
-    <mergeCell ref="AO124:AU124"/>
-    <mergeCell ref="F131:M131"/>
-    <mergeCell ref="N131:AC131"/>
-    <mergeCell ref="AD131:AK131"/>
-    <mergeCell ref="AL131:AN131"/>
-    <mergeCell ref="AO131:AU131"/>
-    <mergeCell ref="F139:M139"/>
-    <mergeCell ref="N139:AI139"/>
-    <mergeCell ref="AJ139:AU139"/>
-    <mergeCell ref="D151:J153"/>
+    <mergeCell ref="V116:Z116"/>
+    <mergeCell ref="AA116:AG116"/>
+    <mergeCell ref="AH116:AL116"/>
+    <mergeCell ref="AM116:AW116"/>
+    <mergeCell ref="F123:M123"/>
+    <mergeCell ref="N123:AC123"/>
+    <mergeCell ref="AD123:AK123"/>
+    <mergeCell ref="AL123:AN123"/>
+    <mergeCell ref="AO123:AU123"/>
+    <mergeCell ref="F130:M130"/>
+    <mergeCell ref="N130:AC130"/>
+    <mergeCell ref="AD130:AK130"/>
+    <mergeCell ref="AL130:AN130"/>
+    <mergeCell ref="AO130:AU130"/>
+    <mergeCell ref="F138:M138"/>
+    <mergeCell ref="N138:AI138"/>
+    <mergeCell ref="AJ138:AU138"/>
+    <mergeCell ref="D148:J150"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/design/chitiet/Register.xlsx
+++ b/design/chitiet/Register.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bìa" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="125">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -322,19 +322,16 @@
     <t xml:space="preserve">Ghi chú</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">User</t>
   </si>
   <si>
-    <t xml:space="preserve">Table quản lý user</t>
+    <t xml:space="preserve">Table user </t>
   </si>
   <si>
-    <t xml:space="preserve">O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserRole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table quản lý role của user</t>
+    <t xml:space="preserve">In</t>
   </si>
   <si>
     <t xml:space="preserve">Tú</t>
@@ -377,9 +374,6 @@
   </si>
   <si>
     <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In</t>
   </si>
   <si>
     <t xml:space="preserve">input </t>
@@ -937,13 +931,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right/>
       <top style="thin"/>
       <bottom style="hair"/>
@@ -959,6 +946,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="hair"/>
       <diagonal/>
@@ -1148,7 +1142,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="216">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1461,14 +1455,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1481,10 +1475,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1597,23 +1587,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="27" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="26" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="27" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="26" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="29" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="25" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="26" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="29" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1621,7 +1611,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1725,15 +1715,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1793,42 +1783,42 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="45" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1977,15 +1967,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2103,9 +2093,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>36720</xdr:colOff>
+      <xdr:colOff>36360</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2119,7 +2109,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3453840" y="22755240"/>
-          <a:ext cx="676080" cy="970200"/>
+          <a:ext cx="675720" cy="969840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2140,9 +2130,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>143280</xdr:colOff>
+      <xdr:colOff>142920</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2152,7 +2142,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2542680" y="24246720"/>
-          <a:ext cx="949680" cy="646200"/>
+          <a:ext cx="949320" cy="645840"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2207,13 +2197,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>42840</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>69840</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2222,8 +2212,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3019680" y="23726160"/>
-          <a:ext cx="771120" cy="518400"/>
+          <a:off x="3019680" y="23725440"/>
+          <a:ext cx="770760" cy="518040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2268,9 +2258,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>122400</xdr:colOff>
+      <xdr:colOff>122040</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2280,7 +2270,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2365920" y="22507560"/>
-          <a:ext cx="2779920" cy="2608560"/>
+          <a:ext cx="2779560" cy="2608200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2312,9 +2302,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>74880</xdr:colOff>
+      <xdr:colOff>74520</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2324,7 +2314,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3165480" y="22231440"/>
-          <a:ext cx="1188720" cy="427320"/>
+          <a:ext cx="1188360" cy="426960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2382,9 +2372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
+      <xdr:colOff>64800</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2394,7 +2384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="372240" y="23184000"/>
-          <a:ext cx="995400" cy="398520"/>
+          <a:ext cx="995040" cy="398160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2556,9 +2546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>179280</xdr:colOff>
+      <xdr:colOff>178920</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2568,7 +2558,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6335280" y="23621760"/>
-          <a:ext cx="914040" cy="398880"/>
+          <a:ext cx="913680" cy="398520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2624,9 +2614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>84240</xdr:colOff>
+      <xdr:colOff>83880</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2640,7 +2630,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6478200" y="22755240"/>
-          <a:ext cx="676080" cy="970200"/>
+          <a:ext cx="675720" cy="969840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2650,191 +2640,6 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>42120</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3018960" y="23726880"/>
-          <a:ext cx="771120" cy="518400"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>106560</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>126000</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4013640" y="24279120"/>
-          <a:ext cx="949680" cy="646200"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 25000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="27360" rIns="27360" tIns="18360" bIns="18360" anchor="ctr" upright="1">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>UserRole</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>71280</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>16560</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3792240" y="23726880"/>
-          <a:ext cx="689760" cy="512640"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2851,19 +2656,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>93960</xdr:colOff>
+      <xdr:colOff>93600</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 1"/>
+        <xdr:cNvPr id="10" name="Rectangle 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1814400" y="1457280"/>
-          <a:ext cx="4816800" cy="417960"/>
+          <a:off x="1813680" y="1457280"/>
+          <a:ext cx="4816440" cy="417600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2899,13 +2704,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 1" descr=""/>
+        <xdr:cNvPr id="11" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2915,7 +2720,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="558000" y="1038240"/>
-          <a:ext cx="7885800" cy="3927600"/>
+          <a:ext cx="7885080" cy="3927240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2937,14 +2742,14 @@
   </sheetPr>
   <dimension ref="A1:AX160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO121" activeCellId="0" sqref="AO121"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V148" activeCellId="0" sqref="V148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="1" style="1" width="2.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="50" style="1" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="50" style="1" width="3.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="60" style="1" width="9"/>
   </cols>
   <sheetData>
@@ -9871,537 +9676,533 @@
       <c r="D147" s="76" t="n">
         <v>1</v>
       </c>
-      <c r="E147" s="77"/>
-      <c r="F147" s="78"/>
-      <c r="G147" s="79" t="s">
+      <c r="E147" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="H147" s="80"/>
-      <c r="I147" s="80"/>
-      <c r="J147" s="80"/>
-      <c r="K147" s="81"/>
-      <c r="L147" s="82" t="s">
+      <c r="F147" s="77"/>
+      <c r="G147" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="M147" s="80"/>
-      <c r="N147" s="80"/>
-      <c r="O147" s="80"/>
-      <c r="P147" s="80"/>
-      <c r="Q147" s="80"/>
-      <c r="R147" s="80"/>
-      <c r="S147" s="80"/>
-      <c r="T147" s="80"/>
-      <c r="U147" s="83"/>
+      <c r="H147" s="79"/>
+      <c r="I147" s="79"/>
+      <c r="J147" s="79"/>
+      <c r="K147" s="80"/>
+      <c r="L147" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="M147" s="79"/>
+      <c r="N147" s="79"/>
+      <c r="O147" s="79"/>
+      <c r="P147" s="79"/>
+      <c r="Q147" s="79"/>
+      <c r="R147" s="79"/>
+      <c r="S147" s="79"/>
+      <c r="T147" s="79"/>
+      <c r="U147" s="82"/>
       <c r="V147" s="76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W147" s="76"/>
-      <c r="X147" s="79"/>
-      <c r="Y147" s="80"/>
-      <c r="Z147" s="80"/>
-      <c r="AA147" s="80"/>
-      <c r="AB147" s="80"/>
-      <c r="AC147" s="80"/>
-      <c r="AD147" s="80"/>
-      <c r="AE147" s="80"/>
-      <c r="AF147" s="80"/>
-      <c r="AG147" s="80"/>
-      <c r="AH147" s="80"/>
-      <c r="AI147" s="80"/>
-      <c r="AJ147" s="80"/>
-      <c r="AK147" s="80"/>
-      <c r="AL147" s="80"/>
-      <c r="AM147" s="80"/>
-      <c r="AN147" s="80"/>
-      <c r="AO147" s="80"/>
-      <c r="AP147" s="80"/>
-      <c r="AQ147" s="80"/>
-      <c r="AR147" s="80"/>
-      <c r="AS147" s="80"/>
-      <c r="AT147" s="80"/>
-      <c r="AU147" s="80"/>
-      <c r="AV147" s="83"/>
+      <c r="X147" s="78"/>
+      <c r="Y147" s="79"/>
+      <c r="Z147" s="79"/>
+      <c r="AA147" s="79"/>
+      <c r="AB147" s="79"/>
+      <c r="AC147" s="79"/>
+      <c r="AD147" s="79"/>
+      <c r="AE147" s="79"/>
+      <c r="AF147" s="79"/>
+      <c r="AG147" s="79"/>
+      <c r="AH147" s="79"/>
+      <c r="AI147" s="79"/>
+      <c r="AJ147" s="79"/>
+      <c r="AK147" s="79"/>
+      <c r="AL147" s="79"/>
+      <c r="AM147" s="79"/>
+      <c r="AN147" s="79"/>
+      <c r="AO147" s="79"/>
+      <c r="AP147" s="79"/>
+      <c r="AQ147" s="79"/>
+      <c r="AR147" s="79"/>
+      <c r="AS147" s="79"/>
+      <c r="AT147" s="79"/>
+      <c r="AU147" s="79"/>
+      <c r="AV147" s="82"/>
       <c r="AW147" s="20"/>
     </row>
     <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="17"/>
       <c r="B148" s="59"/>
       <c r="C148" s="9"/>
-      <c r="D148" s="84" t="n">
+      <c r="D148" s="83" t="n">
         <v>2</v>
       </c>
-      <c r="E148" s="85"/>
-      <c r="F148" s="86"/>
-      <c r="G148" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="H148" s="88"/>
-      <c r="I148" s="88"/>
-      <c r="J148" s="88"/>
-      <c r="K148" s="89"/>
-      <c r="L148" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="M148" s="88"/>
-      <c r="N148" s="88"/>
-      <c r="O148" s="88"/>
-      <c r="P148" s="88"/>
-      <c r="Q148" s="88"/>
-      <c r="R148" s="88"/>
-      <c r="S148" s="88"/>
-      <c r="T148" s="88"/>
-      <c r="U148" s="91"/>
-      <c r="V148" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="W148" s="84"/>
-      <c r="X148" s="87"/>
-      <c r="Y148" s="88"/>
-      <c r="Z148" s="88"/>
-      <c r="AA148" s="88"/>
-      <c r="AB148" s="88"/>
-      <c r="AC148" s="88"/>
-      <c r="AD148" s="88"/>
-      <c r="AE148" s="88"/>
-      <c r="AF148" s="88"/>
-      <c r="AG148" s="88"/>
-      <c r="AH148" s="88"/>
-      <c r="AI148" s="88"/>
-      <c r="AJ148" s="88"/>
-      <c r="AK148" s="88"/>
-      <c r="AL148" s="88"/>
-      <c r="AM148" s="88"/>
-      <c r="AN148" s="88"/>
-      <c r="AO148" s="88"/>
-      <c r="AP148" s="88"/>
-      <c r="AQ148" s="88"/>
-      <c r="AR148" s="88"/>
-      <c r="AS148" s="88"/>
-      <c r="AT148" s="88"/>
-      <c r="AU148" s="88"/>
-      <c r="AV148" s="91"/>
+      <c r="E148" s="84"/>
+      <c r="F148" s="85"/>
+      <c r="G148" s="86"/>
+      <c r="H148" s="87"/>
+      <c r="I148" s="87"/>
+      <c r="J148" s="87"/>
+      <c r="K148" s="88"/>
+      <c r="L148" s="89"/>
+      <c r="M148" s="87"/>
+      <c r="N148" s="87"/>
+      <c r="O148" s="87"/>
+      <c r="P148" s="87"/>
+      <c r="Q148" s="87"/>
+      <c r="R148" s="87"/>
+      <c r="S148" s="87"/>
+      <c r="T148" s="87"/>
+      <c r="U148" s="90"/>
+      <c r="V148" s="83"/>
+      <c r="W148" s="83"/>
+      <c r="X148" s="86"/>
+      <c r="Y148" s="87"/>
+      <c r="Z148" s="87"/>
+      <c r="AA148" s="87"/>
+      <c r="AB148" s="87"/>
+      <c r="AC148" s="87"/>
+      <c r="AD148" s="87"/>
+      <c r="AE148" s="87"/>
+      <c r="AF148" s="87"/>
+      <c r="AG148" s="87"/>
+      <c r="AH148" s="87"/>
+      <c r="AI148" s="87"/>
+      <c r="AJ148" s="87"/>
+      <c r="AK148" s="87"/>
+      <c r="AL148" s="87"/>
+      <c r="AM148" s="87"/>
+      <c r="AN148" s="87"/>
+      <c r="AO148" s="87"/>
+      <c r="AP148" s="87"/>
+      <c r="AQ148" s="87"/>
+      <c r="AR148" s="87"/>
+      <c r="AS148" s="87"/>
+      <c r="AT148" s="87"/>
+      <c r="AU148" s="87"/>
+      <c r="AV148" s="90"/>
       <c r="AW148" s="20"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="17"/>
       <c r="B149" s="59"/>
       <c r="C149" s="9"/>
-      <c r="D149" s="84" t="n">
+      <c r="D149" s="83" t="n">
         <v>4</v>
       </c>
-      <c r="E149" s="85"/>
-      <c r="F149" s="86"/>
-      <c r="G149" s="87"/>
-      <c r="H149" s="88"/>
-      <c r="I149" s="88"/>
-      <c r="J149" s="88"/>
-      <c r="K149" s="89"/>
-      <c r="L149" s="90"/>
-      <c r="M149" s="88"/>
-      <c r="N149" s="88"/>
-      <c r="O149" s="88"/>
-      <c r="P149" s="88"/>
-      <c r="Q149" s="88"/>
-      <c r="R149" s="88"/>
-      <c r="S149" s="88"/>
-      <c r="T149" s="88"/>
-      <c r="U149" s="91"/>
-      <c r="V149" s="85"/>
-      <c r="W149" s="86"/>
-      <c r="X149" s="87"/>
-      <c r="Y149" s="88"/>
-      <c r="Z149" s="88"/>
-      <c r="AA149" s="88"/>
-      <c r="AB149" s="88"/>
-      <c r="AC149" s="88"/>
-      <c r="AD149" s="88"/>
-      <c r="AE149" s="88"/>
-      <c r="AF149" s="88"/>
-      <c r="AG149" s="88"/>
-      <c r="AH149" s="88"/>
-      <c r="AI149" s="88"/>
-      <c r="AJ149" s="88"/>
-      <c r="AK149" s="88"/>
-      <c r="AL149" s="88"/>
-      <c r="AM149" s="88"/>
-      <c r="AN149" s="88"/>
-      <c r="AO149" s="88"/>
-      <c r="AP149" s="88"/>
-      <c r="AQ149" s="88"/>
-      <c r="AR149" s="88"/>
-      <c r="AS149" s="88"/>
-      <c r="AT149" s="88"/>
-      <c r="AU149" s="88"/>
-      <c r="AV149" s="91"/>
+      <c r="E149" s="84"/>
+      <c r="F149" s="85"/>
+      <c r="G149" s="86"/>
+      <c r="H149" s="87"/>
+      <c r="I149" s="87"/>
+      <c r="J149" s="87"/>
+      <c r="K149" s="88"/>
+      <c r="L149" s="89"/>
+      <c r="M149" s="87"/>
+      <c r="N149" s="87"/>
+      <c r="O149" s="87"/>
+      <c r="P149" s="87"/>
+      <c r="Q149" s="87"/>
+      <c r="R149" s="87"/>
+      <c r="S149" s="87"/>
+      <c r="T149" s="87"/>
+      <c r="U149" s="90"/>
+      <c r="V149" s="84"/>
+      <c r="W149" s="85"/>
+      <c r="X149" s="86"/>
+      <c r="Y149" s="87"/>
+      <c r="Z149" s="87"/>
+      <c r="AA149" s="87"/>
+      <c r="AB149" s="87"/>
+      <c r="AC149" s="87"/>
+      <c r="AD149" s="87"/>
+      <c r="AE149" s="87"/>
+      <c r="AF149" s="87"/>
+      <c r="AG149" s="87"/>
+      <c r="AH149" s="87"/>
+      <c r="AI149" s="87"/>
+      <c r="AJ149" s="87"/>
+      <c r="AK149" s="87"/>
+      <c r="AL149" s="87"/>
+      <c r="AM149" s="87"/>
+      <c r="AN149" s="87"/>
+      <c r="AO149" s="87"/>
+      <c r="AP149" s="87"/>
+      <c r="AQ149" s="87"/>
+      <c r="AR149" s="87"/>
+      <c r="AS149" s="87"/>
+      <c r="AT149" s="87"/>
+      <c r="AU149" s="87"/>
+      <c r="AV149" s="90"/>
       <c r="AW149" s="20"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="17"/>
       <c r="B150" s="59"/>
       <c r="C150" s="9"/>
-      <c r="D150" s="84" t="n">
+      <c r="D150" s="83" t="n">
         <v>5</v>
       </c>
-      <c r="E150" s="85"/>
-      <c r="F150" s="86"/>
-      <c r="G150" s="87"/>
-      <c r="H150" s="88"/>
-      <c r="I150" s="88"/>
-      <c r="J150" s="88"/>
-      <c r="K150" s="89"/>
-      <c r="L150" s="90"/>
-      <c r="M150" s="88"/>
-      <c r="N150" s="88"/>
-      <c r="O150" s="88"/>
-      <c r="P150" s="88"/>
-      <c r="Q150" s="88"/>
-      <c r="R150" s="88"/>
-      <c r="S150" s="88"/>
-      <c r="T150" s="88"/>
-      <c r="U150" s="91"/>
-      <c r="V150" s="85"/>
-      <c r="W150" s="86"/>
-      <c r="X150" s="87"/>
-      <c r="Y150" s="88"/>
-      <c r="Z150" s="88"/>
-      <c r="AA150" s="88"/>
-      <c r="AB150" s="88"/>
-      <c r="AC150" s="88"/>
-      <c r="AD150" s="88"/>
-      <c r="AE150" s="88"/>
-      <c r="AF150" s="88"/>
-      <c r="AG150" s="88"/>
-      <c r="AH150" s="88"/>
-      <c r="AI150" s="88"/>
-      <c r="AJ150" s="88"/>
-      <c r="AK150" s="88"/>
-      <c r="AL150" s="88"/>
-      <c r="AM150" s="88"/>
-      <c r="AN150" s="88"/>
-      <c r="AO150" s="88"/>
-      <c r="AP150" s="88"/>
-      <c r="AQ150" s="88"/>
-      <c r="AR150" s="88"/>
-      <c r="AS150" s="88"/>
-      <c r="AT150" s="88"/>
-      <c r="AU150" s="88"/>
-      <c r="AV150" s="91"/>
+      <c r="E150" s="84"/>
+      <c r="F150" s="85"/>
+      <c r="G150" s="86"/>
+      <c r="H150" s="87"/>
+      <c r="I150" s="87"/>
+      <c r="J150" s="87"/>
+      <c r="K150" s="88"/>
+      <c r="L150" s="89"/>
+      <c r="M150" s="87"/>
+      <c r="N150" s="87"/>
+      <c r="O150" s="87"/>
+      <c r="P150" s="87"/>
+      <c r="Q150" s="87"/>
+      <c r="R150" s="87"/>
+      <c r="S150" s="87"/>
+      <c r="T150" s="87"/>
+      <c r="U150" s="90"/>
+      <c r="V150" s="84"/>
+      <c r="W150" s="85"/>
+      <c r="X150" s="86"/>
+      <c r="Y150" s="87"/>
+      <c r="Z150" s="87"/>
+      <c r="AA150" s="87"/>
+      <c r="AB150" s="87"/>
+      <c r="AC150" s="87"/>
+      <c r="AD150" s="87"/>
+      <c r="AE150" s="87"/>
+      <c r="AF150" s="87"/>
+      <c r="AG150" s="87"/>
+      <c r="AH150" s="87"/>
+      <c r="AI150" s="87"/>
+      <c r="AJ150" s="87"/>
+      <c r="AK150" s="87"/>
+      <c r="AL150" s="87"/>
+      <c r="AM150" s="87"/>
+      <c r="AN150" s="87"/>
+      <c r="AO150" s="87"/>
+      <c r="AP150" s="87"/>
+      <c r="AQ150" s="87"/>
+      <c r="AR150" s="87"/>
+      <c r="AS150" s="87"/>
+      <c r="AT150" s="87"/>
+      <c r="AU150" s="87"/>
+      <c r="AV150" s="90"/>
       <c r="AW150" s="20"/>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="17"/>
       <c r="B151" s="59"/>
       <c r="C151" s="9"/>
-      <c r="D151" s="84" t="n">
+      <c r="D151" s="83" t="n">
         <v>6</v>
       </c>
-      <c r="E151" s="85"/>
-      <c r="F151" s="86"/>
-      <c r="G151" s="87"/>
-      <c r="H151" s="88"/>
-      <c r="I151" s="88"/>
-      <c r="J151" s="88"/>
-      <c r="K151" s="89"/>
-      <c r="L151" s="90"/>
-      <c r="M151" s="88"/>
-      <c r="N151" s="88"/>
-      <c r="O151" s="88"/>
-      <c r="P151" s="88"/>
-      <c r="Q151" s="88"/>
-      <c r="R151" s="88"/>
-      <c r="S151" s="88"/>
-      <c r="T151" s="88"/>
-      <c r="U151" s="91"/>
-      <c r="V151" s="85"/>
-      <c r="W151" s="86"/>
-      <c r="X151" s="92"/>
-      <c r="Y151" s="93"/>
-      <c r="Z151" s="93"/>
-      <c r="AA151" s="93"/>
-      <c r="AB151" s="93"/>
-      <c r="AC151" s="93"/>
-      <c r="AD151" s="93"/>
-      <c r="AE151" s="93"/>
-      <c r="AF151" s="93"/>
-      <c r="AG151" s="93"/>
-      <c r="AH151" s="93"/>
-      <c r="AI151" s="93"/>
-      <c r="AJ151" s="93"/>
-      <c r="AK151" s="93"/>
-      <c r="AL151" s="93"/>
-      <c r="AM151" s="93"/>
-      <c r="AN151" s="93"/>
-      <c r="AO151" s="93"/>
-      <c r="AP151" s="93"/>
-      <c r="AQ151" s="93"/>
-      <c r="AR151" s="93"/>
-      <c r="AS151" s="93"/>
-      <c r="AT151" s="93"/>
-      <c r="AU151" s="93"/>
-      <c r="AV151" s="94"/>
+      <c r="E151" s="84"/>
+      <c r="F151" s="85"/>
+      <c r="G151" s="86"/>
+      <c r="H151" s="87"/>
+      <c r="I151" s="87"/>
+      <c r="J151" s="87"/>
+      <c r="K151" s="88"/>
+      <c r="L151" s="89"/>
+      <c r="M151" s="87"/>
+      <c r="N151" s="87"/>
+      <c r="O151" s="87"/>
+      <c r="P151" s="87"/>
+      <c r="Q151" s="87"/>
+      <c r="R151" s="87"/>
+      <c r="S151" s="87"/>
+      <c r="T151" s="87"/>
+      <c r="U151" s="90"/>
+      <c r="V151" s="84"/>
+      <c r="W151" s="85"/>
+      <c r="X151" s="91"/>
+      <c r="Y151" s="92"/>
+      <c r="Z151" s="92"/>
+      <c r="AA151" s="92"/>
+      <c r="AB151" s="92"/>
+      <c r="AC151" s="92"/>
+      <c r="AD151" s="92"/>
+      <c r="AE151" s="92"/>
+      <c r="AF151" s="92"/>
+      <c r="AG151" s="92"/>
+      <c r="AH151" s="92"/>
+      <c r="AI151" s="92"/>
+      <c r="AJ151" s="92"/>
+      <c r="AK151" s="92"/>
+      <c r="AL151" s="92"/>
+      <c r="AM151" s="92"/>
+      <c r="AN151" s="92"/>
+      <c r="AO151" s="92"/>
+      <c r="AP151" s="92"/>
+      <c r="AQ151" s="92"/>
+      <c r="AR151" s="92"/>
+      <c r="AS151" s="92"/>
+      <c r="AT151" s="92"/>
+      <c r="AU151" s="92"/>
+      <c r="AV151" s="93"/>
       <c r="AW151" s="20"/>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="17"/>
       <c r="B152" s="59"/>
       <c r="C152" s="9"/>
-      <c r="D152" s="84" t="n">
+      <c r="D152" s="83" t="n">
         <v>7</v>
       </c>
-      <c r="E152" s="95"/>
-      <c r="F152" s="96"/>
-      <c r="G152" s="92"/>
-      <c r="H152" s="93"/>
-      <c r="I152" s="93"/>
-      <c r="J152" s="93"/>
-      <c r="K152" s="97"/>
-      <c r="L152" s="98"/>
-      <c r="M152" s="93"/>
-      <c r="N152" s="93"/>
-      <c r="O152" s="93"/>
-      <c r="P152" s="93"/>
-      <c r="Q152" s="93"/>
-      <c r="R152" s="93"/>
-      <c r="S152" s="93"/>
-      <c r="T152" s="93"/>
-      <c r="U152" s="94"/>
-      <c r="V152" s="95"/>
-      <c r="W152" s="96"/>
-      <c r="X152" s="92"/>
-      <c r="Y152" s="93"/>
-      <c r="Z152" s="93"/>
-      <c r="AA152" s="93"/>
-      <c r="AB152" s="93"/>
-      <c r="AC152" s="93"/>
-      <c r="AD152" s="93"/>
-      <c r="AE152" s="93"/>
-      <c r="AF152" s="93"/>
-      <c r="AG152" s="93"/>
-      <c r="AH152" s="93"/>
-      <c r="AI152" s="93"/>
-      <c r="AJ152" s="93"/>
-      <c r="AK152" s="93"/>
-      <c r="AL152" s="93"/>
-      <c r="AM152" s="93"/>
-      <c r="AN152" s="93"/>
-      <c r="AO152" s="93"/>
-      <c r="AP152" s="93"/>
-      <c r="AQ152" s="93"/>
-      <c r="AR152" s="93"/>
-      <c r="AS152" s="93"/>
-      <c r="AT152" s="93"/>
-      <c r="AU152" s="93"/>
-      <c r="AV152" s="94"/>
+      <c r="E152" s="94"/>
+      <c r="F152" s="95"/>
+      <c r="G152" s="91"/>
+      <c r="H152" s="92"/>
+      <c r="I152" s="92"/>
+      <c r="J152" s="92"/>
+      <c r="K152" s="96"/>
+      <c r="L152" s="97"/>
+      <c r="M152" s="92"/>
+      <c r="N152" s="92"/>
+      <c r="O152" s="92"/>
+      <c r="P152" s="92"/>
+      <c r="Q152" s="92"/>
+      <c r="R152" s="92"/>
+      <c r="S152" s="92"/>
+      <c r="T152" s="92"/>
+      <c r="U152" s="93"/>
+      <c r="V152" s="94"/>
+      <c r="W152" s="95"/>
+      <c r="X152" s="91"/>
+      <c r="Y152" s="92"/>
+      <c r="Z152" s="92"/>
+      <c r="AA152" s="92"/>
+      <c r="AB152" s="92"/>
+      <c r="AC152" s="92"/>
+      <c r="AD152" s="92"/>
+      <c r="AE152" s="92"/>
+      <c r="AF152" s="92"/>
+      <c r="AG152" s="92"/>
+      <c r="AH152" s="92"/>
+      <c r="AI152" s="92"/>
+      <c r="AJ152" s="92"/>
+      <c r="AK152" s="92"/>
+      <c r="AL152" s="92"/>
+      <c r="AM152" s="92"/>
+      <c r="AN152" s="92"/>
+      <c r="AO152" s="92"/>
+      <c r="AP152" s="92"/>
+      <c r="AQ152" s="92"/>
+      <c r="AR152" s="92"/>
+      <c r="AS152" s="92"/>
+      <c r="AT152" s="92"/>
+      <c r="AU152" s="92"/>
+      <c r="AV152" s="93"/>
       <c r="AW152" s="20"/>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="17"/>
       <c r="B153" s="59"/>
       <c r="C153" s="9"/>
-      <c r="D153" s="84" t="n">
+      <c r="D153" s="83" t="n">
         <v>8</v>
       </c>
-      <c r="E153" s="95"/>
-      <c r="F153" s="96"/>
-      <c r="G153" s="92"/>
-      <c r="H153" s="93"/>
-      <c r="I153" s="93"/>
-      <c r="J153" s="93"/>
-      <c r="K153" s="97"/>
-      <c r="L153" s="98"/>
-      <c r="M153" s="93"/>
-      <c r="N153" s="93"/>
-      <c r="O153" s="93"/>
-      <c r="P153" s="93"/>
-      <c r="Q153" s="93"/>
-      <c r="R153" s="93"/>
-      <c r="S153" s="93"/>
-      <c r="T153" s="93"/>
-      <c r="U153" s="94"/>
-      <c r="V153" s="95"/>
-      <c r="W153" s="96"/>
-      <c r="X153" s="92"/>
-      <c r="Y153" s="93"/>
-      <c r="Z153" s="93"/>
-      <c r="AA153" s="93"/>
-      <c r="AB153" s="93"/>
-      <c r="AC153" s="93"/>
-      <c r="AD153" s="93"/>
-      <c r="AE153" s="93"/>
-      <c r="AF153" s="93"/>
-      <c r="AG153" s="93"/>
-      <c r="AH153" s="93"/>
-      <c r="AI153" s="93"/>
-      <c r="AJ153" s="93"/>
-      <c r="AK153" s="93"/>
-      <c r="AL153" s="93"/>
-      <c r="AM153" s="93"/>
-      <c r="AN153" s="93"/>
-      <c r="AO153" s="93"/>
-      <c r="AP153" s="93"/>
-      <c r="AQ153" s="93"/>
-      <c r="AR153" s="93"/>
-      <c r="AS153" s="93"/>
-      <c r="AT153" s="93"/>
-      <c r="AU153" s="93"/>
-      <c r="AV153" s="94"/>
+      <c r="E153" s="94"/>
+      <c r="F153" s="95"/>
+      <c r="G153" s="91"/>
+      <c r="H153" s="92"/>
+      <c r="I153" s="92"/>
+      <c r="J153" s="92"/>
+      <c r="K153" s="96"/>
+      <c r="L153" s="97"/>
+      <c r="M153" s="92"/>
+      <c r="N153" s="92"/>
+      <c r="O153" s="92"/>
+      <c r="P153" s="92"/>
+      <c r="Q153" s="92"/>
+      <c r="R153" s="92"/>
+      <c r="S153" s="92"/>
+      <c r="T153" s="92"/>
+      <c r="U153" s="93"/>
+      <c r="V153" s="94"/>
+      <c r="W153" s="95"/>
+      <c r="X153" s="91"/>
+      <c r="Y153" s="92"/>
+      <c r="Z153" s="92"/>
+      <c r="AA153" s="92"/>
+      <c r="AB153" s="92"/>
+      <c r="AC153" s="92"/>
+      <c r="AD153" s="92"/>
+      <c r="AE153" s="92"/>
+      <c r="AF153" s="92"/>
+      <c r="AG153" s="92"/>
+      <c r="AH153" s="92"/>
+      <c r="AI153" s="92"/>
+      <c r="AJ153" s="92"/>
+      <c r="AK153" s="92"/>
+      <c r="AL153" s="92"/>
+      <c r="AM153" s="92"/>
+      <c r="AN153" s="92"/>
+      <c r="AO153" s="92"/>
+      <c r="AP153" s="92"/>
+      <c r="AQ153" s="92"/>
+      <c r="AR153" s="92"/>
+      <c r="AS153" s="92"/>
+      <c r="AT153" s="92"/>
+      <c r="AU153" s="92"/>
+      <c r="AV153" s="93"/>
       <c r="AW153" s="20"/>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="17"/>
       <c r="B154" s="59"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="84" t="n">
+      <c r="D154" s="83" t="n">
         <v>9</v>
       </c>
-      <c r="E154" s="95"/>
-      <c r="F154" s="96"/>
-      <c r="G154" s="92"/>
-      <c r="H154" s="93"/>
-      <c r="I154" s="93"/>
-      <c r="J154" s="93"/>
-      <c r="K154" s="97"/>
-      <c r="L154" s="98"/>
-      <c r="M154" s="93"/>
-      <c r="N154" s="93"/>
-      <c r="O154" s="93"/>
-      <c r="P154" s="93"/>
-      <c r="Q154" s="93"/>
-      <c r="R154" s="93"/>
-      <c r="S154" s="93"/>
-      <c r="T154" s="93"/>
-      <c r="U154" s="94"/>
-      <c r="V154" s="95"/>
-      <c r="W154" s="96"/>
-      <c r="X154" s="92"/>
-      <c r="Y154" s="93"/>
-      <c r="Z154" s="93"/>
-      <c r="AA154" s="93"/>
-      <c r="AB154" s="93"/>
-      <c r="AC154" s="93"/>
-      <c r="AD154" s="93"/>
-      <c r="AE154" s="93"/>
-      <c r="AF154" s="93"/>
-      <c r="AG154" s="93"/>
-      <c r="AH154" s="93"/>
-      <c r="AI154" s="93"/>
-      <c r="AJ154" s="93"/>
-      <c r="AK154" s="93"/>
-      <c r="AL154" s="93"/>
-      <c r="AM154" s="93"/>
-      <c r="AN154" s="93"/>
-      <c r="AO154" s="93"/>
-      <c r="AP154" s="93"/>
-      <c r="AQ154" s="93"/>
-      <c r="AR154" s="93"/>
-      <c r="AS154" s="93"/>
-      <c r="AT154" s="93"/>
-      <c r="AU154" s="93"/>
-      <c r="AV154" s="94"/>
+      <c r="E154" s="94"/>
+      <c r="F154" s="95"/>
+      <c r="G154" s="91"/>
+      <c r="H154" s="92"/>
+      <c r="I154" s="92"/>
+      <c r="J154" s="92"/>
+      <c r="K154" s="96"/>
+      <c r="L154" s="97"/>
+      <c r="M154" s="92"/>
+      <c r="N154" s="92"/>
+      <c r="O154" s="92"/>
+      <c r="P154" s="92"/>
+      <c r="Q154" s="92"/>
+      <c r="R154" s="92"/>
+      <c r="S154" s="92"/>
+      <c r="T154" s="92"/>
+      <c r="U154" s="93"/>
+      <c r="V154" s="94"/>
+      <c r="W154" s="95"/>
+      <c r="X154" s="91"/>
+      <c r="Y154" s="92"/>
+      <c r="Z154" s="92"/>
+      <c r="AA154" s="92"/>
+      <c r="AB154" s="92"/>
+      <c r="AC154" s="92"/>
+      <c r="AD154" s="92"/>
+      <c r="AE154" s="92"/>
+      <c r="AF154" s="92"/>
+      <c r="AG154" s="92"/>
+      <c r="AH154" s="92"/>
+      <c r="AI154" s="92"/>
+      <c r="AJ154" s="92"/>
+      <c r="AK154" s="92"/>
+      <c r="AL154" s="92"/>
+      <c r="AM154" s="92"/>
+      <c r="AN154" s="92"/>
+      <c r="AO154" s="92"/>
+      <c r="AP154" s="92"/>
+      <c r="AQ154" s="92"/>
+      <c r="AR154" s="92"/>
+      <c r="AS154" s="92"/>
+      <c r="AT154" s="92"/>
+      <c r="AU154" s="92"/>
+      <c r="AV154" s="93"/>
       <c r="AW154" s="20"/>
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="17"/>
       <c r="B155" s="59"/>
       <c r="C155" s="9"/>
-      <c r="D155" s="99" t="n">
+      <c r="D155" s="98" t="n">
         <v>10</v>
       </c>
-      <c r="E155" s="95"/>
-      <c r="F155" s="96"/>
-      <c r="G155" s="92"/>
-      <c r="H155" s="93"/>
-      <c r="I155" s="93"/>
-      <c r="J155" s="93"/>
-      <c r="K155" s="97"/>
-      <c r="L155" s="98"/>
-      <c r="M155" s="93"/>
-      <c r="N155" s="93"/>
-      <c r="O155" s="93"/>
-      <c r="P155" s="93"/>
-      <c r="Q155" s="93"/>
-      <c r="R155" s="93"/>
-      <c r="S155" s="93"/>
-      <c r="T155" s="93"/>
-      <c r="U155" s="94"/>
-      <c r="V155" s="95"/>
-      <c r="W155" s="96"/>
-      <c r="X155" s="92"/>
-      <c r="Y155" s="93"/>
-      <c r="Z155" s="93"/>
-      <c r="AA155" s="93"/>
-      <c r="AB155" s="93"/>
-      <c r="AC155" s="93"/>
-      <c r="AD155" s="93"/>
-      <c r="AE155" s="93"/>
-      <c r="AF155" s="93"/>
-      <c r="AG155" s="93"/>
-      <c r="AH155" s="93"/>
-      <c r="AI155" s="93"/>
-      <c r="AJ155" s="93"/>
-      <c r="AK155" s="93"/>
-      <c r="AL155" s="93"/>
-      <c r="AM155" s="93"/>
-      <c r="AN155" s="93"/>
-      <c r="AO155" s="93"/>
-      <c r="AP155" s="93"/>
-      <c r="AQ155" s="93"/>
-      <c r="AR155" s="93"/>
-      <c r="AS155" s="93"/>
-      <c r="AT155" s="93"/>
-      <c r="AU155" s="93"/>
-      <c r="AV155" s="94"/>
+      <c r="E155" s="94"/>
+      <c r="F155" s="95"/>
+      <c r="G155" s="91"/>
+      <c r="H155" s="92"/>
+      <c r="I155" s="92"/>
+      <c r="J155" s="92"/>
+      <c r="K155" s="96"/>
+      <c r="L155" s="97"/>
+      <c r="M155" s="92"/>
+      <c r="N155" s="92"/>
+      <c r="O155" s="92"/>
+      <c r="P155" s="92"/>
+      <c r="Q155" s="92"/>
+      <c r="R155" s="92"/>
+      <c r="S155" s="92"/>
+      <c r="T155" s="92"/>
+      <c r="U155" s="93"/>
+      <c r="V155" s="94"/>
+      <c r="W155" s="95"/>
+      <c r="X155" s="91"/>
+      <c r="Y155" s="92"/>
+      <c r="Z155" s="92"/>
+      <c r="AA155" s="92"/>
+      <c r="AB155" s="92"/>
+      <c r="AC155" s="92"/>
+      <c r="AD155" s="92"/>
+      <c r="AE155" s="92"/>
+      <c r="AF155" s="92"/>
+      <c r="AG155" s="92"/>
+      <c r="AH155" s="92"/>
+      <c r="AI155" s="92"/>
+      <c r="AJ155" s="92"/>
+      <c r="AK155" s="92"/>
+      <c r="AL155" s="92"/>
+      <c r="AM155" s="92"/>
+      <c r="AN155" s="92"/>
+      <c r="AO155" s="92"/>
+      <c r="AP155" s="92"/>
+      <c r="AQ155" s="92"/>
+      <c r="AR155" s="92"/>
+      <c r="AS155" s="92"/>
+      <c r="AT155" s="92"/>
+      <c r="AU155" s="92"/>
+      <c r="AV155" s="93"/>
       <c r="AW155" s="20"/>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="17"/>
       <c r="B156" s="59"/>
       <c r="C156" s="9"/>
-      <c r="D156" s="100"/>
-      <c r="E156" s="100"/>
-      <c r="F156" s="100"/>
-      <c r="G156" s="101"/>
-      <c r="H156" s="102"/>
-      <c r="I156" s="102"/>
-      <c r="J156" s="102"/>
-      <c r="K156" s="102"/>
-      <c r="L156" s="102"/>
-      <c r="M156" s="102"/>
-      <c r="N156" s="102"/>
-      <c r="O156" s="102"/>
-      <c r="P156" s="102"/>
-      <c r="Q156" s="102"/>
-      <c r="R156" s="102"/>
-      <c r="S156" s="102"/>
-      <c r="T156" s="102"/>
-      <c r="U156" s="102"/>
-      <c r="V156" s="100"/>
-      <c r="W156" s="100"/>
-      <c r="X156" s="102"/>
-      <c r="Y156" s="102"/>
-      <c r="Z156" s="102"/>
-      <c r="AA156" s="102"/>
-      <c r="AB156" s="102"/>
-      <c r="AC156" s="102"/>
-      <c r="AD156" s="102"/>
-      <c r="AE156" s="102"/>
-      <c r="AF156" s="102"/>
-      <c r="AG156" s="102"/>
-      <c r="AH156" s="102"/>
-      <c r="AI156" s="102"/>
-      <c r="AJ156" s="102"/>
-      <c r="AK156" s="102"/>
-      <c r="AL156" s="102"/>
-      <c r="AM156" s="102"/>
-      <c r="AN156" s="102"/>
-      <c r="AO156" s="102"/>
-      <c r="AP156" s="102"/>
-      <c r="AQ156" s="102"/>
-      <c r="AR156" s="102"/>
-      <c r="AS156" s="102"/>
-      <c r="AT156" s="102"/>
-      <c r="AU156" s="102"/>
-      <c r="AV156" s="102"/>
+      <c r="D156" s="99"/>
+      <c r="E156" s="99"/>
+      <c r="F156" s="99"/>
+      <c r="G156" s="100"/>
+      <c r="H156" s="101"/>
+      <c r="I156" s="101"/>
+      <c r="J156" s="101"/>
+      <c r="K156" s="101"/>
+      <c r="L156" s="101"/>
+      <c r="M156" s="101"/>
+      <c r="N156" s="101"/>
+      <c r="O156" s="101"/>
+      <c r="P156" s="101"/>
+      <c r="Q156" s="101"/>
+      <c r="R156" s="101"/>
+      <c r="S156" s="101"/>
+      <c r="T156" s="101"/>
+      <c r="U156" s="101"/>
+      <c r="V156" s="99"/>
+      <c r="W156" s="99"/>
+      <c r="X156" s="101"/>
+      <c r="Y156" s="101"/>
+      <c r="Z156" s="101"/>
+      <c r="AA156" s="101"/>
+      <c r="AB156" s="101"/>
+      <c r="AC156" s="101"/>
+      <c r="AD156" s="101"/>
+      <c r="AE156" s="101"/>
+      <c r="AF156" s="101"/>
+      <c r="AG156" s="101"/>
+      <c r="AH156" s="101"/>
+      <c r="AI156" s="101"/>
+      <c r="AJ156" s="101"/>
+      <c r="AK156" s="101"/>
+      <c r="AL156" s="101"/>
+      <c r="AM156" s="101"/>
+      <c r="AN156" s="101"/>
+      <c r="AO156" s="101"/>
+      <c r="AP156" s="101"/>
+      <c r="AQ156" s="101"/>
+      <c r="AR156" s="101"/>
+      <c r="AS156" s="101"/>
+      <c r="AT156" s="101"/>
+      <c r="AU156" s="101"/>
+      <c r="AV156" s="101"/>
       <c r="AW156" s="20"/>
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10609,7 +10410,7 @@
       <c r="AW160" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="205">
+  <mergeCells count="206">
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="J1:O3"/>
     <mergeCell ref="P1:U3"/>
@@ -10813,6 +10614,7 @@
     <mergeCell ref="G146:U146"/>
     <mergeCell ref="V146:W146"/>
     <mergeCell ref="X146:AV146"/>
+    <mergeCell ref="E147:F147"/>
     <mergeCell ref="V147:W147"/>
     <mergeCell ref="V148:W148"/>
   </mergeCells>
@@ -10834,8 +10636,8 @@
   </sheetPr>
   <dimension ref="A1:BF165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BJ118" activeCellId="0" sqref="BJ118"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H63" activeCellId="0" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10845,7 +10647,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="9" width="2.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="2.99"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="49" min="6" style="9" width="2.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="50" min="50" style="103" width="2.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="50" min="50" style="102" width="2.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="51" style="1" width="2.64"/>
   </cols>
   <sheetData>
@@ -10903,7 +10705,7 @@
       </c>
       <c r="AN1" s="6"/>
       <c r="AO1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP1" s="7"/>
       <c r="AQ1" s="7"/>
@@ -11084,7 +10886,7 @@
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17"/>
       <c r="B5" s="59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AM5" s="19"/>
       <c r="AN5" s="19"/>
@@ -11110,316 +10912,316 @@
       <c r="AW6" s="20"/>
     </row>
     <row r="7" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AW7" s="104"/>
+      <c r="AW7" s="103"/>
     </row>
     <row r="8" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="105"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="AW8" s="107"/>
+      <c r="A8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="AW8" s="106"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
     </row>
     <row r="9" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="105"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="AW9" s="107"/>
+      <c r="A9" s="104"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="AW9" s="106"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
     </row>
     <row r="10" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="105"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="AW10" s="107"/>
+      <c r="A10" s="104"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="AW10" s="106"/>
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
     </row>
     <row r="11" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="105"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="AW11" s="107"/>
+      <c r="A11" s="104"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="AW11" s="106"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
     </row>
     <row r="12" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="105"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="AW12" s="107"/>
+      <c r="A12" s="104"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="AW12" s="106"/>
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
     </row>
     <row r="13" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="105"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="AW13" s="107"/>
+      <c r="A13" s="104"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="AW13" s="106"/>
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
     </row>
     <row r="14" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="105"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="AW14" s="107"/>
+      <c r="A14" s="104"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="AW14" s="106"/>
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
     </row>
     <row r="15" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="105"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="AW15" s="107"/>
+      <c r="A15" s="104"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="AW15" s="106"/>
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
     </row>
     <row r="16" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="105"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="AW16" s="107"/>
+      <c r="A16" s="104"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="AW16" s="106"/>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
     </row>
     <row r="17" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="105"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="AW17" s="107"/>
+      <c r="A17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="AW17" s="106"/>
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
     </row>
     <row r="18" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="AW18" s="107"/>
+      <c r="A18" s="104"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="AW18" s="106"/>
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
     </row>
     <row r="19" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="105"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="AW19" s="107"/>
+      <c r="A19" s="104"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="AW19" s="106"/>
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
     </row>
     <row r="20" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="AW20" s="107"/>
+      <c r="A20" s="104"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="AW20" s="106"/>
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
     </row>
     <row r="21" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="AW21" s="107"/>
+      <c r="A21" s="104"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="AW21" s="106"/>
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
     </row>
     <row r="22" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="105"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="AW22" s="107"/>
+      <c r="A22" s="104"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="AW22" s="106"/>
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
     </row>
     <row r="23" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="105"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="AW23" s="107"/>
+      <c r="A23" s="104"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="AW23" s="106"/>
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
     </row>
     <row r="24" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="105"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="AW24" s="107"/>
+      <c r="A24" s="104"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="AW24" s="106"/>
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
     </row>
     <row r="25" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="105"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="AW25" s="107"/>
+      <c r="A25" s="104"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="AW25" s="106"/>
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
     </row>
     <row r="26" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="105"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="AW26" s="107"/>
+      <c r="A26" s="104"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="AW26" s="106"/>
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
     </row>
     <row r="27" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="105"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="AW27" s="107"/>
+      <c r="A27" s="104"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="AW27" s="106"/>
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
     </row>
     <row r="28" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="105"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="AW28" s="107"/>
+      <c r="A28" s="104"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="AW28" s="106"/>
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
     </row>
     <row r="29" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="105"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="AW29" s="107"/>
+      <c r="A29" s="104"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="AW29" s="106"/>
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
     </row>
     <row r="30" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="105"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="AW30" s="107"/>
+      <c r="A30" s="104"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="AW30" s="106"/>
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
       <c r="BF30" s="1"/>
     </row>
     <row r="31" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="105"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="AW31" s="107"/>
+      <c r="A31" s="104"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="AW31" s="106"/>
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
       <c r="BF31" s="1"/>
     </row>
     <row r="32" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="105"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="AW32" s="107"/>
+      <c r="A32" s="104"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="AW32" s="106"/>
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
       <c r="BF32" s="1"/>
     </row>
     <row r="33" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="105"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="AW33" s="107"/>
+      <c r="A33" s="104"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="AW33" s="106"/>
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
       <c r="BF33" s="1"/>
@@ -11432,7 +11234,7 @@
       <c r="AU34" s="9"/>
       <c r="AV34" s="9"/>
       <c r="AW34" s="20"/>
-      <c r="AX34" s="103"/>
+      <c r="AX34" s="102"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="17"/>
@@ -11442,7 +11244,7 @@
       <c r="AU35" s="9"/>
       <c r="AV35" s="9"/>
       <c r="AW35" s="20"/>
-      <c r="AX35" s="103"/>
+      <c r="AX35" s="102"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="17"/>
@@ -11452,7 +11254,7 @@
       <c r="AU36" s="9"/>
       <c r="AV36" s="9"/>
       <c r="AW36" s="20"/>
-      <c r="AX36" s="103"/>
+      <c r="AX36" s="102"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="17"/>
@@ -11462,7 +11264,7 @@
       <c r="AU37" s="9"/>
       <c r="AV37" s="9"/>
       <c r="AW37" s="20"/>
-      <c r="AX37" s="103"/>
+      <c r="AX37" s="102"/>
     </row>
     <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
@@ -11518,7 +11320,7 @@
       </c>
       <c r="AN38" s="6"/>
       <c r="AO38" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP38" s="7"/>
       <c r="AQ38" s="7"/>
@@ -11655,7 +11457,7 @@
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="17"/>
       <c r="B42" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -11688,7 +11490,7 @@
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="17"/>
       <c r="C44" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AM44" s="19"/>
       <c r="AN44" s="19"/>
@@ -11706,7 +11508,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E45" s="72"/>
       <c r="F45" s="72"/>
@@ -11714,18 +11516,18 @@
       <c r="H45" s="72"/>
       <c r="I45" s="72"/>
       <c r="J45" s="73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K45" s="73"/>
       <c r="L45" s="73"/>
       <c r="M45" s="73"/>
       <c r="N45" s="73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O45" s="73"/>
       <c r="P45" s="73"/>
       <c r="Q45" s="72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R45" s="72"/>
       <c r="S45" s="72"/>
@@ -11734,17 +11536,17 @@
       </c>
       <c r="U45" s="72"/>
       <c r="V45" s="75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W45" s="75"/>
       <c r="X45" s="75"/>
       <c r="Y45" s="75"/>
-      <c r="Z45" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA45" s="108"/>
-      <c r="AB45" s="108"/>
-      <c r="AC45" s="108"/>
+      <c r="Z45" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA45" s="107"/>
+      <c r="AB45" s="107"/>
+      <c r="AC45" s="107"/>
       <c r="AD45" s="75" t="s">
         <v>47</v>
       </c>
@@ -11767,258 +11569,258 @@
       <c r="AU45" s="75"/>
       <c r="AV45" s="75"/>
       <c r="AW45" s="20"/>
-      <c r="AX45" s="109"/>
+      <c r="AX45" s="108"/>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="17"/>
-      <c r="C46" s="110" t="n">
+      <c r="C46" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="D46" s="111" t="s">
+      <c r="D46" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="115" t="s">
+      <c r="K46" s="112"/>
+      <c r="L46" s="112"/>
+      <c r="M46" s="112"/>
+      <c r="N46" s="114"/>
+      <c r="O46" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="K46" s="113"/>
-      <c r="L46" s="113"/>
-      <c r="M46" s="113"/>
-      <c r="N46" s="115"/>
-      <c r="O46" s="113" t="s">
+      <c r="P46" s="112"/>
+      <c r="Q46" s="114"/>
+      <c r="R46" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="P46" s="113"/>
-      <c r="Q46" s="115"/>
-      <c r="R46" s="113" t="s">
+      <c r="S46" s="115"/>
+      <c r="T46" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="U46" s="109"/>
+      <c r="V46" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="S46" s="116"/>
-      <c r="T46" s="110" t="s">
+      <c r="W46" s="111"/>
+      <c r="X46" s="111"/>
+      <c r="Y46" s="115"/>
+      <c r="Z46" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="U46" s="110"/>
-      <c r="V46" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="W46" s="112"/>
-      <c r="X46" s="112"/>
-      <c r="Y46" s="116"/>
-      <c r="Z46" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA46" s="112"/>
-      <c r="AB46" s="112"/>
-      <c r="AC46" s="112"/>
-      <c r="AD46" s="111"/>
-      <c r="AE46" s="112"/>
-      <c r="AF46" s="112"/>
-      <c r="AG46" s="112"/>
-      <c r="AH46" s="112"/>
-      <c r="AI46" s="112"/>
-      <c r="AJ46" s="112"/>
-      <c r="AK46" s="112"/>
-      <c r="AL46" s="112"/>
-      <c r="AM46" s="112"/>
-      <c r="AN46" s="112"/>
-      <c r="AO46" s="112"/>
-      <c r="AP46" s="112"/>
-      <c r="AQ46" s="112"/>
-      <c r="AR46" s="112"/>
-      <c r="AS46" s="112"/>
-      <c r="AT46" s="112"/>
-      <c r="AU46" s="112"/>
-      <c r="AV46" s="118"/>
+      <c r="AA46" s="111"/>
+      <c r="AB46" s="111"/>
+      <c r="AC46" s="111"/>
+      <c r="AD46" s="110"/>
+      <c r="AE46" s="111"/>
+      <c r="AF46" s="111"/>
+      <c r="AG46" s="111"/>
+      <c r="AH46" s="111"/>
+      <c r="AI46" s="111"/>
+      <c r="AJ46" s="111"/>
+      <c r="AK46" s="111"/>
+      <c r="AL46" s="111"/>
+      <c r="AM46" s="111"/>
+      <c r="AN46" s="111"/>
+      <c r="AO46" s="111"/>
+      <c r="AP46" s="111"/>
+      <c r="AQ46" s="111"/>
+      <c r="AR46" s="111"/>
+      <c r="AS46" s="111"/>
+      <c r="AT46" s="111"/>
+      <c r="AU46" s="111"/>
+      <c r="AV46" s="117"/>
       <c r="AW46" s="20"/>
-      <c r="AX46" s="119"/>
+      <c r="AX46" s="118"/>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="17"/>
-      <c r="C47" s="110" t="n">
+      <c r="C47" s="109" t="n">
         <v>2</v>
       </c>
-      <c r="D47" s="120" t="s">
+      <c r="D47" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="121"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="122"/>
+      <c r="J47" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47" s="121"/>
+      <c r="L47" s="121"/>
+      <c r="M47" s="121"/>
+      <c r="N47" s="123"/>
+      <c r="O47" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="P47" s="121"/>
+      <c r="Q47" s="123"/>
+      <c r="R47" s="121" t="s">
+        <v>65</v>
+      </c>
+      <c r="S47" s="124"/>
+      <c r="T47" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="U47" s="125"/>
+      <c r="V47" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="W47" s="120"/>
+      <c r="X47" s="120"/>
+      <c r="Y47" s="124"/>
+      <c r="Z47" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="E47" s="121"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="122"/>
-      <c r="H47" s="122"/>
-      <c r="I47" s="123"/>
-      <c r="J47" s="115" t="s">
-        <v>64</v>
-      </c>
-      <c r="K47" s="122"/>
-      <c r="L47" s="122"/>
-      <c r="M47" s="122"/>
-      <c r="N47" s="124"/>
-      <c r="O47" s="122" t="s">
-        <v>71</v>
-      </c>
-      <c r="P47" s="122"/>
-      <c r="Q47" s="124"/>
-      <c r="R47" s="122" t="s">
-        <v>66</v>
-      </c>
-      <c r="S47" s="125"/>
-      <c r="T47" s="126" t="s">
-        <v>67</v>
-      </c>
-      <c r="U47" s="126"/>
-      <c r="V47" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="W47" s="121"/>
-      <c r="X47" s="121"/>
-      <c r="Y47" s="125"/>
-      <c r="Z47" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA47" s="121"/>
-      <c r="AB47" s="121"/>
-      <c r="AC47" s="121"/>
-      <c r="AD47" s="120"/>
-      <c r="AE47" s="121"/>
-      <c r="AF47" s="121"/>
-      <c r="AG47" s="121"/>
-      <c r="AH47" s="121"/>
-      <c r="AI47" s="121"/>
-      <c r="AJ47" s="121"/>
-      <c r="AK47" s="121"/>
-      <c r="AL47" s="121"/>
-      <c r="AM47" s="121"/>
-      <c r="AN47" s="121"/>
-      <c r="AO47" s="121"/>
-      <c r="AP47" s="121"/>
-      <c r="AQ47" s="121"/>
-      <c r="AR47" s="121"/>
-      <c r="AS47" s="121"/>
-      <c r="AT47" s="121"/>
-      <c r="AU47" s="121"/>
-      <c r="AV47" s="127"/>
+      <c r="AA47" s="120"/>
+      <c r="AB47" s="120"/>
+      <c r="AC47" s="120"/>
+      <c r="AD47" s="119"/>
+      <c r="AE47" s="120"/>
+      <c r="AF47" s="120"/>
+      <c r="AG47" s="120"/>
+      <c r="AH47" s="120"/>
+      <c r="AI47" s="120"/>
+      <c r="AJ47" s="120"/>
+      <c r="AK47" s="120"/>
+      <c r="AL47" s="120"/>
+      <c r="AM47" s="120"/>
+      <c r="AN47" s="120"/>
+      <c r="AO47" s="120"/>
+      <c r="AP47" s="120"/>
+      <c r="AQ47" s="120"/>
+      <c r="AR47" s="120"/>
+      <c r="AS47" s="120"/>
+      <c r="AT47" s="120"/>
+      <c r="AU47" s="120"/>
+      <c r="AV47" s="126"/>
       <c r="AW47" s="20"/>
-      <c r="AX47" s="119"/>
+      <c r="AX47" s="118"/>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="17"/>
-      <c r="C48" s="110" t="n">
+      <c r="C48" s="109" t="n">
         <v>3</v>
       </c>
-      <c r="D48" s="120" t="s">
+      <c r="D48" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="120"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="122"/>
+      <c r="J48" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="K48" s="127"/>
+      <c r="L48" s="127"/>
+      <c r="M48" s="128"/>
+      <c r="N48" s="127"/>
+      <c r="O48" s="127" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" s="127"/>
+      <c r="Q48" s="129"/>
+      <c r="R48" s="127" t="s">
+        <v>65</v>
+      </c>
+      <c r="S48" s="130"/>
+      <c r="T48" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="U48" s="131"/>
+      <c r="V48" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="W48" s="132"/>
+      <c r="X48" s="132"/>
+      <c r="Y48" s="130"/>
+      <c r="Z48" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="121"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="122"/>
-      <c r="H48" s="122"/>
-      <c r="I48" s="123"/>
-      <c r="J48" s="115" t="s">
-        <v>64</v>
-      </c>
-      <c r="K48" s="128"/>
-      <c r="L48" s="128"/>
-      <c r="M48" s="129"/>
-      <c r="N48" s="128"/>
-      <c r="O48" s="128" t="s">
-        <v>74</v>
-      </c>
-      <c r="P48" s="128"/>
-      <c r="Q48" s="130"/>
-      <c r="R48" s="128" t="s">
-        <v>66</v>
-      </c>
-      <c r="S48" s="131"/>
-      <c r="T48" s="132" t="s">
-        <v>67</v>
-      </c>
-      <c r="U48" s="132"/>
-      <c r="V48" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="W48" s="133"/>
-      <c r="X48" s="133"/>
-      <c r="Y48" s="131"/>
-      <c r="Z48" s="134" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA48" s="133"/>
-      <c r="AB48" s="133"/>
-      <c r="AC48" s="133"/>
-      <c r="AD48" s="135"/>
-      <c r="AE48" s="133"/>
-      <c r="AF48" s="133"/>
-      <c r="AG48" s="133"/>
-      <c r="AH48" s="133"/>
-      <c r="AI48" s="133"/>
-      <c r="AJ48" s="133"/>
-      <c r="AK48" s="133"/>
-      <c r="AL48" s="133"/>
-      <c r="AM48" s="133"/>
-      <c r="AN48" s="133"/>
-      <c r="AO48" s="133"/>
-      <c r="AP48" s="133"/>
-      <c r="AQ48" s="133"/>
-      <c r="AR48" s="133"/>
-      <c r="AS48" s="133"/>
-      <c r="AT48" s="133"/>
-      <c r="AU48" s="133"/>
-      <c r="AV48" s="136"/>
+      <c r="AA48" s="132"/>
+      <c r="AB48" s="132"/>
+      <c r="AC48" s="132"/>
+      <c r="AD48" s="134"/>
+      <c r="AE48" s="132"/>
+      <c r="AF48" s="132"/>
+      <c r="AG48" s="132"/>
+      <c r="AH48" s="132"/>
+      <c r="AI48" s="132"/>
+      <c r="AJ48" s="132"/>
+      <c r="AK48" s="132"/>
+      <c r="AL48" s="132"/>
+      <c r="AM48" s="132"/>
+      <c r="AN48" s="132"/>
+      <c r="AO48" s="132"/>
+      <c r="AP48" s="132"/>
+      <c r="AQ48" s="132"/>
+      <c r="AR48" s="132"/>
+      <c r="AS48" s="132"/>
+      <c r="AT48" s="132"/>
+      <c r="AU48" s="132"/>
+      <c r="AV48" s="135"/>
       <c r="AW48" s="20"/>
-      <c r="AX48" s="119"/>
+      <c r="AX48" s="118"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="17"/>
       <c r="B49" s="28"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="122"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="123"/>
-      <c r="J49" s="130"/>
-      <c r="K49" s="128"/>
-      <c r="L49" s="128"/>
-      <c r="M49" s="129"/>
-      <c r="N49" s="128"/>
-      <c r="O49" s="128"/>
-      <c r="P49" s="128"/>
-      <c r="Q49" s="130"/>
-      <c r="R49" s="128"/>
-      <c r="S49" s="131"/>
-      <c r="T49" s="132"/>
-      <c r="U49" s="132"/>
-      <c r="V49" s="135"/>
-      <c r="W49" s="133"/>
-      <c r="X49" s="133"/>
-      <c r="Y49" s="131"/>
-      <c r="Z49" s="134"/>
-      <c r="AA49" s="133"/>
-      <c r="AB49" s="133"/>
-      <c r="AC49" s="133"/>
-      <c r="AD49" s="135"/>
-      <c r="AE49" s="133"/>
-      <c r="AF49" s="133"/>
-      <c r="AG49" s="133"/>
-      <c r="AH49" s="133"/>
-      <c r="AI49" s="133"/>
-      <c r="AJ49" s="133"/>
-      <c r="AK49" s="133"/>
-      <c r="AL49" s="133"/>
-      <c r="AM49" s="133"/>
-      <c r="AN49" s="133"/>
-      <c r="AO49" s="133"/>
-      <c r="AP49" s="133"/>
-      <c r="AQ49" s="133"/>
-      <c r="AR49" s="133"/>
-      <c r="AS49" s="133"/>
-      <c r="AT49" s="133"/>
-      <c r="AU49" s="133"/>
-      <c r="AV49" s="136"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="121"/>
+      <c r="H49" s="121"/>
+      <c r="I49" s="122"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="127"/>
+      <c r="L49" s="127"/>
+      <c r="M49" s="128"/>
+      <c r="N49" s="127"/>
+      <c r="O49" s="127"/>
+      <c r="P49" s="127"/>
+      <c r="Q49" s="129"/>
+      <c r="R49" s="127"/>
+      <c r="S49" s="130"/>
+      <c r="T49" s="131"/>
+      <c r="U49" s="131"/>
+      <c r="V49" s="134"/>
+      <c r="W49" s="132"/>
+      <c r="X49" s="132"/>
+      <c r="Y49" s="130"/>
+      <c r="Z49" s="133"/>
+      <c r="AA49" s="132"/>
+      <c r="AB49" s="132"/>
+      <c r="AC49" s="132"/>
+      <c r="AD49" s="134"/>
+      <c r="AE49" s="132"/>
+      <c r="AF49" s="132"/>
+      <c r="AG49" s="132"/>
+      <c r="AH49" s="132"/>
+      <c r="AI49" s="132"/>
+      <c r="AJ49" s="132"/>
+      <c r="AK49" s="132"/>
+      <c r="AL49" s="132"/>
+      <c r="AM49" s="132"/>
+      <c r="AN49" s="132"/>
+      <c r="AO49" s="132"/>
+      <c r="AP49" s="132"/>
+      <c r="AQ49" s="132"/>
+      <c r="AR49" s="132"/>
+      <c r="AS49" s="132"/>
+      <c r="AT49" s="132"/>
+      <c r="AU49" s="132"/>
+      <c r="AV49" s="135"/>
       <c r="AW49" s="20"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12030,7 +11832,7 @@
       <c r="A51" s="17"/>
       <c r="B51" s="28"/>
       <c r="C51" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
@@ -12051,16 +11853,16 @@
       <c r="T51" s="19"/>
       <c r="U51" s="19"/>
       <c r="V51" s="19"/>
-      <c r="W51" s="137"/>
-      <c r="X51" s="137"/>
-      <c r="Y51" s="137"/>
-      <c r="Z51" s="137"/>
+      <c r="W51" s="136"/>
+      <c r="X51" s="136"/>
+      <c r="Y51" s="136"/>
+      <c r="Z51" s="136"/>
       <c r="AA51" s="19"/>
       <c r="AB51" s="19"/>
       <c r="AC51" s="19"/>
       <c r="AD51" s="19"/>
-      <c r="AE51" s="137"/>
-      <c r="AF51" s="137"/>
+      <c r="AE51" s="136"/>
+      <c r="AF51" s="136"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
@@ -12081,11 +11883,11 @@
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="17"/>
       <c r="B52" s="28"/>
-      <c r="C52" s="138" t="s">
+      <c r="C52" s="137" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E52" s="72"/>
       <c r="F52" s="72"/>
@@ -12096,18 +11898,18 @@
       <c r="K52" s="72"/>
       <c r="L52" s="72"/>
       <c r="M52" s="72"/>
-      <c r="N52" s="139" t="s">
-        <v>61</v>
-      </c>
-      <c r="O52" s="139"/>
-      <c r="P52" s="139"/>
-      <c r="Q52" s="139"/>
-      <c r="R52" s="139"/>
-      <c r="S52" s="139"/>
-      <c r="T52" s="139"/>
-      <c r="U52" s="139"/>
-      <c r="V52" s="139"/>
-      <c r="W52" s="139"/>
+      <c r="N52" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="O52" s="138"/>
+      <c r="P52" s="138"/>
+      <c r="Q52" s="138"/>
+      <c r="R52" s="138"/>
+      <c r="S52" s="138"/>
+      <c r="T52" s="138"/>
+      <c r="U52" s="138"/>
+      <c r="V52" s="138"/>
+      <c r="W52" s="138"/>
       <c r="X52" s="75" t="s">
         <v>47</v>
       </c>
@@ -12140,122 +11942,122 @@
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="17"/>
       <c r="B53" s="28"/>
-      <c r="C53" s="140" t="n">
+      <c r="C53" s="139" t="n">
         <v>1</v>
       </c>
-      <c r="D53" s="141" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="101"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="101"/>
-      <c r="H53" s="101"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="101"/>
-      <c r="K53" s="101"/>
-      <c r="L53" s="101"/>
-      <c r="M53" s="142"/>
-      <c r="N53" s="143" t="s">
-        <v>78</v>
-      </c>
-      <c r="O53" s="144"/>
-      <c r="P53" s="144"/>
-      <c r="Q53" s="144"/>
-      <c r="R53" s="144"/>
-      <c r="S53" s="144"/>
-      <c r="T53" s="144"/>
-      <c r="U53" s="144"/>
-      <c r="V53" s="144"/>
-      <c r="W53" s="145"/>
-      <c r="X53" s="143"/>
-      <c r="Y53" s="146"/>
-      <c r="Z53" s="146"/>
-      <c r="AA53" s="146"/>
-      <c r="AB53" s="144"/>
-      <c r="AC53" s="144"/>
-      <c r="AD53" s="144"/>
-      <c r="AE53" s="144"/>
-      <c r="AF53" s="146"/>
-      <c r="AG53" s="146"/>
-      <c r="AH53" s="144"/>
-      <c r="AI53" s="144"/>
-      <c r="AJ53" s="144"/>
-      <c r="AK53" s="144"/>
-      <c r="AL53" s="144"/>
-      <c r="AM53" s="144"/>
-      <c r="AN53" s="144"/>
-      <c r="AO53" s="144"/>
-      <c r="AP53" s="144"/>
-      <c r="AQ53" s="144"/>
-      <c r="AR53" s="144"/>
-      <c r="AS53" s="144"/>
-      <c r="AT53" s="144"/>
-      <c r="AU53" s="144"/>
-      <c r="AV53" s="145"/>
+      <c r="D53" s="140" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="100"/>
+      <c r="K53" s="100"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="141"/>
+      <c r="N53" s="142" t="s">
+        <v>76</v>
+      </c>
+      <c r="O53" s="143"/>
+      <c r="P53" s="143"/>
+      <c r="Q53" s="143"/>
+      <c r="R53" s="143"/>
+      <c r="S53" s="143"/>
+      <c r="T53" s="143"/>
+      <c r="U53" s="143"/>
+      <c r="V53" s="143"/>
+      <c r="W53" s="144"/>
+      <c r="X53" s="142"/>
+      <c r="Y53" s="145"/>
+      <c r="Z53" s="145"/>
+      <c r="AA53" s="145"/>
+      <c r="AB53" s="143"/>
+      <c r="AC53" s="143"/>
+      <c r="AD53" s="143"/>
+      <c r="AE53" s="143"/>
+      <c r="AF53" s="145"/>
+      <c r="AG53" s="145"/>
+      <c r="AH53" s="143"/>
+      <c r="AI53" s="143"/>
+      <c r="AJ53" s="143"/>
+      <c r="AK53" s="143"/>
+      <c r="AL53" s="143"/>
+      <c r="AM53" s="143"/>
+      <c r="AN53" s="143"/>
+      <c r="AO53" s="143"/>
+      <c r="AP53" s="143"/>
+      <c r="AQ53" s="143"/>
+      <c r="AR53" s="143"/>
+      <c r="AS53" s="143"/>
+      <c r="AT53" s="143"/>
+      <c r="AU53" s="143"/>
+      <c r="AV53" s="144"/>
       <c r="AW53" s="20"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="17"/>
       <c r="B54" s="28"/>
-      <c r="C54" s="147" t="n">
+      <c r="C54" s="146" t="n">
         <v>2</v>
       </c>
-      <c r="D54" s="148" t="s">
-        <v>79</v>
-      </c>
-      <c r="E54" s="149"/>
-      <c r="F54" s="149"/>
-      <c r="G54" s="149"/>
-      <c r="H54" s="149"/>
-      <c r="I54" s="149"/>
-      <c r="J54" s="149"/>
-      <c r="K54" s="149"/>
-      <c r="L54" s="149"/>
-      <c r="M54" s="150"/>
-      <c r="N54" s="148" t="s">
-        <v>80</v>
-      </c>
-      <c r="O54" s="149"/>
-      <c r="P54" s="149"/>
-      <c r="Q54" s="149"/>
-      <c r="R54" s="149"/>
-      <c r="S54" s="149"/>
-      <c r="T54" s="149"/>
-      <c r="U54" s="149"/>
-      <c r="V54" s="149"/>
-      <c r="W54" s="150"/>
-      <c r="X54" s="148"/>
-      <c r="Y54" s="151"/>
-      <c r="Z54" s="151"/>
-      <c r="AA54" s="151"/>
-      <c r="AB54" s="149"/>
-      <c r="AC54" s="149"/>
-      <c r="AD54" s="149"/>
-      <c r="AE54" s="149"/>
-      <c r="AF54" s="151"/>
-      <c r="AG54" s="151"/>
-      <c r="AH54" s="149"/>
-      <c r="AI54" s="149"/>
-      <c r="AJ54" s="149"/>
-      <c r="AK54" s="149"/>
-      <c r="AL54" s="149"/>
-      <c r="AM54" s="149"/>
-      <c r="AN54" s="149"/>
-      <c r="AO54" s="149"/>
-      <c r="AP54" s="149"/>
-      <c r="AQ54" s="149"/>
-      <c r="AR54" s="149"/>
-      <c r="AS54" s="149"/>
-      <c r="AT54" s="149"/>
-      <c r="AU54" s="149"/>
-      <c r="AV54" s="150"/>
+      <c r="D54" s="147" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="148"/>
+      <c r="F54" s="148"/>
+      <c r="G54" s="148"/>
+      <c r="H54" s="148"/>
+      <c r="I54" s="148"/>
+      <c r="J54" s="148"/>
+      <c r="K54" s="148"/>
+      <c r="L54" s="148"/>
+      <c r="M54" s="149"/>
+      <c r="N54" s="147" t="s">
+        <v>78</v>
+      </c>
+      <c r="O54" s="148"/>
+      <c r="P54" s="148"/>
+      <c r="Q54" s="148"/>
+      <c r="R54" s="148"/>
+      <c r="S54" s="148"/>
+      <c r="T54" s="148"/>
+      <c r="U54" s="148"/>
+      <c r="V54" s="148"/>
+      <c r="W54" s="149"/>
+      <c r="X54" s="147"/>
+      <c r="Y54" s="150"/>
+      <c r="Z54" s="150"/>
+      <c r="AA54" s="150"/>
+      <c r="AB54" s="148"/>
+      <c r="AC54" s="148"/>
+      <c r="AD54" s="148"/>
+      <c r="AE54" s="148"/>
+      <c r="AF54" s="150"/>
+      <c r="AG54" s="150"/>
+      <c r="AH54" s="148"/>
+      <c r="AI54" s="148"/>
+      <c r="AJ54" s="148"/>
+      <c r="AK54" s="148"/>
+      <c r="AL54" s="148"/>
+      <c r="AM54" s="148"/>
+      <c r="AN54" s="148"/>
+      <c r="AO54" s="148"/>
+      <c r="AP54" s="148"/>
+      <c r="AQ54" s="148"/>
+      <c r="AR54" s="148"/>
+      <c r="AS54" s="148"/>
+      <c r="AT54" s="148"/>
+      <c r="AU54" s="148"/>
+      <c r="AV54" s="149"/>
       <c r="AW54" s="20"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="17"/>
       <c r="B55" s="28"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="152"/>
+      <c r="C55" s="136"/>
+      <c r="D55" s="151"/>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
@@ -12276,15 +12078,15 @@
       <c r="V55" s="19"/>
       <c r="W55" s="19"/>
       <c r="X55" s="19"/>
-      <c r="Y55" s="137"/>
-      <c r="Z55" s="137"/>
-      <c r="AA55" s="137"/>
+      <c r="Y55" s="136"/>
+      <c r="Z55" s="136"/>
+      <c r="AA55" s="136"/>
       <c r="AB55" s="19"/>
       <c r="AC55" s="19"/>
       <c r="AD55" s="19"/>
       <c r="AE55" s="19"/>
-      <c r="AF55" s="137"/>
-      <c r="AG55" s="137"/>
+      <c r="AF55" s="136"/>
+      <c r="AG55" s="136"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
       <c r="AJ55" s="19"/>
@@ -12305,7 +12107,7 @@
       <c r="A56" s="17"/>
       <c r="B56" s="28"/>
       <c r="C56" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
@@ -12326,16 +12128,16 @@
       <c r="T56" s="19"/>
       <c r="U56" s="19"/>
       <c r="V56" s="19"/>
-      <c r="W56" s="137"/>
-      <c r="X56" s="137"/>
-      <c r="Y56" s="137"/>
-      <c r="Z56" s="137"/>
+      <c r="W56" s="136"/>
+      <c r="X56" s="136"/>
+      <c r="Y56" s="136"/>
+      <c r="Z56" s="136"/>
       <c r="AA56" s="19"/>
       <c r="AB56" s="19"/>
       <c r="AC56" s="19"/>
       <c r="AD56" s="19"/>
-      <c r="AE56" s="137"/>
-      <c r="AF56" s="137"/>
+      <c r="AE56" s="136"/>
+      <c r="AF56" s="136"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
@@ -12356,11 +12158,11 @@
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="17"/>
       <c r="B57" s="28"/>
-      <c r="C57" s="138" t="s">
+      <c r="C57" s="137" t="s">
         <v>44</v>
       </c>
       <c r="D57" s="72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E57" s="72"/>
       <c r="F57" s="72"/>
@@ -12371,18 +12173,18 @@
       <c r="K57" s="72"/>
       <c r="L57" s="72"/>
       <c r="M57" s="72"/>
-      <c r="N57" s="139" t="s">
-        <v>61</v>
-      </c>
-      <c r="O57" s="139"/>
-      <c r="P57" s="139"/>
-      <c r="Q57" s="139"/>
-      <c r="R57" s="139"/>
-      <c r="S57" s="139"/>
-      <c r="T57" s="139"/>
-      <c r="U57" s="139"/>
-      <c r="V57" s="139"/>
-      <c r="W57" s="139"/>
+      <c r="N57" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="O57" s="138"/>
+      <c r="P57" s="138"/>
+      <c r="Q57" s="138"/>
+      <c r="R57" s="138"/>
+      <c r="S57" s="138"/>
+      <c r="T57" s="138"/>
+      <c r="U57" s="138"/>
+      <c r="V57" s="138"/>
+      <c r="W57" s="138"/>
       <c r="X57" s="75" t="s">
         <v>47</v>
       </c>
@@ -12415,231 +12217,231 @@
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="17"/>
       <c r="B58" s="28"/>
-      <c r="C58" s="147" t="n">
+      <c r="C58" s="146" t="n">
         <v>1</v>
       </c>
-      <c r="D58" s="148" t="s">
-        <v>77</v>
-      </c>
-      <c r="E58" s="149"/>
-      <c r="F58" s="149"/>
-      <c r="G58" s="149"/>
-      <c r="H58" s="149"/>
-      <c r="I58" s="149"/>
-      <c r="J58" s="149"/>
-      <c r="K58" s="149"/>
-      <c r="L58" s="149"/>
-      <c r="M58" s="150"/>
-      <c r="N58" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="O58" s="149"/>
-      <c r="P58" s="149"/>
-      <c r="Q58" s="149"/>
-      <c r="R58" s="149"/>
-      <c r="S58" s="149"/>
-      <c r="T58" s="149"/>
-      <c r="U58" s="149"/>
-      <c r="V58" s="149"/>
-      <c r="W58" s="150"/>
-      <c r="X58" s="148" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y58" s="151"/>
-      <c r="Z58" s="151"/>
-      <c r="AA58" s="151"/>
-      <c r="AB58" s="149"/>
-      <c r="AC58" s="149"/>
-      <c r="AD58" s="149"/>
-      <c r="AE58" s="149"/>
-      <c r="AF58" s="151"/>
-      <c r="AG58" s="151"/>
-      <c r="AH58" s="149"/>
-      <c r="AI58" s="149"/>
-      <c r="AJ58" s="149"/>
-      <c r="AK58" s="149"/>
-      <c r="AL58" s="149"/>
-      <c r="AM58" s="149"/>
-      <c r="AN58" s="149"/>
-      <c r="AO58" s="149"/>
-      <c r="AP58" s="149"/>
-      <c r="AQ58" s="149"/>
-      <c r="AR58" s="149"/>
-      <c r="AS58" s="149"/>
-      <c r="AT58" s="149"/>
-      <c r="AU58" s="149"/>
-      <c r="AV58" s="153"/>
+      <c r="D58" s="147" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="148"/>
+      <c r="F58" s="148"/>
+      <c r="G58" s="148"/>
+      <c r="H58" s="148"/>
+      <c r="I58" s="148"/>
+      <c r="J58" s="148"/>
+      <c r="K58" s="148"/>
+      <c r="L58" s="148"/>
+      <c r="M58" s="149"/>
+      <c r="N58" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="O58" s="148"/>
+      <c r="P58" s="148"/>
+      <c r="Q58" s="148"/>
+      <c r="R58" s="148"/>
+      <c r="S58" s="148"/>
+      <c r="T58" s="148"/>
+      <c r="U58" s="148"/>
+      <c r="V58" s="148"/>
+      <c r="W58" s="149"/>
+      <c r="X58" s="147" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y58" s="150"/>
+      <c r="Z58" s="150"/>
+      <c r="AA58" s="150"/>
+      <c r="AB58" s="148"/>
+      <c r="AC58" s="148"/>
+      <c r="AD58" s="148"/>
+      <c r="AE58" s="148"/>
+      <c r="AF58" s="150"/>
+      <c r="AG58" s="150"/>
+      <c r="AH58" s="148"/>
+      <c r="AI58" s="148"/>
+      <c r="AJ58" s="148"/>
+      <c r="AK58" s="148"/>
+      <c r="AL58" s="148"/>
+      <c r="AM58" s="148"/>
+      <c r="AN58" s="148"/>
+      <c r="AO58" s="148"/>
+      <c r="AP58" s="148"/>
+      <c r="AQ58" s="148"/>
+      <c r="AR58" s="148"/>
+      <c r="AS58" s="148"/>
+      <c r="AT58" s="148"/>
+      <c r="AU58" s="148"/>
+      <c r="AV58" s="152"/>
       <c r="AW58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="17"/>
       <c r="B59" s="28"/>
-      <c r="C59" s="147" t="n">
+      <c r="C59" s="146" t="n">
         <v>2</v>
       </c>
-      <c r="D59" s="148" t="s">
-        <v>84</v>
-      </c>
-      <c r="E59" s="149"/>
-      <c r="F59" s="149"/>
-      <c r="G59" s="149"/>
-      <c r="H59" s="149"/>
-      <c r="I59" s="149"/>
-      <c r="J59" s="149"/>
-      <c r="K59" s="149"/>
-      <c r="L59" s="149"/>
-      <c r="M59" s="150"/>
-      <c r="N59" s="148" t="s">
+      <c r="D59" s="147" t="s">
         <v>82</v>
       </c>
-      <c r="O59" s="149"/>
-      <c r="P59" s="149"/>
-      <c r="Q59" s="149"/>
-      <c r="R59" s="149"/>
-      <c r="S59" s="149"/>
-      <c r="T59" s="149"/>
-      <c r="U59" s="149"/>
-      <c r="V59" s="149"/>
-      <c r="W59" s="150"/>
-      <c r="X59" s="148"/>
-      <c r="Y59" s="151"/>
-      <c r="Z59" s="151"/>
-      <c r="AA59" s="151"/>
-      <c r="AB59" s="149"/>
-      <c r="AC59" s="149"/>
-      <c r="AD59" s="149"/>
-      <c r="AE59" s="149"/>
-      <c r="AF59" s="151"/>
-      <c r="AG59" s="151"/>
-      <c r="AH59" s="149"/>
-      <c r="AI59" s="149"/>
-      <c r="AJ59" s="149"/>
-      <c r="AK59" s="149"/>
-      <c r="AL59" s="149"/>
-      <c r="AM59" s="149"/>
-      <c r="AN59" s="149"/>
-      <c r="AO59" s="149"/>
-      <c r="AP59" s="149"/>
-      <c r="AQ59" s="149"/>
-      <c r="AR59" s="149"/>
-      <c r="AS59" s="149"/>
-      <c r="AT59" s="149"/>
-      <c r="AU59" s="149"/>
-      <c r="AV59" s="153"/>
+      <c r="E59" s="148"/>
+      <c r="F59" s="148"/>
+      <c r="G59" s="148"/>
+      <c r="H59" s="148"/>
+      <c r="I59" s="148"/>
+      <c r="J59" s="148"/>
+      <c r="K59" s="148"/>
+      <c r="L59" s="148"/>
+      <c r="M59" s="149"/>
+      <c r="N59" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="O59" s="148"/>
+      <c r="P59" s="148"/>
+      <c r="Q59" s="148"/>
+      <c r="R59" s="148"/>
+      <c r="S59" s="148"/>
+      <c r="T59" s="148"/>
+      <c r="U59" s="148"/>
+      <c r="V59" s="148"/>
+      <c r="W59" s="149"/>
+      <c r="X59" s="147"/>
+      <c r="Y59" s="150"/>
+      <c r="Z59" s="150"/>
+      <c r="AA59" s="150"/>
+      <c r="AB59" s="148"/>
+      <c r="AC59" s="148"/>
+      <c r="AD59" s="148"/>
+      <c r="AE59" s="148"/>
+      <c r="AF59" s="150"/>
+      <c r="AG59" s="150"/>
+      <c r="AH59" s="148"/>
+      <c r="AI59" s="148"/>
+      <c r="AJ59" s="148"/>
+      <c r="AK59" s="148"/>
+      <c r="AL59" s="148"/>
+      <c r="AM59" s="148"/>
+      <c r="AN59" s="148"/>
+      <c r="AO59" s="148"/>
+      <c r="AP59" s="148"/>
+      <c r="AQ59" s="148"/>
+      <c r="AR59" s="148"/>
+      <c r="AS59" s="148"/>
+      <c r="AT59" s="148"/>
+      <c r="AU59" s="148"/>
+      <c r="AV59" s="152"/>
       <c r="AW59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="17"/>
       <c r="B60" s="28"/>
-      <c r="C60" s="147" t="n">
+      <c r="C60" s="146" t="n">
         <v>3</v>
       </c>
-      <c r="D60" s="148" t="s">
-        <v>70</v>
-      </c>
-      <c r="E60" s="149"/>
-      <c r="F60" s="149"/>
-      <c r="G60" s="149"/>
-      <c r="H60" s="149"/>
-      <c r="I60" s="149"/>
-      <c r="J60" s="149"/>
-      <c r="K60" s="149"/>
-      <c r="L60" s="149"/>
-      <c r="M60" s="150"/>
-      <c r="N60" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="O60" s="149"/>
-      <c r="P60" s="149"/>
-      <c r="Q60" s="149"/>
-      <c r="R60" s="149"/>
-      <c r="S60" s="149"/>
-      <c r="T60" s="149"/>
-      <c r="U60" s="149"/>
-      <c r="V60" s="149"/>
-      <c r="W60" s="150"/>
-      <c r="X60" s="148"/>
-      <c r="Y60" s="151"/>
-      <c r="Z60" s="151"/>
-      <c r="AA60" s="151"/>
-      <c r="AB60" s="149"/>
-      <c r="AC60" s="149"/>
-      <c r="AD60" s="149"/>
-      <c r="AE60" s="149"/>
-      <c r="AF60" s="151"/>
-      <c r="AG60" s="151"/>
-      <c r="AH60" s="149"/>
-      <c r="AI60" s="149"/>
-      <c r="AJ60" s="149"/>
-      <c r="AK60" s="149"/>
-      <c r="AL60" s="149"/>
-      <c r="AM60" s="149"/>
-      <c r="AN60" s="149"/>
-      <c r="AO60" s="149"/>
-      <c r="AP60" s="149"/>
-      <c r="AQ60" s="149"/>
-      <c r="AR60" s="149"/>
-      <c r="AS60" s="149"/>
-      <c r="AT60" s="149"/>
-      <c r="AU60" s="149"/>
-      <c r="AV60" s="153"/>
+      <c r="D60" s="147" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="148"/>
+      <c r="F60" s="148"/>
+      <c r="G60" s="148"/>
+      <c r="H60" s="148"/>
+      <c r="I60" s="148"/>
+      <c r="J60" s="148"/>
+      <c r="K60" s="148"/>
+      <c r="L60" s="148"/>
+      <c r="M60" s="149"/>
+      <c r="N60" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="O60" s="148"/>
+      <c r="P60" s="148"/>
+      <c r="Q60" s="148"/>
+      <c r="R60" s="148"/>
+      <c r="S60" s="148"/>
+      <c r="T60" s="148"/>
+      <c r="U60" s="148"/>
+      <c r="V60" s="148"/>
+      <c r="W60" s="149"/>
+      <c r="X60" s="147"/>
+      <c r="Y60" s="150"/>
+      <c r="Z60" s="150"/>
+      <c r="AA60" s="150"/>
+      <c r="AB60" s="148"/>
+      <c r="AC60" s="148"/>
+      <c r="AD60" s="148"/>
+      <c r="AE60" s="148"/>
+      <c r="AF60" s="150"/>
+      <c r="AG60" s="150"/>
+      <c r="AH60" s="148"/>
+      <c r="AI60" s="148"/>
+      <c r="AJ60" s="148"/>
+      <c r="AK60" s="148"/>
+      <c r="AL60" s="148"/>
+      <c r="AM60" s="148"/>
+      <c r="AN60" s="148"/>
+      <c r="AO60" s="148"/>
+      <c r="AP60" s="148"/>
+      <c r="AQ60" s="148"/>
+      <c r="AR60" s="148"/>
+      <c r="AS60" s="148"/>
+      <c r="AT60" s="148"/>
+      <c r="AU60" s="148"/>
+      <c r="AV60" s="152"/>
       <c r="AW60" s="20"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="17"/>
       <c r="B61" s="28"/>
-      <c r="C61" s="147" t="n">
+      <c r="C61" s="146" t="n">
         <v>4</v>
       </c>
-      <c r="D61" s="148" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" s="149"/>
-      <c r="F61" s="149"/>
-      <c r="G61" s="149"/>
-      <c r="H61" s="149"/>
-      <c r="I61" s="149"/>
-      <c r="J61" s="149"/>
-      <c r="K61" s="149"/>
-      <c r="L61" s="149"/>
-      <c r="M61" s="150"/>
-      <c r="N61" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="O61" s="149"/>
-      <c r="P61" s="149"/>
-      <c r="Q61" s="149"/>
-      <c r="R61" s="149"/>
-      <c r="S61" s="149"/>
-      <c r="T61" s="149"/>
-      <c r="U61" s="149"/>
-      <c r="V61" s="149"/>
-      <c r="W61" s="150"/>
-      <c r="X61" s="148"/>
-      <c r="Y61" s="151"/>
-      <c r="Z61" s="151"/>
-      <c r="AA61" s="151"/>
-      <c r="AB61" s="149"/>
-      <c r="AC61" s="149"/>
-      <c r="AD61" s="149"/>
-      <c r="AE61" s="149"/>
-      <c r="AF61" s="151"/>
-      <c r="AG61" s="151"/>
-      <c r="AH61" s="149"/>
-      <c r="AI61" s="149"/>
-      <c r="AJ61" s="149"/>
-      <c r="AK61" s="149"/>
-      <c r="AL61" s="149"/>
-      <c r="AM61" s="149"/>
-      <c r="AN61" s="149"/>
-      <c r="AO61" s="149"/>
-      <c r="AP61" s="149"/>
-      <c r="AQ61" s="149"/>
-      <c r="AR61" s="149"/>
-      <c r="AS61" s="149"/>
-      <c r="AT61" s="149"/>
-      <c r="AU61" s="149"/>
-      <c r="AV61" s="153"/>
+      <c r="D61" s="147" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="148"/>
+      <c r="F61" s="148"/>
+      <c r="G61" s="148"/>
+      <c r="H61" s="148"/>
+      <c r="I61" s="148"/>
+      <c r="J61" s="148"/>
+      <c r="K61" s="148"/>
+      <c r="L61" s="148"/>
+      <c r="M61" s="149"/>
+      <c r="N61" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="O61" s="148"/>
+      <c r="P61" s="148"/>
+      <c r="Q61" s="148"/>
+      <c r="R61" s="148"/>
+      <c r="S61" s="148"/>
+      <c r="T61" s="148"/>
+      <c r="U61" s="148"/>
+      <c r="V61" s="148"/>
+      <c r="W61" s="149"/>
+      <c r="X61" s="147"/>
+      <c r="Y61" s="150"/>
+      <c r="Z61" s="150"/>
+      <c r="AA61" s="150"/>
+      <c r="AB61" s="148"/>
+      <c r="AC61" s="148"/>
+      <c r="AD61" s="148"/>
+      <c r="AE61" s="148"/>
+      <c r="AF61" s="150"/>
+      <c r="AG61" s="150"/>
+      <c r="AH61" s="148"/>
+      <c r="AI61" s="148"/>
+      <c r="AJ61" s="148"/>
+      <c r="AK61" s="148"/>
+      <c r="AL61" s="148"/>
+      <c r="AM61" s="148"/>
+      <c r="AN61" s="148"/>
+      <c r="AO61" s="148"/>
+      <c r="AP61" s="148"/>
+      <c r="AQ61" s="148"/>
+      <c r="AR61" s="148"/>
+      <c r="AS61" s="148"/>
+      <c r="AT61" s="148"/>
+      <c r="AU61" s="148"/>
+      <c r="AV61" s="152"/>
       <c r="AW61" s="20"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12696,8 +12498,8 @@
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="17"/>
       <c r="B63" s="28"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="152"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="151"/>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
@@ -12718,15 +12520,15 @@
       <c r="V63" s="19"/>
       <c r="W63" s="19"/>
       <c r="X63" s="19"/>
-      <c r="Y63" s="137"/>
-      <c r="Z63" s="137"/>
-      <c r="AA63" s="137"/>
+      <c r="Y63" s="136"/>
+      <c r="Z63" s="136"/>
+      <c r="AA63" s="136"/>
       <c r="AB63" s="19"/>
       <c r="AC63" s="19"/>
       <c r="AD63" s="19"/>
       <c r="AE63" s="19"/>
-      <c r="AF63" s="137"/>
-      <c r="AG63" s="137"/>
+      <c r="AF63" s="136"/>
+      <c r="AG63" s="136"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
       <c r="AJ63" s="19"/>
@@ -12746,8 +12548,8 @@
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="17"/>
       <c r="B64" s="28"/>
-      <c r="C64" s="137"/>
-      <c r="D64" s="152"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="151"/>
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
@@ -12768,15 +12570,15 @@
       <c r="V64" s="19"/>
       <c r="W64" s="19"/>
       <c r="X64" s="19"/>
-      <c r="Y64" s="137"/>
-      <c r="Z64" s="137"/>
-      <c r="AA64" s="137"/>
+      <c r="Y64" s="136"/>
+      <c r="Z64" s="136"/>
+      <c r="AA64" s="136"/>
       <c r="AB64" s="19"/>
       <c r="AC64" s="19"/>
       <c r="AD64" s="19"/>
       <c r="AE64" s="19"/>
-      <c r="AF64" s="137"/>
-      <c r="AG64" s="137"/>
+      <c r="AF64" s="136"/>
+      <c r="AG64" s="136"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
       <c r="AJ64" s="19"/>
@@ -12796,8 +12598,8 @@
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="17"/>
       <c r="B65" s="28"/>
-      <c r="C65" s="137"/>
-      <c r="D65" s="152"/>
+      <c r="C65" s="136"/>
+      <c r="D65" s="151"/>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
@@ -12818,15 +12620,15 @@
       <c r="V65" s="19"/>
       <c r="W65" s="19"/>
       <c r="X65" s="19"/>
-      <c r="Y65" s="137"/>
-      <c r="Z65" s="137"/>
-      <c r="AA65" s="137"/>
+      <c r="Y65" s="136"/>
+      <c r="Z65" s="136"/>
+      <c r="AA65" s="136"/>
       <c r="AB65" s="19"/>
       <c r="AC65" s="19"/>
       <c r="AD65" s="19"/>
       <c r="AE65" s="19"/>
-      <c r="AF65" s="137"/>
-      <c r="AG65" s="137"/>
+      <c r="AF65" s="136"/>
+      <c r="AG65" s="136"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
       <c r="AJ65" s="19"/>
@@ -12846,8 +12648,8 @@
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="17"/>
       <c r="B66" s="28"/>
-      <c r="C66" s="137"/>
-      <c r="D66" s="152"/>
+      <c r="C66" s="136"/>
+      <c r="D66" s="151"/>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
@@ -12868,15 +12670,15 @@
       <c r="V66" s="19"/>
       <c r="W66" s="19"/>
       <c r="X66" s="19"/>
-      <c r="Y66" s="137"/>
-      <c r="Z66" s="137"/>
-      <c r="AA66" s="137"/>
+      <c r="Y66" s="136"/>
+      <c r="Z66" s="136"/>
+      <c r="AA66" s="136"/>
       <c r="AB66" s="19"/>
       <c r="AC66" s="19"/>
       <c r="AD66" s="19"/>
       <c r="AE66" s="19"/>
-      <c r="AF66" s="137"/>
-      <c r="AG66" s="137"/>
+      <c r="AF66" s="136"/>
+      <c r="AG66" s="136"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
       <c r="AJ66" s="19"/>
@@ -12896,8 +12698,8 @@
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="17"/>
       <c r="B67" s="28"/>
-      <c r="C67" s="137"/>
-      <c r="D67" s="152"/>
+      <c r="C67" s="136"/>
+      <c r="D67" s="151"/>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
@@ -12918,15 +12720,15 @@
       <c r="V67" s="19"/>
       <c r="W67" s="19"/>
       <c r="X67" s="19"/>
-      <c r="Y67" s="137"/>
-      <c r="Z67" s="137"/>
-      <c r="AA67" s="137"/>
+      <c r="Y67" s="136"/>
+      <c r="Z67" s="136"/>
+      <c r="AA67" s="136"/>
       <c r="AB67" s="19"/>
       <c r="AC67" s="19"/>
       <c r="AD67" s="19"/>
       <c r="AE67" s="19"/>
-      <c r="AF67" s="137"/>
-      <c r="AG67" s="137"/>
+      <c r="AF67" s="136"/>
+      <c r="AG67" s="136"/>
       <c r="AH67" s="19"/>
       <c r="AI67" s="19"/>
       <c r="AJ67" s="19"/>
@@ -12946,8 +12748,8 @@
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="17"/>
       <c r="B68" s="28"/>
-      <c r="C68" s="137"/>
-      <c r="D68" s="152"/>
+      <c r="C68" s="136"/>
+      <c r="D68" s="151"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
@@ -12968,15 +12770,15 @@
       <c r="V68" s="19"/>
       <c r="W68" s="19"/>
       <c r="X68" s="19"/>
-      <c r="Y68" s="137"/>
-      <c r="Z68" s="137"/>
-      <c r="AA68" s="137"/>
+      <c r="Y68" s="136"/>
+      <c r="Z68" s="136"/>
+      <c r="AA68" s="136"/>
       <c r="AB68" s="19"/>
       <c r="AC68" s="19"/>
       <c r="AD68" s="19"/>
       <c r="AE68" s="19"/>
-      <c r="AF68" s="137"/>
-      <c r="AG68" s="137"/>
+      <c r="AF68" s="136"/>
+      <c r="AG68" s="136"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
       <c r="AJ68" s="19"/>
@@ -12996,8 +12798,8 @@
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="17"/>
       <c r="B69" s="28"/>
-      <c r="C69" s="137"/>
-      <c r="D69" s="152"/>
+      <c r="C69" s="136"/>
+      <c r="D69" s="151"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
@@ -13018,15 +12820,15 @@
       <c r="V69" s="19"/>
       <c r="W69" s="19"/>
       <c r="X69" s="19"/>
-      <c r="Y69" s="137"/>
-      <c r="Z69" s="137"/>
-      <c r="AA69" s="137"/>
+      <c r="Y69" s="136"/>
+      <c r="Z69" s="136"/>
+      <c r="AA69" s="136"/>
       <c r="AB69" s="19"/>
       <c r="AC69" s="19"/>
       <c r="AD69" s="19"/>
       <c r="AE69" s="19"/>
-      <c r="AF69" s="137"/>
-      <c r="AG69" s="137"/>
+      <c r="AF69" s="136"/>
+      <c r="AG69" s="136"/>
       <c r="AH69" s="19"/>
       <c r="AI69" s="19"/>
       <c r="AJ69" s="19"/>
@@ -13046,8 +12848,8 @@
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="17"/>
       <c r="B70" s="28"/>
-      <c r="C70" s="137"/>
-      <c r="D70" s="152"/>
+      <c r="C70" s="136"/>
+      <c r="D70" s="151"/>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
@@ -13068,15 +12870,15 @@
       <c r="V70" s="19"/>
       <c r="W70" s="19"/>
       <c r="X70" s="19"/>
-      <c r="Y70" s="137"/>
-      <c r="Z70" s="137"/>
-      <c r="AA70" s="137"/>
+      <c r="Y70" s="136"/>
+      <c r="Z70" s="136"/>
+      <c r="AA70" s="136"/>
       <c r="AB70" s="19"/>
       <c r="AC70" s="19"/>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19"/>
-      <c r="AF70" s="137"/>
-      <c r="AG70" s="137"/>
+      <c r="AF70" s="136"/>
+      <c r="AG70" s="136"/>
       <c r="AH70" s="19"/>
       <c r="AI70" s="19"/>
       <c r="AJ70" s="19"/>
@@ -13096,8 +12898,8 @@
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="17"/>
       <c r="B71" s="28"/>
-      <c r="C71" s="137"/>
-      <c r="D71" s="152"/>
+      <c r="C71" s="136"/>
+      <c r="D71" s="151"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
@@ -13118,15 +12920,15 @@
       <c r="V71" s="19"/>
       <c r="W71" s="19"/>
       <c r="X71" s="19"/>
-      <c r="Y71" s="137"/>
-      <c r="Z71" s="137"/>
-      <c r="AA71" s="137"/>
+      <c r="Y71" s="136"/>
+      <c r="Z71" s="136"/>
+      <c r="AA71" s="136"/>
       <c r="AB71" s="19"/>
       <c r="AC71" s="19"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
-      <c r="AF71" s="137"/>
-      <c r="AG71" s="137"/>
+      <c r="AF71" s="136"/>
+      <c r="AG71" s="136"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
       <c r="AJ71" s="19"/>
@@ -13146,8 +12948,8 @@
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="17"/>
       <c r="B72" s="28"/>
-      <c r="C72" s="137"/>
-      <c r="D72" s="152"/>
+      <c r="C72" s="136"/>
+      <c r="D72" s="151"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
@@ -13168,15 +12970,15 @@
       <c r="V72" s="19"/>
       <c r="W72" s="19"/>
       <c r="X72" s="19"/>
-      <c r="Y72" s="137"/>
-      <c r="Z72" s="137"/>
-      <c r="AA72" s="137"/>
+      <c r="Y72" s="136"/>
+      <c r="Z72" s="136"/>
+      <c r="AA72" s="136"/>
       <c r="AB72" s="19"/>
       <c r="AC72" s="19"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
-      <c r="AF72" s="137"/>
-      <c r="AG72" s="137"/>
+      <c r="AF72" s="136"/>
+      <c r="AG72" s="136"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
       <c r="AJ72" s="19"/>
@@ -13196,8 +12998,8 @@
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="17"/>
       <c r="B73" s="28"/>
-      <c r="C73" s="137"/>
-      <c r="D73" s="152"/>
+      <c r="C73" s="136"/>
+      <c r="D73" s="151"/>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
@@ -13218,15 +13020,15 @@
       <c r="V73" s="19"/>
       <c r="W73" s="19"/>
       <c r="X73" s="19"/>
-      <c r="Y73" s="137"/>
-      <c r="Z73" s="137"/>
-      <c r="AA73" s="137"/>
+      <c r="Y73" s="136"/>
+      <c r="Z73" s="136"/>
+      <c r="AA73" s="136"/>
       <c r="AB73" s="19"/>
       <c r="AC73" s="19"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
-      <c r="AF73" s="137"/>
-      <c r="AG73" s="137"/>
+      <c r="AF73" s="136"/>
+      <c r="AG73" s="136"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
       <c r="AJ73" s="19"/>
@@ -13297,7 +13099,7 @@
       </c>
       <c r="AN74" s="6"/>
       <c r="AO74" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP74" s="7"/>
       <c r="AQ74" s="7"/>
@@ -13443,7 +13245,7 @@
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="17"/>
       <c r="B78" s="59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
@@ -13476,7 +13278,7 @@
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="17"/>
       <c r="C79" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
@@ -13509,7 +13311,7 @@
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="17"/>
       <c r="D80" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
@@ -13571,7 +13373,7 @@
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="17"/>
       <c r="C82" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
@@ -13604,7 +13406,7 @@
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="17"/>
       <c r="D83" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
@@ -13636,7 +13438,7 @@
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="17"/>
       <c r="D84" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
@@ -13668,7 +13470,7 @@
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="17"/>
       <c r="D85" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
@@ -13730,7 +13532,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="C87" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
@@ -14594,7 +14396,7 @@
       </c>
       <c r="AN114" s="6"/>
       <c r="AO114" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP114" s="7"/>
       <c r="AQ114" s="7"/>
@@ -14756,7 +14558,7 @@
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="17"/>
       <c r="B118" s="59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D118" s="19"/>
       <c r="E118" s="19"/>
@@ -14789,7 +14591,7 @@
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="17"/>
       <c r="C119" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D119" s="19"/>
       <c r="E119" s="19"/>
@@ -14822,7 +14624,7 @@
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="17"/>
       <c r="D120" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" s="19"/>
@@ -14855,7 +14657,7 @@
       <c r="A121" s="17"/>
       <c r="B121" s="0"/>
       <c r="C121" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AM121" s="19"/>
       <c r="AN121" s="19"/>
@@ -14874,7 +14676,7 @@
         <v>44</v>
       </c>
       <c r="D122" s="72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E122" s="72"/>
       <c r="F122" s="72"/>
@@ -14882,18 +14684,18 @@
       <c r="H122" s="72"/>
       <c r="I122" s="72"/>
       <c r="J122" s="73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K122" s="73"/>
       <c r="L122" s="73"/>
       <c r="M122" s="73"/>
       <c r="N122" s="73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O122" s="73"/>
       <c r="P122" s="73"/>
       <c r="Q122" s="72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R122" s="72"/>
       <c r="S122" s="72"/>
@@ -14902,17 +14704,17 @@
       </c>
       <c r="U122" s="72"/>
       <c r="V122" s="75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W122" s="75"/>
       <c r="X122" s="75"/>
       <c r="Y122" s="75"/>
-      <c r="Z122" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA122" s="108"/>
-      <c r="AB122" s="108"/>
-      <c r="AC122" s="108"/>
+      <c r="Z122" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA122" s="107"/>
+      <c r="AB122" s="107"/>
+      <c r="AC122" s="107"/>
       <c r="AD122" s="75" t="s">
         <v>47</v>
       </c>
@@ -14939,253 +14741,253 @@
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="17"/>
       <c r="B123" s="0"/>
-      <c r="C123" s="110" t="n">
+      <c r="C123" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="D123" s="111" t="s">
+      <c r="D123" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="E123" s="111"/>
+      <c r="F123" s="111"/>
+      <c r="G123" s="112"/>
+      <c r="H123" s="112"/>
+      <c r="I123" s="113"/>
+      <c r="J123" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="E123" s="112"/>
-      <c r="F123" s="112"/>
-      <c r="G123" s="113"/>
-      <c r="H123" s="113"/>
-      <c r="I123" s="114"/>
-      <c r="J123" s="115" t="s">
+      <c r="K123" s="112"/>
+      <c r="L123" s="112"/>
+      <c r="M123" s="112"/>
+      <c r="N123" s="114"/>
+      <c r="O123" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="K123" s="113"/>
-      <c r="L123" s="113"/>
-      <c r="M123" s="113"/>
-      <c r="N123" s="115"/>
-      <c r="O123" s="113" t="s">
+      <c r="P123" s="112"/>
+      <c r="Q123" s="114"/>
+      <c r="R123" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="P123" s="113"/>
-      <c r="Q123" s="115"/>
-      <c r="R123" s="113" t="s">
+      <c r="S123" s="115"/>
+      <c r="T123" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="U123" s="109"/>
+      <c r="V123" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="S123" s="116"/>
-      <c r="T123" s="110" t="s">
+      <c r="W123" s="111"/>
+      <c r="X123" s="111"/>
+      <c r="Y123" s="115"/>
+      <c r="Z123" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="U123" s="110"/>
-      <c r="V123" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="W123" s="112"/>
-      <c r="X123" s="112"/>
-      <c r="Y123" s="116"/>
-      <c r="Z123" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA123" s="112"/>
-      <c r="AB123" s="112"/>
-      <c r="AC123" s="112"/>
-      <c r="AD123" s="111"/>
-      <c r="AE123" s="112"/>
-      <c r="AF123" s="112"/>
-      <c r="AG123" s="112"/>
-      <c r="AH123" s="112"/>
-      <c r="AI123" s="112"/>
-      <c r="AJ123" s="112"/>
-      <c r="AK123" s="112"/>
-      <c r="AL123" s="112"/>
-      <c r="AM123" s="112"/>
-      <c r="AN123" s="112"/>
-      <c r="AO123" s="112"/>
-      <c r="AP123" s="112"/>
-      <c r="AQ123" s="112"/>
-      <c r="AR123" s="112"/>
-      <c r="AS123" s="112"/>
-      <c r="AT123" s="112"/>
-      <c r="AU123" s="112"/>
-      <c r="AV123" s="118"/>
+      <c r="AA123" s="111"/>
+      <c r="AB123" s="111"/>
+      <c r="AC123" s="111"/>
+      <c r="AD123" s="110"/>
+      <c r="AE123" s="111"/>
+      <c r="AF123" s="111"/>
+      <c r="AG123" s="111"/>
+      <c r="AH123" s="111"/>
+      <c r="AI123" s="111"/>
+      <c r="AJ123" s="111"/>
+      <c r="AK123" s="111"/>
+      <c r="AL123" s="111"/>
+      <c r="AM123" s="111"/>
+      <c r="AN123" s="111"/>
+      <c r="AO123" s="111"/>
+      <c r="AP123" s="111"/>
+      <c r="AQ123" s="111"/>
+      <c r="AR123" s="111"/>
+      <c r="AS123" s="111"/>
+      <c r="AT123" s="111"/>
+      <c r="AU123" s="111"/>
+      <c r="AV123" s="117"/>
       <c r="AW123" s="20"/>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="17"/>
       <c r="B124" s="0"/>
-      <c r="C124" s="110" t="n">
+      <c r="C124" s="109" t="n">
         <v>2</v>
       </c>
-      <c r="D124" s="120" t="s">
+      <c r="D124" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="E124" s="120"/>
+      <c r="F124" s="120"/>
+      <c r="G124" s="121"/>
+      <c r="H124" s="121"/>
+      <c r="I124" s="122"/>
+      <c r="J124" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="K124" s="121"/>
+      <c r="L124" s="121"/>
+      <c r="M124" s="121"/>
+      <c r="N124" s="123"/>
+      <c r="O124" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="P124" s="121"/>
+      <c r="Q124" s="123"/>
+      <c r="R124" s="121" t="s">
+        <v>65</v>
+      </c>
+      <c r="S124" s="124"/>
+      <c r="T124" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="U124" s="125"/>
+      <c r="V124" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="W124" s="120"/>
+      <c r="X124" s="120"/>
+      <c r="Y124" s="124"/>
+      <c r="Z124" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="E124" s="121"/>
-      <c r="F124" s="121"/>
-      <c r="G124" s="122"/>
-      <c r="H124" s="122"/>
-      <c r="I124" s="123"/>
-      <c r="J124" s="115" t="s">
-        <v>64</v>
-      </c>
-      <c r="K124" s="122"/>
-      <c r="L124" s="122"/>
-      <c r="M124" s="122"/>
-      <c r="N124" s="124"/>
-      <c r="O124" s="122" t="s">
-        <v>71</v>
-      </c>
-      <c r="P124" s="122"/>
-      <c r="Q124" s="124"/>
-      <c r="R124" s="122" t="s">
-        <v>66</v>
-      </c>
-      <c r="S124" s="125"/>
-      <c r="T124" s="126" t="s">
-        <v>67</v>
-      </c>
-      <c r="U124" s="126"/>
-      <c r="V124" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="W124" s="121"/>
-      <c r="X124" s="121"/>
-      <c r="Y124" s="125"/>
-      <c r="Z124" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA124" s="121"/>
-      <c r="AB124" s="121"/>
-      <c r="AC124" s="121"/>
-      <c r="AD124" s="120"/>
-      <c r="AE124" s="121"/>
-      <c r="AF124" s="121"/>
-      <c r="AG124" s="121"/>
-      <c r="AH124" s="121"/>
-      <c r="AI124" s="121"/>
-      <c r="AJ124" s="121"/>
-      <c r="AK124" s="121"/>
-      <c r="AL124" s="121"/>
-      <c r="AM124" s="121"/>
-      <c r="AN124" s="121"/>
-      <c r="AO124" s="121"/>
-      <c r="AP124" s="121"/>
-      <c r="AQ124" s="121"/>
-      <c r="AR124" s="121"/>
-      <c r="AS124" s="121"/>
-      <c r="AT124" s="121"/>
-      <c r="AU124" s="121"/>
-      <c r="AV124" s="127"/>
+      <c r="AA124" s="120"/>
+      <c r="AB124" s="120"/>
+      <c r="AC124" s="120"/>
+      <c r="AD124" s="119"/>
+      <c r="AE124" s="120"/>
+      <c r="AF124" s="120"/>
+      <c r="AG124" s="120"/>
+      <c r="AH124" s="120"/>
+      <c r="AI124" s="120"/>
+      <c r="AJ124" s="120"/>
+      <c r="AK124" s="120"/>
+      <c r="AL124" s="120"/>
+      <c r="AM124" s="120"/>
+      <c r="AN124" s="120"/>
+      <c r="AO124" s="120"/>
+      <c r="AP124" s="120"/>
+      <c r="AQ124" s="120"/>
+      <c r="AR124" s="120"/>
+      <c r="AS124" s="120"/>
+      <c r="AT124" s="120"/>
+      <c r="AU124" s="120"/>
+      <c r="AV124" s="126"/>
       <c r="AW124" s="20"/>
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="17"/>
       <c r="B125" s="0"/>
-      <c r="C125" s="110" t="n">
+      <c r="C125" s="109" t="n">
         <v>3</v>
       </c>
-      <c r="D125" s="120" t="s">
+      <c r="D125" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="E125" s="120"/>
+      <c r="F125" s="120"/>
+      <c r="G125" s="121"/>
+      <c r="H125" s="121"/>
+      <c r="I125" s="122"/>
+      <c r="J125" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="K125" s="127"/>
+      <c r="L125" s="127"/>
+      <c r="M125" s="128"/>
+      <c r="N125" s="127"/>
+      <c r="O125" s="127" t="s">
+        <v>72</v>
+      </c>
+      <c r="P125" s="127"/>
+      <c r="Q125" s="129"/>
+      <c r="R125" s="127" t="s">
+        <v>65</v>
+      </c>
+      <c r="S125" s="130"/>
+      <c r="T125" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="U125" s="131"/>
+      <c r="V125" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="W125" s="132"/>
+      <c r="X125" s="132"/>
+      <c r="Y125" s="130"/>
+      <c r="Z125" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="E125" s="121"/>
-      <c r="F125" s="121"/>
-      <c r="G125" s="122"/>
-      <c r="H125" s="122"/>
-      <c r="I125" s="123"/>
-      <c r="J125" s="115" t="s">
-        <v>64</v>
-      </c>
-      <c r="K125" s="128"/>
-      <c r="L125" s="128"/>
-      <c r="M125" s="129"/>
-      <c r="N125" s="128"/>
-      <c r="O125" s="128" t="s">
-        <v>74</v>
-      </c>
-      <c r="P125" s="128"/>
-      <c r="Q125" s="130"/>
-      <c r="R125" s="128" t="s">
-        <v>66</v>
-      </c>
-      <c r="S125" s="131"/>
-      <c r="T125" s="132" t="s">
-        <v>67</v>
-      </c>
-      <c r="U125" s="132"/>
-      <c r="V125" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="W125" s="133"/>
-      <c r="X125" s="133"/>
-      <c r="Y125" s="131"/>
-      <c r="Z125" s="134" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA125" s="133"/>
-      <c r="AB125" s="133"/>
-      <c r="AC125" s="133"/>
-      <c r="AD125" s="135"/>
-      <c r="AE125" s="133"/>
-      <c r="AF125" s="133"/>
-      <c r="AG125" s="133"/>
-      <c r="AH125" s="133"/>
-      <c r="AI125" s="133"/>
-      <c r="AJ125" s="133"/>
-      <c r="AK125" s="133"/>
-      <c r="AL125" s="133"/>
-      <c r="AM125" s="133"/>
-      <c r="AN125" s="133"/>
-      <c r="AO125" s="133"/>
-      <c r="AP125" s="133"/>
-      <c r="AQ125" s="133"/>
-      <c r="AR125" s="133"/>
-      <c r="AS125" s="133"/>
-      <c r="AT125" s="133"/>
-      <c r="AU125" s="133"/>
-      <c r="AV125" s="136"/>
+      <c r="AA125" s="132"/>
+      <c r="AB125" s="132"/>
+      <c r="AC125" s="132"/>
+      <c r="AD125" s="134"/>
+      <c r="AE125" s="132"/>
+      <c r="AF125" s="132"/>
+      <c r="AG125" s="132"/>
+      <c r="AH125" s="132"/>
+      <c r="AI125" s="132"/>
+      <c r="AJ125" s="132"/>
+      <c r="AK125" s="132"/>
+      <c r="AL125" s="132"/>
+      <c r="AM125" s="132"/>
+      <c r="AN125" s="132"/>
+      <c r="AO125" s="132"/>
+      <c r="AP125" s="132"/>
+      <c r="AQ125" s="132"/>
+      <c r="AR125" s="132"/>
+      <c r="AS125" s="132"/>
+      <c r="AT125" s="132"/>
+      <c r="AU125" s="132"/>
+      <c r="AV125" s="135"/>
       <c r="AW125" s="20"/>
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
       <c r="B126" s="0"/>
-      <c r="C126" s="110"/>
-      <c r="D126" s="120"/>
-      <c r="E126" s="121"/>
-      <c r="F126" s="121"/>
-      <c r="G126" s="122"/>
-      <c r="H126" s="122"/>
-      <c r="I126" s="123"/>
-      <c r="J126" s="130"/>
-      <c r="K126" s="128"/>
-      <c r="L126" s="128"/>
-      <c r="M126" s="129"/>
-      <c r="N126" s="128"/>
-      <c r="O126" s="128"/>
-      <c r="P126" s="128"/>
-      <c r="Q126" s="130"/>
-      <c r="R126" s="128"/>
-      <c r="S126" s="131"/>
-      <c r="T126" s="132"/>
-      <c r="U126" s="132"/>
-      <c r="V126" s="135"/>
-      <c r="W126" s="133"/>
-      <c r="X126" s="133"/>
-      <c r="Y126" s="131"/>
-      <c r="Z126" s="134"/>
-      <c r="AA126" s="133"/>
-      <c r="AB126" s="133"/>
-      <c r="AC126" s="133"/>
-      <c r="AD126" s="135"/>
-      <c r="AE126" s="133"/>
-      <c r="AF126" s="133"/>
-      <c r="AG126" s="133"/>
-      <c r="AH126" s="133"/>
-      <c r="AI126" s="133"/>
-      <c r="AJ126" s="133"/>
-      <c r="AK126" s="133"/>
-      <c r="AL126" s="133"/>
-      <c r="AM126" s="133"/>
-      <c r="AN126" s="133"/>
-      <c r="AO126" s="133"/>
-      <c r="AP126" s="133"/>
-      <c r="AQ126" s="133"/>
-      <c r="AR126" s="133"/>
-      <c r="AS126" s="133"/>
-      <c r="AT126" s="133"/>
-      <c r="AU126" s="133"/>
-      <c r="AV126" s="136"/>
+      <c r="C126" s="109"/>
+      <c r="D126" s="119"/>
+      <c r="E126" s="120"/>
+      <c r="F126" s="120"/>
+      <c r="G126" s="121"/>
+      <c r="H126" s="121"/>
+      <c r="I126" s="122"/>
+      <c r="J126" s="129"/>
+      <c r="K126" s="127"/>
+      <c r="L126" s="127"/>
+      <c r="M126" s="128"/>
+      <c r="N126" s="127"/>
+      <c r="O126" s="127"/>
+      <c r="P126" s="127"/>
+      <c r="Q126" s="129"/>
+      <c r="R126" s="127"/>
+      <c r="S126" s="130"/>
+      <c r="T126" s="131"/>
+      <c r="U126" s="131"/>
+      <c r="V126" s="134"/>
+      <c r="W126" s="132"/>
+      <c r="X126" s="132"/>
+      <c r="Y126" s="130"/>
+      <c r="Z126" s="133"/>
+      <c r="AA126" s="132"/>
+      <c r="AB126" s="132"/>
+      <c r="AC126" s="132"/>
+      <c r="AD126" s="134"/>
+      <c r="AE126" s="132"/>
+      <c r="AF126" s="132"/>
+      <c r="AG126" s="132"/>
+      <c r="AH126" s="132"/>
+      <c r="AI126" s="132"/>
+      <c r="AJ126" s="132"/>
+      <c r="AK126" s="132"/>
+      <c r="AL126" s="132"/>
+      <c r="AM126" s="132"/>
+      <c r="AN126" s="132"/>
+      <c r="AO126" s="132"/>
+      <c r="AP126" s="132"/>
+      <c r="AQ126" s="132"/>
+      <c r="AR126" s="132"/>
+      <c r="AS126" s="132"/>
+      <c r="AT126" s="132"/>
+      <c r="AU126" s="132"/>
+      <c r="AV126" s="135"/>
       <c r="AW126" s="20"/>
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15197,7 +14999,7 @@
       <c r="A128" s="17"/>
       <c r="B128" s="0"/>
       <c r="C128" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D128" s="19"/>
       <c r="E128" s="19"/>
@@ -15218,16 +15020,16 @@
       <c r="T128" s="19"/>
       <c r="U128" s="19"/>
       <c r="V128" s="19"/>
-      <c r="W128" s="137"/>
-      <c r="X128" s="137"/>
-      <c r="Y128" s="137"/>
-      <c r="Z128" s="137"/>
+      <c r="W128" s="136"/>
+      <c r="X128" s="136"/>
+      <c r="Y128" s="136"/>
+      <c r="Z128" s="136"/>
       <c r="AA128" s="19"/>
       <c r="AB128" s="19"/>
       <c r="AC128" s="19"/>
       <c r="AD128" s="19"/>
-      <c r="AE128" s="137"/>
-      <c r="AF128" s="137"/>
+      <c r="AE128" s="136"/>
+      <c r="AF128" s="136"/>
       <c r="AG128" s="19"/>
       <c r="AH128" s="19"/>
       <c r="AI128" s="19"/>
@@ -15248,11 +15050,11 @@
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="17"/>
       <c r="B129" s="0"/>
-      <c r="C129" s="138" t="s">
+      <c r="C129" s="137" t="s">
         <v>44</v>
       </c>
       <c r="D129" s="72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E129" s="72"/>
       <c r="F129" s="72"/>
@@ -15263,18 +15065,18 @@
       <c r="K129" s="72"/>
       <c r="L129" s="72"/>
       <c r="M129" s="72"/>
-      <c r="N129" s="139" t="s">
-        <v>61</v>
-      </c>
-      <c r="O129" s="139"/>
-      <c r="P129" s="139"/>
-      <c r="Q129" s="139"/>
-      <c r="R129" s="139"/>
-      <c r="S129" s="139"/>
-      <c r="T129" s="139"/>
-      <c r="U129" s="139"/>
-      <c r="V129" s="139"/>
-      <c r="W129" s="139"/>
+      <c r="N129" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="O129" s="138"/>
+      <c r="P129" s="138"/>
+      <c r="Q129" s="138"/>
+      <c r="R129" s="138"/>
+      <c r="S129" s="138"/>
+      <c r="T129" s="138"/>
+      <c r="U129" s="138"/>
+      <c r="V129" s="138"/>
+      <c r="W129" s="138"/>
       <c r="X129" s="75" t="s">
         <v>47</v>
       </c>
@@ -15307,122 +15109,122 @@
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="17"/>
       <c r="B130" s="0"/>
-      <c r="C130" s="140" t="n">
+      <c r="C130" s="139" t="n">
         <v>1</v>
       </c>
-      <c r="D130" s="141" t="s">
-        <v>77</v>
-      </c>
-      <c r="E130" s="101"/>
-      <c r="F130" s="101"/>
-      <c r="G130" s="101"/>
-      <c r="H130" s="101"/>
-      <c r="I130" s="101"/>
-      <c r="J130" s="101"/>
-      <c r="K130" s="101"/>
-      <c r="L130" s="101"/>
-      <c r="M130" s="142"/>
-      <c r="N130" s="143" t="s">
-        <v>78</v>
-      </c>
-      <c r="O130" s="144"/>
-      <c r="P130" s="144"/>
-      <c r="Q130" s="144"/>
-      <c r="R130" s="144"/>
-      <c r="S130" s="144"/>
-      <c r="T130" s="144"/>
-      <c r="U130" s="144"/>
-      <c r="V130" s="144"/>
-      <c r="W130" s="145"/>
-      <c r="X130" s="143"/>
-      <c r="Y130" s="146"/>
-      <c r="Z130" s="146"/>
-      <c r="AA130" s="146"/>
-      <c r="AB130" s="144"/>
-      <c r="AC130" s="144"/>
-      <c r="AD130" s="144"/>
-      <c r="AE130" s="144"/>
-      <c r="AF130" s="146"/>
-      <c r="AG130" s="146"/>
-      <c r="AH130" s="144"/>
-      <c r="AI130" s="144"/>
-      <c r="AJ130" s="144"/>
-      <c r="AK130" s="144"/>
-      <c r="AL130" s="144"/>
-      <c r="AM130" s="144"/>
-      <c r="AN130" s="144"/>
-      <c r="AO130" s="144"/>
-      <c r="AP130" s="144"/>
-      <c r="AQ130" s="144"/>
-      <c r="AR130" s="144"/>
-      <c r="AS130" s="144"/>
-      <c r="AT130" s="144"/>
-      <c r="AU130" s="144"/>
-      <c r="AV130" s="145"/>
+      <c r="D130" s="140" t="s">
+        <v>75</v>
+      </c>
+      <c r="E130" s="100"/>
+      <c r="F130" s="100"/>
+      <c r="G130" s="100"/>
+      <c r="H130" s="100"/>
+      <c r="I130" s="100"/>
+      <c r="J130" s="100"/>
+      <c r="K130" s="100"/>
+      <c r="L130" s="100"/>
+      <c r="M130" s="141"/>
+      <c r="N130" s="142" t="s">
+        <v>76</v>
+      </c>
+      <c r="O130" s="143"/>
+      <c r="P130" s="143"/>
+      <c r="Q130" s="143"/>
+      <c r="R130" s="143"/>
+      <c r="S130" s="143"/>
+      <c r="T130" s="143"/>
+      <c r="U130" s="143"/>
+      <c r="V130" s="143"/>
+      <c r="W130" s="144"/>
+      <c r="X130" s="142"/>
+      <c r="Y130" s="145"/>
+      <c r="Z130" s="145"/>
+      <c r="AA130" s="145"/>
+      <c r="AB130" s="143"/>
+      <c r="AC130" s="143"/>
+      <c r="AD130" s="143"/>
+      <c r="AE130" s="143"/>
+      <c r="AF130" s="145"/>
+      <c r="AG130" s="145"/>
+      <c r="AH130" s="143"/>
+      <c r="AI130" s="143"/>
+      <c r="AJ130" s="143"/>
+      <c r="AK130" s="143"/>
+      <c r="AL130" s="143"/>
+      <c r="AM130" s="143"/>
+      <c r="AN130" s="143"/>
+      <c r="AO130" s="143"/>
+      <c r="AP130" s="143"/>
+      <c r="AQ130" s="143"/>
+      <c r="AR130" s="143"/>
+      <c r="AS130" s="143"/>
+      <c r="AT130" s="143"/>
+      <c r="AU130" s="143"/>
+      <c r="AV130" s="144"/>
       <c r="AW130" s="20"/>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="17"/>
       <c r="B131" s="0"/>
-      <c r="C131" s="147" t="n">
+      <c r="C131" s="146" t="n">
         <v>2</v>
       </c>
-      <c r="D131" s="148" t="s">
-        <v>79</v>
-      </c>
-      <c r="E131" s="149"/>
-      <c r="F131" s="149"/>
-      <c r="G131" s="149"/>
-      <c r="H131" s="149"/>
-      <c r="I131" s="149"/>
-      <c r="J131" s="149"/>
-      <c r="K131" s="149"/>
-      <c r="L131" s="149"/>
-      <c r="M131" s="150"/>
-      <c r="N131" s="148" t="s">
-        <v>80</v>
-      </c>
-      <c r="O131" s="149"/>
-      <c r="P131" s="149"/>
-      <c r="Q131" s="149"/>
-      <c r="R131" s="149"/>
-      <c r="S131" s="149"/>
-      <c r="T131" s="149"/>
-      <c r="U131" s="149"/>
-      <c r="V131" s="149"/>
-      <c r="W131" s="150"/>
-      <c r="X131" s="148"/>
-      <c r="Y131" s="151"/>
-      <c r="Z131" s="151"/>
-      <c r="AA131" s="151"/>
-      <c r="AB131" s="149"/>
-      <c r="AC131" s="149"/>
-      <c r="AD131" s="149"/>
-      <c r="AE131" s="149"/>
-      <c r="AF131" s="151"/>
-      <c r="AG131" s="151"/>
-      <c r="AH131" s="149"/>
-      <c r="AI131" s="149"/>
-      <c r="AJ131" s="149"/>
-      <c r="AK131" s="149"/>
-      <c r="AL131" s="149"/>
-      <c r="AM131" s="149"/>
-      <c r="AN131" s="149"/>
-      <c r="AO131" s="149"/>
-      <c r="AP131" s="149"/>
-      <c r="AQ131" s="149"/>
-      <c r="AR131" s="149"/>
-      <c r="AS131" s="149"/>
-      <c r="AT131" s="149"/>
-      <c r="AU131" s="149"/>
-      <c r="AV131" s="150"/>
+      <c r="D131" s="147" t="s">
+        <v>77</v>
+      </c>
+      <c r="E131" s="148"/>
+      <c r="F131" s="148"/>
+      <c r="G131" s="148"/>
+      <c r="H131" s="148"/>
+      <c r="I131" s="148"/>
+      <c r="J131" s="148"/>
+      <c r="K131" s="148"/>
+      <c r="L131" s="148"/>
+      <c r="M131" s="149"/>
+      <c r="N131" s="147" t="s">
+        <v>78</v>
+      </c>
+      <c r="O131" s="148"/>
+      <c r="P131" s="148"/>
+      <c r="Q131" s="148"/>
+      <c r="R131" s="148"/>
+      <c r="S131" s="148"/>
+      <c r="T131" s="148"/>
+      <c r="U131" s="148"/>
+      <c r="V131" s="148"/>
+      <c r="W131" s="149"/>
+      <c r="X131" s="147"/>
+      <c r="Y131" s="150"/>
+      <c r="Z131" s="150"/>
+      <c r="AA131" s="150"/>
+      <c r="AB131" s="148"/>
+      <c r="AC131" s="148"/>
+      <c r="AD131" s="148"/>
+      <c r="AE131" s="148"/>
+      <c r="AF131" s="150"/>
+      <c r="AG131" s="150"/>
+      <c r="AH131" s="148"/>
+      <c r="AI131" s="148"/>
+      <c r="AJ131" s="148"/>
+      <c r="AK131" s="148"/>
+      <c r="AL131" s="148"/>
+      <c r="AM131" s="148"/>
+      <c r="AN131" s="148"/>
+      <c r="AO131" s="148"/>
+      <c r="AP131" s="148"/>
+      <c r="AQ131" s="148"/>
+      <c r="AR131" s="148"/>
+      <c r="AS131" s="148"/>
+      <c r="AT131" s="148"/>
+      <c r="AU131" s="148"/>
+      <c r="AV131" s="149"/>
       <c r="AW131" s="20"/>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="17"/>
       <c r="B132" s="0"/>
-      <c r="C132" s="137"/>
-      <c r="D132" s="152"/>
+      <c r="C132" s="136"/>
+      <c r="D132" s="151"/>
       <c r="E132" s="19"/>
       <c r="F132" s="19"/>
       <c r="G132" s="19"/>
@@ -15443,15 +15245,15 @@
       <c r="V132" s="19"/>
       <c r="W132" s="19"/>
       <c r="X132" s="19"/>
-      <c r="Y132" s="137"/>
-      <c r="Z132" s="137"/>
-      <c r="AA132" s="137"/>
+      <c r="Y132" s="136"/>
+      <c r="Z132" s="136"/>
+      <c r="AA132" s="136"/>
       <c r="AB132" s="19"/>
       <c r="AC132" s="19"/>
       <c r="AD132" s="19"/>
       <c r="AE132" s="19"/>
-      <c r="AF132" s="137"/>
-      <c r="AG132" s="137"/>
+      <c r="AF132" s="136"/>
+      <c r="AG132" s="136"/>
       <c r="AH132" s="19"/>
       <c r="AI132" s="19"/>
       <c r="AJ132" s="19"/>
@@ -15472,7 +15274,7 @@
       <c r="A133" s="17"/>
       <c r="B133" s="0"/>
       <c r="C133" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D133" s="19"/>
       <c r="E133" s="19"/>
@@ -15493,16 +15295,16 @@
       <c r="T133" s="19"/>
       <c r="U133" s="19"/>
       <c r="V133" s="19"/>
-      <c r="W133" s="137"/>
-      <c r="X133" s="137"/>
-      <c r="Y133" s="137"/>
-      <c r="Z133" s="137"/>
+      <c r="W133" s="136"/>
+      <c r="X133" s="136"/>
+      <c r="Y133" s="136"/>
+      <c r="Z133" s="136"/>
       <c r="AA133" s="19"/>
       <c r="AB133" s="19"/>
       <c r="AC133" s="19"/>
       <c r="AD133" s="19"/>
-      <c r="AE133" s="137"/>
-      <c r="AF133" s="137"/>
+      <c r="AE133" s="136"/>
+      <c r="AF133" s="136"/>
       <c r="AG133" s="19"/>
       <c r="AH133" s="19"/>
       <c r="AI133" s="19"/>
@@ -15523,11 +15325,11 @@
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="17"/>
       <c r="B134" s="0"/>
-      <c r="C134" s="138" t="s">
+      <c r="C134" s="137" t="s">
         <v>44</v>
       </c>
       <c r="D134" s="72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E134" s="72"/>
       <c r="F134" s="72"/>
@@ -15538,18 +15340,18 @@
       <c r="K134" s="72"/>
       <c r="L134" s="72"/>
       <c r="M134" s="72"/>
-      <c r="N134" s="139" t="s">
-        <v>61</v>
-      </c>
-      <c r="O134" s="139"/>
-      <c r="P134" s="139"/>
-      <c r="Q134" s="139"/>
-      <c r="R134" s="139"/>
-      <c r="S134" s="139"/>
-      <c r="T134" s="139"/>
-      <c r="U134" s="139"/>
-      <c r="V134" s="139"/>
-      <c r="W134" s="139"/>
+      <c r="N134" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="O134" s="138"/>
+      <c r="P134" s="138"/>
+      <c r="Q134" s="138"/>
+      <c r="R134" s="138"/>
+      <c r="S134" s="138"/>
+      <c r="T134" s="138"/>
+      <c r="U134" s="138"/>
+      <c r="V134" s="138"/>
+      <c r="W134" s="138"/>
       <c r="X134" s="75" t="s">
         <v>47</v>
       </c>
@@ -15582,231 +15384,231 @@
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="17"/>
       <c r="B135" s="0"/>
-      <c r="C135" s="147" t="n">
+      <c r="C135" s="146" t="n">
         <v>1</v>
       </c>
-      <c r="D135" s="148" t="s">
-        <v>77</v>
-      </c>
-      <c r="E135" s="149"/>
-      <c r="F135" s="149"/>
-      <c r="G135" s="149"/>
-      <c r="H135" s="149"/>
-      <c r="I135" s="149"/>
-      <c r="J135" s="149"/>
-      <c r="K135" s="149"/>
-      <c r="L135" s="149"/>
-      <c r="M135" s="150"/>
-      <c r="N135" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="O135" s="149"/>
-      <c r="P135" s="149"/>
-      <c r="Q135" s="149"/>
-      <c r="R135" s="149"/>
-      <c r="S135" s="149"/>
-      <c r="T135" s="149"/>
-      <c r="U135" s="149"/>
-      <c r="V135" s="149"/>
-      <c r="W135" s="150"/>
-      <c r="X135" s="148" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y135" s="151"/>
-      <c r="Z135" s="151"/>
-      <c r="AA135" s="151"/>
-      <c r="AB135" s="149"/>
-      <c r="AC135" s="149"/>
-      <c r="AD135" s="149"/>
-      <c r="AE135" s="149"/>
-      <c r="AF135" s="151"/>
-      <c r="AG135" s="151"/>
-      <c r="AH135" s="149"/>
-      <c r="AI135" s="149"/>
-      <c r="AJ135" s="149"/>
-      <c r="AK135" s="149"/>
-      <c r="AL135" s="149"/>
-      <c r="AM135" s="149"/>
-      <c r="AN135" s="149"/>
-      <c r="AO135" s="149"/>
-      <c r="AP135" s="149"/>
-      <c r="AQ135" s="149"/>
-      <c r="AR135" s="149"/>
-      <c r="AS135" s="149"/>
-      <c r="AT135" s="149"/>
-      <c r="AU135" s="149"/>
-      <c r="AV135" s="153"/>
+      <c r="D135" s="147" t="s">
+        <v>75</v>
+      </c>
+      <c r="E135" s="148"/>
+      <c r="F135" s="148"/>
+      <c r="G135" s="148"/>
+      <c r="H135" s="148"/>
+      <c r="I135" s="148"/>
+      <c r="J135" s="148"/>
+      <c r="K135" s="148"/>
+      <c r="L135" s="148"/>
+      <c r="M135" s="149"/>
+      <c r="N135" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="O135" s="148"/>
+      <c r="P135" s="148"/>
+      <c r="Q135" s="148"/>
+      <c r="R135" s="148"/>
+      <c r="S135" s="148"/>
+      <c r="T135" s="148"/>
+      <c r="U135" s="148"/>
+      <c r="V135" s="148"/>
+      <c r="W135" s="149"/>
+      <c r="X135" s="147" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y135" s="150"/>
+      <c r="Z135" s="150"/>
+      <c r="AA135" s="150"/>
+      <c r="AB135" s="148"/>
+      <c r="AC135" s="148"/>
+      <c r="AD135" s="148"/>
+      <c r="AE135" s="148"/>
+      <c r="AF135" s="150"/>
+      <c r="AG135" s="150"/>
+      <c r="AH135" s="148"/>
+      <c r="AI135" s="148"/>
+      <c r="AJ135" s="148"/>
+      <c r="AK135" s="148"/>
+      <c r="AL135" s="148"/>
+      <c r="AM135" s="148"/>
+      <c r="AN135" s="148"/>
+      <c r="AO135" s="148"/>
+      <c r="AP135" s="148"/>
+      <c r="AQ135" s="148"/>
+      <c r="AR135" s="148"/>
+      <c r="AS135" s="148"/>
+      <c r="AT135" s="148"/>
+      <c r="AU135" s="148"/>
+      <c r="AV135" s="152"/>
       <c r="AW135" s="20"/>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="17"/>
       <c r="B136" s="0"/>
-      <c r="C136" s="147" t="n">
+      <c r="C136" s="146" t="n">
         <v>2</v>
       </c>
-      <c r="D136" s="148" t="s">
-        <v>84</v>
-      </c>
-      <c r="E136" s="149"/>
-      <c r="F136" s="149"/>
-      <c r="G136" s="149"/>
-      <c r="H136" s="149"/>
-      <c r="I136" s="149"/>
-      <c r="J136" s="149"/>
-      <c r="K136" s="149"/>
-      <c r="L136" s="149"/>
-      <c r="M136" s="150"/>
-      <c r="N136" s="148" t="s">
+      <c r="D136" s="147" t="s">
         <v>82</v>
       </c>
-      <c r="O136" s="149"/>
-      <c r="P136" s="149"/>
-      <c r="Q136" s="149"/>
-      <c r="R136" s="149"/>
-      <c r="S136" s="149"/>
-      <c r="T136" s="149"/>
-      <c r="U136" s="149"/>
-      <c r="V136" s="149"/>
-      <c r="W136" s="150"/>
-      <c r="X136" s="148"/>
-      <c r="Y136" s="151"/>
-      <c r="Z136" s="151"/>
-      <c r="AA136" s="151"/>
-      <c r="AB136" s="149"/>
-      <c r="AC136" s="149"/>
-      <c r="AD136" s="149"/>
-      <c r="AE136" s="149"/>
-      <c r="AF136" s="151"/>
-      <c r="AG136" s="151"/>
-      <c r="AH136" s="149"/>
-      <c r="AI136" s="149"/>
-      <c r="AJ136" s="149"/>
-      <c r="AK136" s="149"/>
-      <c r="AL136" s="149"/>
-      <c r="AM136" s="149"/>
-      <c r="AN136" s="149"/>
-      <c r="AO136" s="149"/>
-      <c r="AP136" s="149"/>
-      <c r="AQ136" s="149"/>
-      <c r="AR136" s="149"/>
-      <c r="AS136" s="149"/>
-      <c r="AT136" s="149"/>
-      <c r="AU136" s="149"/>
-      <c r="AV136" s="153"/>
+      <c r="E136" s="148"/>
+      <c r="F136" s="148"/>
+      <c r="G136" s="148"/>
+      <c r="H136" s="148"/>
+      <c r="I136" s="148"/>
+      <c r="J136" s="148"/>
+      <c r="K136" s="148"/>
+      <c r="L136" s="148"/>
+      <c r="M136" s="149"/>
+      <c r="N136" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="O136" s="148"/>
+      <c r="P136" s="148"/>
+      <c r="Q136" s="148"/>
+      <c r="R136" s="148"/>
+      <c r="S136" s="148"/>
+      <c r="T136" s="148"/>
+      <c r="U136" s="148"/>
+      <c r="V136" s="148"/>
+      <c r="W136" s="149"/>
+      <c r="X136" s="147"/>
+      <c r="Y136" s="150"/>
+      <c r="Z136" s="150"/>
+      <c r="AA136" s="150"/>
+      <c r="AB136" s="148"/>
+      <c r="AC136" s="148"/>
+      <c r="AD136" s="148"/>
+      <c r="AE136" s="148"/>
+      <c r="AF136" s="150"/>
+      <c r="AG136" s="150"/>
+      <c r="AH136" s="148"/>
+      <c r="AI136" s="148"/>
+      <c r="AJ136" s="148"/>
+      <c r="AK136" s="148"/>
+      <c r="AL136" s="148"/>
+      <c r="AM136" s="148"/>
+      <c r="AN136" s="148"/>
+      <c r="AO136" s="148"/>
+      <c r="AP136" s="148"/>
+      <c r="AQ136" s="148"/>
+      <c r="AR136" s="148"/>
+      <c r="AS136" s="148"/>
+      <c r="AT136" s="148"/>
+      <c r="AU136" s="148"/>
+      <c r="AV136" s="152"/>
       <c r="AW136" s="20"/>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="17"/>
       <c r="B137" s="0"/>
-      <c r="C137" s="147" t="n">
+      <c r="C137" s="146" t="n">
         <v>3</v>
       </c>
-      <c r="D137" s="148" t="s">
-        <v>70</v>
-      </c>
-      <c r="E137" s="149"/>
-      <c r="F137" s="149"/>
-      <c r="G137" s="149"/>
-      <c r="H137" s="149"/>
-      <c r="I137" s="149"/>
-      <c r="J137" s="149"/>
-      <c r="K137" s="149"/>
-      <c r="L137" s="149"/>
-      <c r="M137" s="150"/>
-      <c r="N137" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="O137" s="149"/>
-      <c r="P137" s="149"/>
-      <c r="Q137" s="149"/>
-      <c r="R137" s="149"/>
-      <c r="S137" s="149"/>
-      <c r="T137" s="149"/>
-      <c r="U137" s="149"/>
-      <c r="V137" s="149"/>
-      <c r="W137" s="150"/>
-      <c r="X137" s="148"/>
-      <c r="Y137" s="151"/>
-      <c r="Z137" s="151"/>
-      <c r="AA137" s="151"/>
-      <c r="AB137" s="149"/>
-      <c r="AC137" s="149"/>
-      <c r="AD137" s="149"/>
-      <c r="AE137" s="149"/>
-      <c r="AF137" s="151"/>
-      <c r="AG137" s="151"/>
-      <c r="AH137" s="149"/>
-      <c r="AI137" s="149"/>
-      <c r="AJ137" s="149"/>
-      <c r="AK137" s="149"/>
-      <c r="AL137" s="149"/>
-      <c r="AM137" s="149"/>
-      <c r="AN137" s="149"/>
-      <c r="AO137" s="149"/>
-      <c r="AP137" s="149"/>
-      <c r="AQ137" s="149"/>
-      <c r="AR137" s="149"/>
-      <c r="AS137" s="149"/>
-      <c r="AT137" s="149"/>
-      <c r="AU137" s="149"/>
-      <c r="AV137" s="153"/>
+      <c r="D137" s="147" t="s">
+        <v>68</v>
+      </c>
+      <c r="E137" s="148"/>
+      <c r="F137" s="148"/>
+      <c r="G137" s="148"/>
+      <c r="H137" s="148"/>
+      <c r="I137" s="148"/>
+      <c r="J137" s="148"/>
+      <c r="K137" s="148"/>
+      <c r="L137" s="148"/>
+      <c r="M137" s="149"/>
+      <c r="N137" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="O137" s="148"/>
+      <c r="P137" s="148"/>
+      <c r="Q137" s="148"/>
+      <c r="R137" s="148"/>
+      <c r="S137" s="148"/>
+      <c r="T137" s="148"/>
+      <c r="U137" s="148"/>
+      <c r="V137" s="148"/>
+      <c r="W137" s="149"/>
+      <c r="X137" s="147"/>
+      <c r="Y137" s="150"/>
+      <c r="Z137" s="150"/>
+      <c r="AA137" s="150"/>
+      <c r="AB137" s="148"/>
+      <c r="AC137" s="148"/>
+      <c r="AD137" s="148"/>
+      <c r="AE137" s="148"/>
+      <c r="AF137" s="150"/>
+      <c r="AG137" s="150"/>
+      <c r="AH137" s="148"/>
+      <c r="AI137" s="148"/>
+      <c r="AJ137" s="148"/>
+      <c r="AK137" s="148"/>
+      <c r="AL137" s="148"/>
+      <c r="AM137" s="148"/>
+      <c r="AN137" s="148"/>
+      <c r="AO137" s="148"/>
+      <c r="AP137" s="148"/>
+      <c r="AQ137" s="148"/>
+      <c r="AR137" s="148"/>
+      <c r="AS137" s="148"/>
+      <c r="AT137" s="148"/>
+      <c r="AU137" s="148"/>
+      <c r="AV137" s="152"/>
       <c r="AW137" s="20"/>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="17"/>
       <c r="B138" s="0"/>
-      <c r="C138" s="147" t="n">
+      <c r="C138" s="146" t="n">
         <v>4</v>
       </c>
-      <c r="D138" s="148" t="s">
-        <v>73</v>
-      </c>
-      <c r="E138" s="149"/>
-      <c r="F138" s="149"/>
-      <c r="G138" s="149"/>
-      <c r="H138" s="149"/>
-      <c r="I138" s="149"/>
-      <c r="J138" s="149"/>
-      <c r="K138" s="149"/>
-      <c r="L138" s="149"/>
-      <c r="M138" s="150"/>
-      <c r="N138" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="O138" s="149"/>
-      <c r="P138" s="149"/>
-      <c r="Q138" s="149"/>
-      <c r="R138" s="149"/>
-      <c r="S138" s="149"/>
-      <c r="T138" s="149"/>
-      <c r="U138" s="149"/>
-      <c r="V138" s="149"/>
-      <c r="W138" s="150"/>
-      <c r="X138" s="148"/>
-      <c r="Y138" s="151"/>
-      <c r="Z138" s="151"/>
-      <c r="AA138" s="151"/>
-      <c r="AB138" s="149"/>
-      <c r="AC138" s="149"/>
-      <c r="AD138" s="149"/>
-      <c r="AE138" s="149"/>
-      <c r="AF138" s="151"/>
-      <c r="AG138" s="151"/>
-      <c r="AH138" s="149"/>
-      <c r="AI138" s="149"/>
-      <c r="AJ138" s="149"/>
-      <c r="AK138" s="149"/>
-      <c r="AL138" s="149"/>
-      <c r="AM138" s="149"/>
-      <c r="AN138" s="149"/>
-      <c r="AO138" s="149"/>
-      <c r="AP138" s="149"/>
-      <c r="AQ138" s="149"/>
-      <c r="AR138" s="149"/>
-      <c r="AS138" s="149"/>
-      <c r="AT138" s="149"/>
-      <c r="AU138" s="149"/>
-      <c r="AV138" s="153"/>
+      <c r="D138" s="147" t="s">
+        <v>71</v>
+      </c>
+      <c r="E138" s="148"/>
+      <c r="F138" s="148"/>
+      <c r="G138" s="148"/>
+      <c r="H138" s="148"/>
+      <c r="I138" s="148"/>
+      <c r="J138" s="148"/>
+      <c r="K138" s="148"/>
+      <c r="L138" s="148"/>
+      <c r="M138" s="149"/>
+      <c r="N138" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="O138" s="148"/>
+      <c r="P138" s="148"/>
+      <c r="Q138" s="148"/>
+      <c r="R138" s="148"/>
+      <c r="S138" s="148"/>
+      <c r="T138" s="148"/>
+      <c r="U138" s="148"/>
+      <c r="V138" s="148"/>
+      <c r="W138" s="149"/>
+      <c r="X138" s="147"/>
+      <c r="Y138" s="150"/>
+      <c r="Z138" s="150"/>
+      <c r="AA138" s="150"/>
+      <c r="AB138" s="148"/>
+      <c r="AC138" s="148"/>
+      <c r="AD138" s="148"/>
+      <c r="AE138" s="148"/>
+      <c r="AF138" s="150"/>
+      <c r="AG138" s="150"/>
+      <c r="AH138" s="148"/>
+      <c r="AI138" s="148"/>
+      <c r="AJ138" s="148"/>
+      <c r="AK138" s="148"/>
+      <c r="AL138" s="148"/>
+      <c r="AM138" s="148"/>
+      <c r="AN138" s="148"/>
+      <c r="AO138" s="148"/>
+      <c r="AP138" s="148"/>
+      <c r="AQ138" s="148"/>
+      <c r="AR138" s="148"/>
+      <c r="AS138" s="148"/>
+      <c r="AT138" s="148"/>
+      <c r="AU138" s="148"/>
+      <c r="AV138" s="152"/>
       <c r="AW138" s="20"/>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15858,7 +15660,7 @@
       <c r="AU139" s="0"/>
       <c r="AV139" s="19"/>
       <c r="AW139" s="20"/>
-      <c r="AY139" s="154"/>
+      <c r="AY139" s="153"/>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="17"/>
@@ -15909,15 +15711,15 @@
       <c r="AU140" s="0"/>
       <c r="AV140" s="19"/>
       <c r="AW140" s="20"/>
-      <c r="AY140" s="154"/>
+      <c r="AY140" s="153"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="17"/>
       <c r="C141" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D141" s="19"/>
-      <c r="E141" s="137"/>
+      <c r="E141" s="136"/>
       <c r="F141" s="19"/>
       <c r="G141" s="19"/>
       <c r="H141" s="19"/>
@@ -15961,14 +15763,14 @@
       <c r="AU141" s="24"/>
       <c r="AV141" s="19"/>
       <c r="AW141" s="20"/>
-      <c r="AY141" s="154"/>
+      <c r="AY141" s="153"/>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="17"/>
       <c r="D142" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E142" s="137"/>
+        <v>94</v>
+      </c>
+      <c r="E142" s="136"/>
       <c r="F142" s="19"/>
       <c r="G142" s="19"/>
       <c r="H142" s="19"/>
@@ -16017,9 +15819,9 @@
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
       <c r="D143" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E143" s="137"/>
+        <v>95</v>
+      </c>
+      <c r="E143" s="136"/>
       <c r="F143" s="19"/>
       <c r="G143" s="19"/>
       <c r="H143" s="19"/>
@@ -16068,8 +15870,8 @@
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="17"/>
       <c r="D144" s="19"/>
-      <c r="E144" s="155" t="s">
-        <v>98</v>
+      <c r="E144" s="154" t="s">
+        <v>96</v>
       </c>
       <c r="F144" s="19"/>
       <c r="G144" s="19"/>
@@ -16119,57 +15921,57 @@
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="17"/>
       <c r="D145" s="19"/>
-      <c r="E145" s="156" t="s">
+      <c r="E145" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="F145" s="157" t="s">
-        <v>57</v>
-      </c>
-      <c r="G145" s="157"/>
-      <c r="H145" s="157"/>
-      <c r="I145" s="157"/>
-      <c r="J145" s="157"/>
-      <c r="K145" s="157"/>
-      <c r="L145" s="157"/>
-      <c r="M145" s="157"/>
-      <c r="N145" s="157" t="s">
-        <v>99</v>
-      </c>
-      <c r="O145" s="157"/>
-      <c r="P145" s="157"/>
-      <c r="Q145" s="157"/>
-      <c r="R145" s="157"/>
-      <c r="S145" s="157"/>
-      <c r="T145" s="157"/>
-      <c r="U145" s="157"/>
-      <c r="V145" s="157"/>
-      <c r="W145" s="157"/>
-      <c r="X145" s="157"/>
-      <c r="Y145" s="157"/>
-      <c r="Z145" s="157"/>
-      <c r="AA145" s="157"/>
-      <c r="AB145" s="157"/>
-      <c r="AC145" s="157"/>
-      <c r="AD145" s="157"/>
-      <c r="AE145" s="157"/>
-      <c r="AF145" s="157"/>
-      <c r="AG145" s="157"/>
-      <c r="AH145" s="157"/>
-      <c r="AI145" s="157"/>
-      <c r="AJ145" s="158" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK145" s="158"/>
-      <c r="AL145" s="158"/>
-      <c r="AM145" s="158"/>
-      <c r="AN145" s="158"/>
-      <c r="AO145" s="158"/>
-      <c r="AP145" s="158"/>
-      <c r="AQ145" s="158"/>
-      <c r="AR145" s="158"/>
-      <c r="AS145" s="158"/>
-      <c r="AT145" s="158"/>
-      <c r="AU145" s="158"/>
+      <c r="F145" s="156" t="s">
+        <v>56</v>
+      </c>
+      <c r="G145" s="156"/>
+      <c r="H145" s="156"/>
+      <c r="I145" s="156"/>
+      <c r="J145" s="156"/>
+      <c r="K145" s="156"/>
+      <c r="L145" s="156"/>
+      <c r="M145" s="156"/>
+      <c r="N145" s="156" t="s">
+        <v>97</v>
+      </c>
+      <c r="O145" s="156"/>
+      <c r="P145" s="156"/>
+      <c r="Q145" s="156"/>
+      <c r="R145" s="156"/>
+      <c r="S145" s="156"/>
+      <c r="T145" s="156"/>
+      <c r="U145" s="156"/>
+      <c r="V145" s="156"/>
+      <c r="W145" s="156"/>
+      <c r="X145" s="156"/>
+      <c r="Y145" s="156"/>
+      <c r="Z145" s="156"/>
+      <c r="AA145" s="156"/>
+      <c r="AB145" s="156"/>
+      <c r="AC145" s="156"/>
+      <c r="AD145" s="156"/>
+      <c r="AE145" s="156"/>
+      <c r="AF145" s="156"/>
+      <c r="AG145" s="156"/>
+      <c r="AH145" s="156"/>
+      <c r="AI145" s="156"/>
+      <c r="AJ145" s="157" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK145" s="157"/>
+      <c r="AL145" s="157"/>
+      <c r="AM145" s="157"/>
+      <c r="AN145" s="157"/>
+      <c r="AO145" s="157"/>
+      <c r="AP145" s="157"/>
+      <c r="AQ145" s="157"/>
+      <c r="AR145" s="157"/>
+      <c r="AS145" s="157"/>
+      <c r="AT145" s="157"/>
+      <c r="AU145" s="157"/>
       <c r="AV145" s="19"/>
       <c r="AW145" s="20"/>
     </row>
@@ -16177,57 +15979,57 @@
       <c r="A146" s="17"/>
       <c r="B146" s="9"/>
       <c r="D146" s="19"/>
-      <c r="E146" s="159" t="n">
+      <c r="E146" s="158" t="n">
         <v>1</v>
       </c>
-      <c r="F146" s="160" t="s">
-        <v>63</v>
-      </c>
-      <c r="G146" s="161"/>
-      <c r="H146" s="161"/>
-      <c r="I146" s="162"/>
-      <c r="J146" s="162"/>
-      <c r="K146" s="162"/>
-      <c r="L146" s="162"/>
-      <c r="M146" s="163"/>
-      <c r="N146" s="164" t="s">
-        <v>101</v>
-      </c>
-      <c r="O146" s="161"/>
-      <c r="P146" s="161"/>
-      <c r="Q146" s="162"/>
-      <c r="R146" s="162"/>
-      <c r="S146" s="162"/>
-      <c r="T146" s="162"/>
-      <c r="U146" s="162"/>
-      <c r="V146" s="165"/>
-      <c r="W146" s="165"/>
-      <c r="X146" s="165"/>
-      <c r="Y146" s="165"/>
-      <c r="Z146" s="165"/>
-      <c r="AA146" s="165"/>
-      <c r="AB146" s="165"/>
-      <c r="AC146" s="165"/>
-      <c r="AD146" s="165"/>
-      <c r="AE146" s="165"/>
-      <c r="AF146" s="165"/>
-      <c r="AG146" s="165"/>
-      <c r="AH146" s="165"/>
-      <c r="AI146" s="166"/>
-      <c r="AJ146" s="167" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK146" s="168"/>
-      <c r="AL146" s="168"/>
-      <c r="AM146" s="168"/>
-      <c r="AN146" s="168"/>
-      <c r="AO146" s="168"/>
-      <c r="AP146" s="168"/>
-      <c r="AQ146" s="168"/>
-      <c r="AR146" s="168"/>
-      <c r="AS146" s="168"/>
-      <c r="AT146" s="168"/>
-      <c r="AU146" s="169"/>
+      <c r="F146" s="159" t="s">
+        <v>62</v>
+      </c>
+      <c r="G146" s="160"/>
+      <c r="H146" s="160"/>
+      <c r="I146" s="161"/>
+      <c r="J146" s="161"/>
+      <c r="K146" s="161"/>
+      <c r="L146" s="161"/>
+      <c r="M146" s="162"/>
+      <c r="N146" s="163" t="s">
+        <v>99</v>
+      </c>
+      <c r="O146" s="160"/>
+      <c r="P146" s="160"/>
+      <c r="Q146" s="161"/>
+      <c r="R146" s="161"/>
+      <c r="S146" s="161"/>
+      <c r="T146" s="161"/>
+      <c r="U146" s="161"/>
+      <c r="V146" s="164"/>
+      <c r="W146" s="164"/>
+      <c r="X146" s="164"/>
+      <c r="Y146" s="164"/>
+      <c r="Z146" s="164"/>
+      <c r="AA146" s="164"/>
+      <c r="AB146" s="164"/>
+      <c r="AC146" s="164"/>
+      <c r="AD146" s="164"/>
+      <c r="AE146" s="164"/>
+      <c r="AF146" s="164"/>
+      <c r="AG146" s="164"/>
+      <c r="AH146" s="164"/>
+      <c r="AI146" s="165"/>
+      <c r="AJ146" s="166" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK146" s="167"/>
+      <c r="AL146" s="167"/>
+      <c r="AM146" s="167"/>
+      <c r="AN146" s="167"/>
+      <c r="AO146" s="167"/>
+      <c r="AP146" s="167"/>
+      <c r="AQ146" s="167"/>
+      <c r="AR146" s="167"/>
+      <c r="AS146" s="167"/>
+      <c r="AT146" s="167"/>
+      <c r="AU146" s="168"/>
       <c r="AV146" s="19"/>
       <c r="AW146" s="20"/>
     </row>
@@ -16235,57 +16037,57 @@
       <c r="A147" s="17"/>
       <c r="B147" s="9"/>
       <c r="D147" s="19"/>
-      <c r="E147" s="170" t="n">
+      <c r="E147" s="169" t="n">
         <v>3</v>
       </c>
-      <c r="F147" s="171" t="s">
-        <v>70</v>
-      </c>
-      <c r="G147" s="172"/>
-      <c r="H147" s="172"/>
-      <c r="I147" s="173"/>
-      <c r="J147" s="173"/>
-      <c r="K147" s="173"/>
-      <c r="L147" s="173"/>
-      <c r="M147" s="174"/>
-      <c r="N147" s="171" t="s">
+      <c r="F147" s="170" t="s">
+        <v>68</v>
+      </c>
+      <c r="G147" s="171"/>
+      <c r="H147" s="171"/>
+      <c r="I147" s="172"/>
+      <c r="J147" s="172"/>
+      <c r="K147" s="172"/>
+      <c r="L147" s="172"/>
+      <c r="M147" s="173"/>
+      <c r="N147" s="170" t="s">
+        <v>99</v>
+      </c>
+      <c r="O147" s="171"/>
+      <c r="P147" s="171"/>
+      <c r="Q147" s="172"/>
+      <c r="R147" s="172"/>
+      <c r="S147" s="172"/>
+      <c r="T147" s="172"/>
+      <c r="U147" s="172"/>
+      <c r="V147" s="174"/>
+      <c r="W147" s="174"/>
+      <c r="X147" s="174"/>
+      <c r="Y147" s="174"/>
+      <c r="Z147" s="174"/>
+      <c r="AA147" s="174"/>
+      <c r="AB147" s="174"/>
+      <c r="AC147" s="174"/>
+      <c r="AD147" s="174"/>
+      <c r="AE147" s="174"/>
+      <c r="AF147" s="174"/>
+      <c r="AG147" s="174"/>
+      <c r="AH147" s="174"/>
+      <c r="AI147" s="175"/>
+      <c r="AJ147" s="166" t="s">
         <v>101</v>
       </c>
-      <c r="O147" s="172"/>
-      <c r="P147" s="172"/>
-      <c r="Q147" s="173"/>
-      <c r="R147" s="173"/>
-      <c r="S147" s="173"/>
-      <c r="T147" s="173"/>
-      <c r="U147" s="173"/>
-      <c r="V147" s="175"/>
-      <c r="W147" s="175"/>
-      <c r="X147" s="175"/>
-      <c r="Y147" s="175"/>
-      <c r="Z147" s="175"/>
-      <c r="AA147" s="175"/>
-      <c r="AB147" s="175"/>
-      <c r="AC147" s="175"/>
-      <c r="AD147" s="175"/>
-      <c r="AE147" s="175"/>
-      <c r="AF147" s="175"/>
-      <c r="AG147" s="175"/>
-      <c r="AH147" s="175"/>
-      <c r="AI147" s="176"/>
-      <c r="AJ147" s="167" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK147" s="177"/>
-      <c r="AL147" s="177"/>
-      <c r="AM147" s="177"/>
-      <c r="AN147" s="177"/>
-      <c r="AO147" s="177"/>
-      <c r="AP147" s="177"/>
-      <c r="AQ147" s="177"/>
-      <c r="AR147" s="177"/>
-      <c r="AS147" s="177"/>
-      <c r="AT147" s="177"/>
-      <c r="AU147" s="178"/>
+      <c r="AK147" s="176"/>
+      <c r="AL147" s="176"/>
+      <c r="AM147" s="176"/>
+      <c r="AN147" s="176"/>
+      <c r="AO147" s="176"/>
+      <c r="AP147" s="176"/>
+      <c r="AQ147" s="176"/>
+      <c r="AR147" s="176"/>
+      <c r="AS147" s="176"/>
+      <c r="AT147" s="176"/>
+      <c r="AU147" s="177"/>
       <c r="AV147" s="19"/>
       <c r="AW147" s="20"/>
     </row>
@@ -16293,57 +16095,57 @@
       <c r="A148" s="17"/>
       <c r="B148" s="9"/>
       <c r="D148" s="19"/>
-      <c r="E148" s="170" t="n">
+      <c r="E148" s="169" t="n">
         <v>6</v>
       </c>
-      <c r="F148" s="171" t="s">
-        <v>73</v>
-      </c>
-      <c r="G148" s="172"/>
-      <c r="H148" s="172"/>
-      <c r="I148" s="173"/>
-      <c r="J148" s="173"/>
-      <c r="K148" s="173"/>
-      <c r="L148" s="173"/>
-      <c r="M148" s="174"/>
-      <c r="N148" s="171" t="s">
-        <v>101</v>
-      </c>
-      <c r="O148" s="172"/>
-      <c r="P148" s="172"/>
-      <c r="Q148" s="173"/>
-      <c r="R148" s="173"/>
-      <c r="S148" s="173"/>
-      <c r="T148" s="173"/>
-      <c r="U148" s="173"/>
-      <c r="V148" s="175"/>
-      <c r="W148" s="175"/>
-      <c r="X148" s="175"/>
-      <c r="Y148" s="175"/>
-      <c r="Z148" s="175"/>
-      <c r="AA148" s="175"/>
-      <c r="AB148" s="175"/>
-      <c r="AC148" s="175"/>
-      <c r="AD148" s="175"/>
-      <c r="AE148" s="175"/>
-      <c r="AF148" s="175"/>
-      <c r="AG148" s="175"/>
-      <c r="AH148" s="175"/>
-      <c r="AI148" s="176"/>
-      <c r="AJ148" s="167" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK148" s="177"/>
-      <c r="AL148" s="177"/>
-      <c r="AM148" s="177"/>
-      <c r="AN148" s="177"/>
-      <c r="AO148" s="177"/>
-      <c r="AP148" s="177"/>
-      <c r="AQ148" s="177"/>
-      <c r="AR148" s="177"/>
-      <c r="AS148" s="177"/>
-      <c r="AT148" s="177"/>
-      <c r="AU148" s="178"/>
+      <c r="F148" s="170" t="s">
+        <v>71</v>
+      </c>
+      <c r="G148" s="171"/>
+      <c r="H148" s="171"/>
+      <c r="I148" s="172"/>
+      <c r="J148" s="172"/>
+      <c r="K148" s="172"/>
+      <c r="L148" s="172"/>
+      <c r="M148" s="173"/>
+      <c r="N148" s="170" t="s">
+        <v>99</v>
+      </c>
+      <c r="O148" s="171"/>
+      <c r="P148" s="171"/>
+      <c r="Q148" s="172"/>
+      <c r="R148" s="172"/>
+      <c r="S148" s="172"/>
+      <c r="T148" s="172"/>
+      <c r="U148" s="172"/>
+      <c r="V148" s="174"/>
+      <c r="W148" s="174"/>
+      <c r="X148" s="174"/>
+      <c r="Y148" s="174"/>
+      <c r="Z148" s="174"/>
+      <c r="AA148" s="174"/>
+      <c r="AB148" s="174"/>
+      <c r="AC148" s="174"/>
+      <c r="AD148" s="174"/>
+      <c r="AE148" s="174"/>
+      <c r="AF148" s="174"/>
+      <c r="AG148" s="174"/>
+      <c r="AH148" s="174"/>
+      <c r="AI148" s="175"/>
+      <c r="AJ148" s="166" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK148" s="176"/>
+      <c r="AL148" s="176"/>
+      <c r="AM148" s="176"/>
+      <c r="AN148" s="176"/>
+      <c r="AO148" s="176"/>
+      <c r="AP148" s="176"/>
+      <c r="AQ148" s="176"/>
+      <c r="AR148" s="176"/>
+      <c r="AS148" s="176"/>
+      <c r="AT148" s="176"/>
+      <c r="AU148" s="177"/>
       <c r="AV148" s="19"/>
       <c r="AW148" s="20"/>
     </row>
@@ -16351,114 +16153,114 @@
       <c r="A149" s="17"/>
       <c r="B149" s="9"/>
       <c r="D149" s="19"/>
-      <c r="E149" s="170" t="n">
+      <c r="E149" s="169" t="n">
         <v>8</v>
       </c>
-      <c r="F149" s="171" t="s">
-        <v>70</v>
-      </c>
-      <c r="G149" s="172"/>
-      <c r="H149" s="172"/>
-      <c r="I149" s="173"/>
-      <c r="J149" s="173"/>
-      <c r="K149" s="173"/>
-      <c r="L149" s="173"/>
-      <c r="M149" s="174"/>
-      <c r="N149" s="171" t="s">
-        <v>105</v>
-      </c>
-      <c r="O149" s="172"/>
-      <c r="P149" s="172"/>
-      <c r="Q149" s="173"/>
-      <c r="R149" s="173"/>
-      <c r="S149" s="173"/>
-      <c r="T149" s="173"/>
-      <c r="U149" s="173"/>
-      <c r="V149" s="175"/>
-      <c r="W149" s="175"/>
-      <c r="X149" s="175"/>
-      <c r="Y149" s="175"/>
-      <c r="Z149" s="175"/>
-      <c r="AA149" s="175"/>
-      <c r="AB149" s="175"/>
-      <c r="AC149" s="175"/>
-      <c r="AD149" s="175"/>
-      <c r="AE149" s="175"/>
-      <c r="AF149" s="175"/>
-      <c r="AG149" s="175"/>
-      <c r="AH149" s="175"/>
-      <c r="AI149" s="176"/>
-      <c r="AJ149" s="167" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK149" s="177"/>
-      <c r="AL149" s="177"/>
-      <c r="AM149" s="177"/>
-      <c r="AN149" s="177"/>
-      <c r="AO149" s="177"/>
-      <c r="AP149" s="177"/>
-      <c r="AQ149" s="177"/>
-      <c r="AR149" s="177"/>
-      <c r="AS149" s="177"/>
-      <c r="AT149" s="177"/>
-      <c r="AU149" s="178"/>
+      <c r="F149" s="170" t="s">
+        <v>68</v>
+      </c>
+      <c r="G149" s="171"/>
+      <c r="H149" s="171"/>
+      <c r="I149" s="172"/>
+      <c r="J149" s="172"/>
+      <c r="K149" s="172"/>
+      <c r="L149" s="172"/>
+      <c r="M149" s="173"/>
+      <c r="N149" s="170" t="s">
+        <v>103</v>
+      </c>
+      <c r="O149" s="171"/>
+      <c r="P149" s="171"/>
+      <c r="Q149" s="172"/>
+      <c r="R149" s="172"/>
+      <c r="S149" s="172"/>
+      <c r="T149" s="172"/>
+      <c r="U149" s="172"/>
+      <c r="V149" s="174"/>
+      <c r="W149" s="174"/>
+      <c r="X149" s="174"/>
+      <c r="Y149" s="174"/>
+      <c r="Z149" s="174"/>
+      <c r="AA149" s="174"/>
+      <c r="AB149" s="174"/>
+      <c r="AC149" s="174"/>
+      <c r="AD149" s="174"/>
+      <c r="AE149" s="174"/>
+      <c r="AF149" s="174"/>
+      <c r="AG149" s="174"/>
+      <c r="AH149" s="174"/>
+      <c r="AI149" s="175"/>
+      <c r="AJ149" s="166" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK149" s="176"/>
+      <c r="AL149" s="176"/>
+      <c r="AM149" s="176"/>
+      <c r="AN149" s="176"/>
+      <c r="AO149" s="176"/>
+      <c r="AP149" s="176"/>
+      <c r="AQ149" s="176"/>
+      <c r="AR149" s="176"/>
+      <c r="AS149" s="176"/>
+      <c r="AT149" s="176"/>
+      <c r="AU149" s="177"/>
       <c r="AV149" s="19"/>
       <c r="AW149" s="20"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="17"/>
       <c r="D150" s="19"/>
-      <c r="E150" s="170" t="n">
+      <c r="E150" s="169" t="n">
         <v>9</v>
       </c>
-      <c r="F150" s="171" t="s">
+      <c r="F150" s="170" t="s">
+        <v>105</v>
+      </c>
+      <c r="G150" s="171"/>
+      <c r="H150" s="171"/>
+      <c r="I150" s="172"/>
+      <c r="J150" s="172"/>
+      <c r="K150" s="172"/>
+      <c r="L150" s="172"/>
+      <c r="M150" s="173"/>
+      <c r="N150" s="170" t="s">
+        <v>106</v>
+      </c>
+      <c r="O150" s="171"/>
+      <c r="P150" s="171"/>
+      <c r="Q150" s="172"/>
+      <c r="R150" s="172"/>
+      <c r="S150" s="172"/>
+      <c r="T150" s="172"/>
+      <c r="U150" s="172"/>
+      <c r="V150" s="174"/>
+      <c r="W150" s="174"/>
+      <c r="X150" s="174"/>
+      <c r="Y150" s="174"/>
+      <c r="Z150" s="174"/>
+      <c r="AA150" s="174"/>
+      <c r="AB150" s="174"/>
+      <c r="AC150" s="174"/>
+      <c r="AD150" s="174"/>
+      <c r="AE150" s="174"/>
+      <c r="AF150" s="174"/>
+      <c r="AG150" s="174"/>
+      <c r="AH150" s="174"/>
+      <c r="AI150" s="175"/>
+      <c r="AJ150" s="166" t="s">
         <v>107</v>
       </c>
-      <c r="G150" s="172"/>
-      <c r="H150" s="172"/>
-      <c r="I150" s="173"/>
-      <c r="J150" s="173"/>
-      <c r="K150" s="173"/>
-      <c r="L150" s="173"/>
-      <c r="M150" s="174"/>
-      <c r="N150" s="171" t="s">
-        <v>108</v>
-      </c>
-      <c r="O150" s="172"/>
-      <c r="P150" s="172"/>
-      <c r="Q150" s="173"/>
-      <c r="R150" s="173"/>
-      <c r="S150" s="173"/>
-      <c r="T150" s="173"/>
-      <c r="U150" s="173"/>
-      <c r="V150" s="175"/>
-      <c r="W150" s="175"/>
-      <c r="X150" s="175"/>
-      <c r="Y150" s="175"/>
-      <c r="Z150" s="175"/>
-      <c r="AA150" s="175"/>
-      <c r="AB150" s="175"/>
-      <c r="AC150" s="175"/>
-      <c r="AD150" s="175"/>
-      <c r="AE150" s="175"/>
-      <c r="AF150" s="175"/>
-      <c r="AG150" s="175"/>
-      <c r="AH150" s="175"/>
-      <c r="AI150" s="176"/>
-      <c r="AJ150" s="167" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK150" s="177"/>
-      <c r="AL150" s="177"/>
-      <c r="AM150" s="177"/>
-      <c r="AN150" s="177"/>
-      <c r="AO150" s="177"/>
-      <c r="AP150" s="177"/>
-      <c r="AQ150" s="177"/>
-      <c r="AR150" s="177"/>
-      <c r="AS150" s="177"/>
-      <c r="AT150" s="177"/>
-      <c r="AU150" s="178"/>
+      <c r="AK150" s="176"/>
+      <c r="AL150" s="176"/>
+      <c r="AM150" s="176"/>
+      <c r="AN150" s="176"/>
+      <c r="AO150" s="176"/>
+      <c r="AP150" s="176"/>
+      <c r="AQ150" s="176"/>
+      <c r="AR150" s="176"/>
+      <c r="AS150" s="176"/>
+      <c r="AT150" s="176"/>
+      <c r="AU150" s="177"/>
       <c r="AV150" s="19"/>
       <c r="AW150" s="20"/>
     </row>
@@ -16466,50 +16268,50 @@
       <c r="A151" s="17"/>
       <c r="C151" s="0"/>
       <c r="D151" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E151" s="179"/>
-      <c r="F151" s="179"/>
-      <c r="G151" s="179"/>
-      <c r="H151" s="179"/>
-      <c r="I151" s="179"/>
-      <c r="J151" s="179"/>
-      <c r="K151" s="179"/>
-      <c r="L151" s="179"/>
-      <c r="M151" s="179"/>
-      <c r="N151" s="179"/>
-      <c r="O151" s="179"/>
-      <c r="P151" s="179"/>
-      <c r="Q151" s="179"/>
-      <c r="R151" s="179"/>
-      <c r="S151" s="179"/>
-      <c r="T151" s="179"/>
-      <c r="U151" s="179"/>
-      <c r="V151" s="179"/>
-      <c r="W151" s="179"/>
-      <c r="X151" s="179"/>
-      <c r="Y151" s="179"/>
-      <c r="Z151" s="179"/>
-      <c r="AA151" s="179"/>
-      <c r="AB151" s="179"/>
-      <c r="AC151" s="179"/>
-      <c r="AD151" s="179"/>
-      <c r="AE151" s="179"/>
-      <c r="AF151" s="179"/>
-      <c r="AG151" s="179"/>
-      <c r="AH151" s="179"/>
-      <c r="AI151" s="179"/>
-      <c r="AJ151" s="179"/>
-      <c r="AK151" s="179"/>
-      <c r="AL151" s="179"/>
-      <c r="AM151" s="179"/>
-      <c r="AN151" s="179"/>
-      <c r="AO151" s="179"/>
-      <c r="AP151" s="179"/>
-      <c r="AQ151" s="179"/>
-      <c r="AR151" s="179"/>
-      <c r="AS151" s="179"/>
-      <c r="AT151" s="179"/>
+        <v>108</v>
+      </c>
+      <c r="E151" s="178"/>
+      <c r="F151" s="178"/>
+      <c r="G151" s="178"/>
+      <c r="H151" s="178"/>
+      <c r="I151" s="178"/>
+      <c r="J151" s="178"/>
+      <c r="K151" s="178"/>
+      <c r="L151" s="178"/>
+      <c r="M151" s="178"/>
+      <c r="N151" s="178"/>
+      <c r="O151" s="178"/>
+      <c r="P151" s="178"/>
+      <c r="Q151" s="178"/>
+      <c r="R151" s="178"/>
+      <c r="S151" s="178"/>
+      <c r="T151" s="178"/>
+      <c r="U151" s="178"/>
+      <c r="V151" s="178"/>
+      <c r="W151" s="178"/>
+      <c r="X151" s="178"/>
+      <c r="Y151" s="178"/>
+      <c r="Z151" s="178"/>
+      <c r="AA151" s="178"/>
+      <c r="AB151" s="178"/>
+      <c r="AC151" s="178"/>
+      <c r="AD151" s="178"/>
+      <c r="AE151" s="178"/>
+      <c r="AF151" s="178"/>
+      <c r="AG151" s="178"/>
+      <c r="AH151" s="178"/>
+      <c r="AI151" s="178"/>
+      <c r="AJ151" s="178"/>
+      <c r="AK151" s="178"/>
+      <c r="AL151" s="178"/>
+      <c r="AM151" s="178"/>
+      <c r="AN151" s="178"/>
+      <c r="AO151" s="178"/>
+      <c r="AP151" s="178"/>
+      <c r="AQ151" s="178"/>
+      <c r="AR151" s="178"/>
+      <c r="AS151" s="178"/>
+      <c r="AT151" s="178"/>
       <c r="AU151" s="19"/>
       <c r="AV151" s="19"/>
       <c r="AW151" s="20"/>
@@ -16517,53 +16319,53 @@
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="17"/>
       <c r="C152" s="19"/>
-      <c r="D152" s="180"/>
-      <c r="E152" s="181" t="s">
-        <v>111</v>
-      </c>
-      <c r="F152" s="181"/>
-      <c r="G152" s="181"/>
-      <c r="H152" s="181"/>
-      <c r="I152" s="181"/>
-      <c r="J152" s="182"/>
-      <c r="K152" s="183"/>
-      <c r="L152" s="184"/>
-      <c r="M152" s="184"/>
-      <c r="N152" s="184"/>
-      <c r="O152" s="184" t="s">
-        <v>112</v>
-      </c>
-      <c r="P152" s="184"/>
-      <c r="Q152" s="184"/>
-      <c r="R152" s="184"/>
-      <c r="S152" s="184"/>
-      <c r="T152" s="184"/>
-      <c r="U152" s="184"/>
-      <c r="V152" s="184"/>
-      <c r="W152" s="184"/>
-      <c r="X152" s="184"/>
-      <c r="Y152" s="184"/>
-      <c r="Z152" s="184"/>
-      <c r="AA152" s="184"/>
-      <c r="AB152" s="184"/>
-      <c r="AC152" s="184"/>
-      <c r="AD152" s="184"/>
-      <c r="AE152" s="184"/>
-      <c r="AF152" s="184"/>
-      <c r="AG152" s="184"/>
-      <c r="AH152" s="184"/>
-      <c r="AI152" s="184"/>
-      <c r="AJ152" s="184"/>
-      <c r="AK152" s="184"/>
-      <c r="AL152" s="184"/>
-      <c r="AM152" s="184"/>
-      <c r="AN152" s="184"/>
-      <c r="AO152" s="184"/>
-      <c r="AP152" s="184"/>
-      <c r="AQ152" s="184"/>
-      <c r="AR152" s="184"/>
-      <c r="AS152" s="184"/>
-      <c r="AT152" s="185"/>
+      <c r="D152" s="179"/>
+      <c r="E152" s="180" t="s">
+        <v>109</v>
+      </c>
+      <c r="F152" s="180"/>
+      <c r="G152" s="180"/>
+      <c r="H152" s="180"/>
+      <c r="I152" s="180"/>
+      <c r="J152" s="181"/>
+      <c r="K152" s="182"/>
+      <c r="L152" s="183"/>
+      <c r="M152" s="183"/>
+      <c r="N152" s="183"/>
+      <c r="O152" s="183" t="s">
+        <v>110</v>
+      </c>
+      <c r="P152" s="183"/>
+      <c r="Q152" s="183"/>
+      <c r="R152" s="183"/>
+      <c r="S152" s="183"/>
+      <c r="T152" s="183"/>
+      <c r="U152" s="183"/>
+      <c r="V152" s="183"/>
+      <c r="W152" s="183"/>
+      <c r="X152" s="183"/>
+      <c r="Y152" s="183"/>
+      <c r="Z152" s="183"/>
+      <c r="AA152" s="183"/>
+      <c r="AB152" s="183"/>
+      <c r="AC152" s="183"/>
+      <c r="AD152" s="183"/>
+      <c r="AE152" s="183"/>
+      <c r="AF152" s="183"/>
+      <c r="AG152" s="183"/>
+      <c r="AH152" s="183"/>
+      <c r="AI152" s="183"/>
+      <c r="AJ152" s="183"/>
+      <c r="AK152" s="183"/>
+      <c r="AL152" s="183"/>
+      <c r="AM152" s="183"/>
+      <c r="AN152" s="183"/>
+      <c r="AO152" s="183"/>
+      <c r="AP152" s="183"/>
+      <c r="AQ152" s="183"/>
+      <c r="AR152" s="183"/>
+      <c r="AS152" s="183"/>
+      <c r="AT152" s="184"/>
       <c r="AU152" s="19"/>
       <c r="AV152" s="19"/>
       <c r="AW152" s="20"/>
@@ -16571,58 +16373,58 @@
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="17"/>
       <c r="C153" s="19"/>
-      <c r="D153" s="186" t="s">
-        <v>48</v>
-      </c>
-      <c r="E153" s="186"/>
-      <c r="F153" s="186"/>
-      <c r="G153" s="186"/>
-      <c r="H153" s="186"/>
-      <c r="I153" s="186"/>
-      <c r="J153" s="186"/>
-      <c r="K153" s="187"/>
-      <c r="L153" s="188"/>
-      <c r="M153" s="188" t="s">
+      <c r="D153" s="185" t="s">
+        <v>49</v>
+      </c>
+      <c r="E153" s="185"/>
+      <c r="F153" s="185"/>
+      <c r="G153" s="185"/>
+      <c r="H153" s="185"/>
+      <c r="I153" s="185"/>
+      <c r="J153" s="185"/>
+      <c r="K153" s="186"/>
+      <c r="L153" s="187"/>
+      <c r="M153" s="187" t="s">
+        <v>111</v>
+      </c>
+      <c r="N153" s="187"/>
+      <c r="O153" s="187"/>
+      <c r="P153" s="188"/>
+      <c r="Q153" s="188"/>
+      <c r="R153" s="188"/>
+      <c r="S153" s="188"/>
+      <c r="T153" s="188"/>
+      <c r="U153" s="188"/>
+      <c r="V153" s="188"/>
+      <c r="W153" s="188"/>
+      <c r="X153" s="189" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y153" s="188" t="s">
         <v>113</v>
       </c>
-      <c r="N153" s="188"/>
-      <c r="O153" s="188"/>
-      <c r="P153" s="189"/>
-      <c r="Q153" s="189"/>
-      <c r="R153" s="189"/>
-      <c r="S153" s="189"/>
-      <c r="T153" s="189"/>
-      <c r="U153" s="189"/>
-      <c r="V153" s="189"/>
-      <c r="W153" s="189"/>
-      <c r="X153" s="190" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y153" s="189" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z153" s="189"/>
-      <c r="AA153" s="189"/>
-      <c r="AB153" s="189"/>
-      <c r="AC153" s="189"/>
-      <c r="AD153" s="189"/>
-      <c r="AE153" s="189"/>
-      <c r="AF153" s="189"/>
-      <c r="AG153" s="189"/>
-      <c r="AH153" s="189"/>
-      <c r="AI153" s="189"/>
-      <c r="AJ153" s="189"/>
-      <c r="AK153" s="189"/>
-      <c r="AL153" s="189"/>
-      <c r="AM153" s="189"/>
-      <c r="AN153" s="189"/>
-      <c r="AO153" s="189"/>
-      <c r="AP153" s="189"/>
-      <c r="AQ153" s="189"/>
-      <c r="AR153" s="189"/>
-      <c r="AS153" s="189"/>
-      <c r="AT153" s="191"/>
-      <c r="AU153" s="192"/>
+      <c r="Z153" s="188"/>
+      <c r="AA153" s="188"/>
+      <c r="AB153" s="188"/>
+      <c r="AC153" s="188"/>
+      <c r="AD153" s="188"/>
+      <c r="AE153" s="188"/>
+      <c r="AF153" s="188"/>
+      <c r="AG153" s="188"/>
+      <c r="AH153" s="188"/>
+      <c r="AI153" s="188"/>
+      <c r="AJ153" s="188"/>
+      <c r="AK153" s="188"/>
+      <c r="AL153" s="188"/>
+      <c r="AM153" s="188"/>
+      <c r="AN153" s="188"/>
+      <c r="AO153" s="188"/>
+      <c r="AP153" s="188"/>
+      <c r="AQ153" s="188"/>
+      <c r="AR153" s="188"/>
+      <c r="AS153" s="188"/>
+      <c r="AT153" s="190"/>
+      <c r="AU153" s="191"/>
       <c r="AV153" s="19"/>
       <c r="AW153" s="20"/>
     </row>
@@ -16630,110 +16432,110 @@
       <c r="A154" s="17"/>
       <c r="B154" s="9"/>
       <c r="C154" s="19"/>
-      <c r="D154" s="186"/>
-      <c r="E154" s="186"/>
-      <c r="F154" s="186"/>
-      <c r="G154" s="186"/>
-      <c r="H154" s="186"/>
-      <c r="I154" s="186"/>
-      <c r="J154" s="186"/>
-      <c r="K154" s="193"/>
-      <c r="L154" s="173"/>
-      <c r="M154" s="173" t="s">
-        <v>116</v>
-      </c>
-      <c r="N154" s="173"/>
-      <c r="O154" s="173"/>
-      <c r="P154" s="175"/>
-      <c r="Q154" s="175"/>
-      <c r="R154" s="175"/>
-      <c r="S154" s="175"/>
-      <c r="T154" s="175"/>
-      <c r="U154" s="175"/>
-      <c r="V154" s="175"/>
-      <c r="W154" s="175"/>
-      <c r="X154" s="194" t="s">
+      <c r="D154" s="185"/>
+      <c r="E154" s="185"/>
+      <c r="F154" s="185"/>
+      <c r="G154" s="185"/>
+      <c r="H154" s="185"/>
+      <c r="I154" s="185"/>
+      <c r="J154" s="185"/>
+      <c r="K154" s="192"/>
+      <c r="L154" s="172"/>
+      <c r="M154" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="Y154" s="189" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z154" s="175"/>
-      <c r="AA154" s="175"/>
-      <c r="AB154" s="175"/>
-      <c r="AC154" s="175"/>
-      <c r="AD154" s="175"/>
-      <c r="AE154" s="175"/>
-      <c r="AF154" s="175"/>
-      <c r="AG154" s="175"/>
-      <c r="AH154" s="175"/>
-      <c r="AI154" s="175"/>
-      <c r="AJ154" s="175"/>
-      <c r="AK154" s="175"/>
-      <c r="AL154" s="175"/>
-      <c r="AM154" s="175"/>
-      <c r="AN154" s="175"/>
-      <c r="AO154" s="175"/>
-      <c r="AP154" s="175"/>
-      <c r="AQ154" s="175"/>
-      <c r="AR154" s="175"/>
-      <c r="AS154" s="175"/>
-      <c r="AT154" s="176"/>
+      <c r="N154" s="172"/>
+      <c r="O154" s="172"/>
+      <c r="P154" s="174"/>
+      <c r="Q154" s="174"/>
+      <c r="R154" s="174"/>
+      <c r="S154" s="174"/>
+      <c r="T154" s="174"/>
+      <c r="U154" s="174"/>
+      <c r="V154" s="174"/>
+      <c r="W154" s="174"/>
+      <c r="X154" s="193" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y154" s="188" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z154" s="174"/>
+      <c r="AA154" s="174"/>
+      <c r="AB154" s="174"/>
+      <c r="AC154" s="174"/>
+      <c r="AD154" s="174"/>
+      <c r="AE154" s="174"/>
+      <c r="AF154" s="174"/>
+      <c r="AG154" s="174"/>
+      <c r="AH154" s="174"/>
+      <c r="AI154" s="174"/>
+      <c r="AJ154" s="174"/>
+      <c r="AK154" s="174"/>
+      <c r="AL154" s="174"/>
+      <c r="AM154" s="174"/>
+      <c r="AN154" s="174"/>
+      <c r="AO154" s="174"/>
+      <c r="AP154" s="174"/>
+      <c r="AQ154" s="174"/>
+      <c r="AR154" s="174"/>
+      <c r="AS154" s="174"/>
+      <c r="AT154" s="175"/>
       <c r="AV154" s="19"/>
       <c r="AW154" s="20"/>
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="17"/>
       <c r="B155" s="9"/>
-      <c r="D155" s="186"/>
-      <c r="E155" s="186"/>
-      <c r="F155" s="186"/>
-      <c r="G155" s="186"/>
-      <c r="H155" s="186"/>
-      <c r="I155" s="186"/>
-      <c r="J155" s="186"/>
-      <c r="K155" s="195"/>
-      <c r="L155" s="196"/>
-      <c r="M155" s="196" t="s">
-        <v>117</v>
-      </c>
-      <c r="N155" s="196"/>
-      <c r="O155" s="196"/>
-      <c r="P155" s="197"/>
-      <c r="Q155" s="197"/>
-      <c r="R155" s="197"/>
-      <c r="S155" s="197"/>
-      <c r="T155" s="197"/>
-      <c r="U155" s="197"/>
-      <c r="V155" s="197"/>
-      <c r="W155" s="197"/>
-      <c r="X155" s="198" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y155" s="189" t="s">
+      <c r="D155" s="185"/>
+      <c r="E155" s="185"/>
+      <c r="F155" s="185"/>
+      <c r="G155" s="185"/>
+      <c r="H155" s="185"/>
+      <c r="I155" s="185"/>
+      <c r="J155" s="185"/>
+      <c r="K155" s="194"/>
+      <c r="L155" s="195"/>
+      <c r="M155" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="Z155" s="197"/>
-      <c r="AA155" s="197"/>
-      <c r="AB155" s="197"/>
-      <c r="AC155" s="197"/>
-      <c r="AD155" s="197"/>
-      <c r="AE155" s="197"/>
-      <c r="AF155" s="197"/>
-      <c r="AG155" s="197"/>
-      <c r="AH155" s="197"/>
-      <c r="AI155" s="197"/>
-      <c r="AJ155" s="197"/>
-      <c r="AK155" s="197"/>
-      <c r="AL155" s="197"/>
-      <c r="AM155" s="197"/>
-      <c r="AN155" s="197"/>
-      <c r="AO155" s="197"/>
-      <c r="AP155" s="197"/>
-      <c r="AQ155" s="197"/>
-      <c r="AR155" s="197"/>
-      <c r="AS155" s="197"/>
-      <c r="AT155" s="199"/>
+      <c r="N155" s="195"/>
+      <c r="O155" s="195"/>
+      <c r="P155" s="196"/>
+      <c r="Q155" s="196"/>
+      <c r="R155" s="196"/>
+      <c r="S155" s="196"/>
+      <c r="T155" s="196"/>
+      <c r="U155" s="196"/>
+      <c r="V155" s="196"/>
+      <c r="W155" s="196"/>
+      <c r="X155" s="197" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y155" s="188" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z155" s="196"/>
+      <c r="AA155" s="196"/>
+      <c r="AB155" s="196"/>
+      <c r="AC155" s="196"/>
+      <c r="AD155" s="196"/>
+      <c r="AE155" s="196"/>
+      <c r="AF155" s="196"/>
+      <c r="AG155" s="196"/>
+      <c r="AH155" s="196"/>
+      <c r="AI155" s="196"/>
+      <c r="AJ155" s="196"/>
+      <c r="AK155" s="196"/>
+      <c r="AL155" s="196"/>
+      <c r="AM155" s="196"/>
+      <c r="AN155" s="196"/>
+      <c r="AO155" s="196"/>
+      <c r="AP155" s="196"/>
+      <c r="AQ155" s="196"/>
+      <c r="AR155" s="196"/>
+      <c r="AS155" s="196"/>
+      <c r="AT155" s="198"/>
       <c r="AV155" s="19"/>
       <c r="AW155" s="20"/>
     </row>
@@ -16747,54 +16549,54 @@
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="17"/>
       <c r="B157" s="9"/>
-      <c r="D157" s="200" t="s">
+      <c r="D157" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="E157" s="200"/>
+      <c r="F157" s="200"/>
+      <c r="G157" s="201"/>
+      <c r="H157" s="179" t="s">
+        <v>117</v>
+      </c>
+      <c r="I157" s="180"/>
+      <c r="J157" s="180"/>
+      <c r="K157" s="180"/>
+      <c r="L157" s="180"/>
+      <c r="M157" s="180"/>
+      <c r="N157" s="180"/>
+      <c r="O157" s="180"/>
+      <c r="P157" s="180"/>
+      <c r="Q157" s="180"/>
+      <c r="R157" s="180"/>
+      <c r="S157" s="180"/>
+      <c r="T157" s="180"/>
+      <c r="U157" s="180"/>
+      <c r="V157" s="180"/>
+      <c r="W157" s="180"/>
+      <c r="X157" s="180"/>
+      <c r="Y157" s="180"/>
+      <c r="Z157" s="180"/>
+      <c r="AA157" s="180"/>
+      <c r="AB157" s="180"/>
+      <c r="AC157" s="180"/>
+      <c r="AD157" s="180"/>
+      <c r="AE157" s="180"/>
+      <c r="AF157" s="180"/>
+      <c r="AG157" s="180"/>
+      <c r="AH157" s="181"/>
+      <c r="AI157" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="E157" s="201"/>
-      <c r="F157" s="201"/>
-      <c r="G157" s="202"/>
-      <c r="H157" s="180" t="s">
-        <v>119</v>
-      </c>
-      <c r="I157" s="181"/>
-      <c r="J157" s="181"/>
-      <c r="K157" s="181"/>
-      <c r="L157" s="181"/>
-      <c r="M157" s="181"/>
-      <c r="N157" s="181"/>
-      <c r="O157" s="181"/>
-      <c r="P157" s="181"/>
-      <c r="Q157" s="181"/>
-      <c r="R157" s="181"/>
-      <c r="S157" s="181"/>
-      <c r="T157" s="181"/>
-      <c r="U157" s="181"/>
-      <c r="V157" s="181"/>
-      <c r="W157" s="181"/>
-      <c r="X157" s="181"/>
-      <c r="Y157" s="181"/>
-      <c r="Z157" s="181"/>
-      <c r="AA157" s="181"/>
-      <c r="AB157" s="181"/>
-      <c r="AC157" s="181"/>
-      <c r="AD157" s="181"/>
-      <c r="AE157" s="181"/>
-      <c r="AF157" s="181"/>
-      <c r="AG157" s="181"/>
-      <c r="AH157" s="182"/>
-      <c r="AI157" s="180" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ157" s="181"/>
-      <c r="AK157" s="181"/>
-      <c r="AL157" s="181"/>
-      <c r="AM157" s="181"/>
-      <c r="AN157" s="181"/>
-      <c r="AO157" s="181"/>
-      <c r="AP157" s="181"/>
-      <c r="AQ157" s="181"/>
-      <c r="AR157" s="181"/>
-      <c r="AS157" s="182"/>
+      <c r="AJ157" s="180"/>
+      <c r="AK157" s="180"/>
+      <c r="AL157" s="180"/>
+      <c r="AM157" s="180"/>
+      <c r="AN157" s="180"/>
+      <c r="AO157" s="180"/>
+      <c r="AP157" s="180"/>
+      <c r="AQ157" s="180"/>
+      <c r="AR157" s="180"/>
+      <c r="AS157" s="181"/>
       <c r="AT157" s="24"/>
       <c r="AV157" s="19"/>
       <c r="AW157" s="20"/>
@@ -16802,54 +16604,54 @@
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="17"/>
       <c r="B158" s="9"/>
-      <c r="D158" s="203" t="s">
+      <c r="D158" s="202" t="s">
+        <v>119</v>
+      </c>
+      <c r="E158" s="203"/>
+      <c r="F158" s="203"/>
+      <c r="G158" s="204"/>
+      <c r="H158" s="205" t="s">
+        <v>120</v>
+      </c>
+      <c r="I158" s="206"/>
+      <c r="J158" s="206"/>
+      <c r="K158" s="206"/>
+      <c r="L158" s="206"/>
+      <c r="M158" s="206"/>
+      <c r="N158" s="206"/>
+      <c r="O158" s="206"/>
+      <c r="P158" s="206"/>
+      <c r="Q158" s="206"/>
+      <c r="R158" s="206"/>
+      <c r="S158" s="206"/>
+      <c r="T158" s="206"/>
+      <c r="U158" s="206"/>
+      <c r="V158" s="206"/>
+      <c r="W158" s="206"/>
+      <c r="X158" s="206"/>
+      <c r="Y158" s="206"/>
+      <c r="Z158" s="206"/>
+      <c r="AA158" s="206"/>
+      <c r="AB158" s="206"/>
+      <c r="AC158" s="206"/>
+      <c r="AD158" s="207"/>
+      <c r="AE158" s="206"/>
+      <c r="AF158" s="206"/>
+      <c r="AG158" s="206"/>
+      <c r="AH158" s="208"/>
+      <c r="AI158" s="209" t="s">
         <v>121</v>
       </c>
-      <c r="E158" s="204"/>
-      <c r="F158" s="204"/>
-      <c r="G158" s="205"/>
-      <c r="H158" s="206" t="s">
-        <v>122</v>
-      </c>
-      <c r="I158" s="207"/>
-      <c r="J158" s="207"/>
-      <c r="K158" s="207"/>
-      <c r="L158" s="207"/>
-      <c r="M158" s="207"/>
-      <c r="N158" s="207"/>
-      <c r="O158" s="207"/>
-      <c r="P158" s="207"/>
-      <c r="Q158" s="207"/>
-      <c r="R158" s="207"/>
-      <c r="S158" s="207"/>
-      <c r="T158" s="207"/>
-      <c r="U158" s="207"/>
-      <c r="V158" s="207"/>
-      <c r="W158" s="207"/>
-      <c r="X158" s="207"/>
-      <c r="Y158" s="207"/>
-      <c r="Z158" s="207"/>
-      <c r="AA158" s="207"/>
-      <c r="AB158" s="207"/>
-      <c r="AC158" s="207"/>
-      <c r="AD158" s="208"/>
-      <c r="AE158" s="207"/>
-      <c r="AF158" s="207"/>
-      <c r="AG158" s="207"/>
-      <c r="AH158" s="209"/>
-      <c r="AI158" s="210" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ158" s="207"/>
-      <c r="AK158" s="207"/>
-      <c r="AL158" s="207"/>
-      <c r="AM158" s="207"/>
-      <c r="AN158" s="207"/>
-      <c r="AO158" s="207"/>
-      <c r="AP158" s="207"/>
-      <c r="AQ158" s="207"/>
-      <c r="AR158" s="207"/>
-      <c r="AS158" s="209"/>
+      <c r="AJ158" s="206"/>
+      <c r="AK158" s="206"/>
+      <c r="AL158" s="206"/>
+      <c r="AM158" s="206"/>
+      <c r="AN158" s="206"/>
+      <c r="AO158" s="206"/>
+      <c r="AP158" s="206"/>
+      <c r="AQ158" s="206"/>
+      <c r="AR158" s="206"/>
+      <c r="AS158" s="208"/>
       <c r="AT158" s="24"/>
       <c r="AV158" s="19"/>
       <c r="AW158" s="20"/>
@@ -16858,54 +16660,54 @@
       <c r="A159" s="17"/>
       <c r="B159" s="9"/>
       <c r="C159" s="19"/>
-      <c r="D159" s="211" t="s">
+      <c r="D159" s="210" t="s">
+        <v>122</v>
+      </c>
+      <c r="E159" s="203"/>
+      <c r="F159" s="203"/>
+      <c r="G159" s="204"/>
+      <c r="H159" s="211" t="s">
+        <v>123</v>
+      </c>
+      <c r="I159" s="212"/>
+      <c r="J159" s="212"/>
+      <c r="K159" s="212"/>
+      <c r="L159" s="212"/>
+      <c r="M159" s="212"/>
+      <c r="N159" s="212"/>
+      <c r="O159" s="212"/>
+      <c r="P159" s="212"/>
+      <c r="Q159" s="212"/>
+      <c r="R159" s="212"/>
+      <c r="S159" s="212"/>
+      <c r="T159" s="212"/>
+      <c r="U159" s="212"/>
+      <c r="V159" s="212"/>
+      <c r="W159" s="212"/>
+      <c r="X159" s="212"/>
+      <c r="Y159" s="212"/>
+      <c r="Z159" s="212"/>
+      <c r="AA159" s="212"/>
+      <c r="AB159" s="212"/>
+      <c r="AC159" s="212"/>
+      <c r="AD159" s="213"/>
+      <c r="AE159" s="212"/>
+      <c r="AF159" s="212"/>
+      <c r="AG159" s="212"/>
+      <c r="AH159" s="214"/>
+      <c r="AI159" s="215" t="s">
         <v>124</v>
       </c>
-      <c r="E159" s="204"/>
-      <c r="F159" s="204"/>
-      <c r="G159" s="205"/>
-      <c r="H159" s="212" t="s">
-        <v>125</v>
-      </c>
-      <c r="I159" s="213"/>
-      <c r="J159" s="213"/>
-      <c r="K159" s="213"/>
-      <c r="L159" s="213"/>
-      <c r="M159" s="213"/>
-      <c r="N159" s="213"/>
-      <c r="O159" s="213"/>
-      <c r="P159" s="213"/>
-      <c r="Q159" s="213"/>
-      <c r="R159" s="213"/>
-      <c r="S159" s="213"/>
-      <c r="T159" s="213"/>
-      <c r="U159" s="213"/>
-      <c r="V159" s="213"/>
-      <c r="W159" s="213"/>
-      <c r="X159" s="213"/>
-      <c r="Y159" s="213"/>
-      <c r="Z159" s="213"/>
-      <c r="AA159" s="213"/>
-      <c r="AB159" s="213"/>
-      <c r="AC159" s="213"/>
-      <c r="AD159" s="214"/>
-      <c r="AE159" s="213"/>
-      <c r="AF159" s="213"/>
-      <c r="AG159" s="213"/>
-      <c r="AH159" s="215"/>
-      <c r="AI159" s="216" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ159" s="213"/>
-      <c r="AK159" s="213"/>
-      <c r="AL159" s="213"/>
-      <c r="AM159" s="213"/>
-      <c r="AN159" s="213"/>
-      <c r="AO159" s="213"/>
-      <c r="AP159" s="213"/>
-      <c r="AQ159" s="213"/>
-      <c r="AR159" s="213"/>
-      <c r="AS159" s="215"/>
+      <c r="AJ159" s="212"/>
+      <c r="AK159" s="212"/>
+      <c r="AL159" s="212"/>
+      <c r="AM159" s="212"/>
+      <c r="AN159" s="212"/>
+      <c r="AO159" s="212"/>
+      <c r="AP159" s="212"/>
+      <c r="AQ159" s="212"/>
+      <c r="AR159" s="212"/>
+      <c r="AS159" s="214"/>
       <c r="AT159" s="0"/>
       <c r="AV159" s="19"/>
       <c r="AW159" s="20"/>
@@ -16913,8 +16715,8 @@
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="17"/>
       <c r="B160" s="9"/>
-      <c r="C160" s="155"/>
-      <c r="D160" s="155"/>
+      <c r="C160" s="154"/>
+      <c r="D160" s="154"/>
       <c r="E160" s="0"/>
       <c r="F160" s="0"/>
       <c r="G160" s="0"/>
@@ -16962,8 +16764,8 @@
     <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="17"/>
       <c r="B161" s="9"/>
-      <c r="C161" s="155"/>
-      <c r="D161" s="155"/>
+      <c r="C161" s="154"/>
+      <c r="D161" s="154"/>
       <c r="E161" s="0"/>
       <c r="F161" s="0"/>
       <c r="G161" s="0"/>
